--- a/NodeList.xlsx
+++ b/NodeList.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="U:\repos\ClockworkForDynamo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDEE2C77-772E-42C3-9615-3FBB97A69A45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDC46725-E4AE-4D9B-96B0-EC9D95A006E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,7 +24,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'0.7.x'!$A$1:$D$387</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'0.9.x_0.8.x'!$A$1:$E$432</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'1.x'!$A$1:$E$477</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'2.x'!$A$1:$F$466</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'2.x'!$A$1:$F$467</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase" localSheetId="1">'1.x'!$A$1:$E$1</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase" localSheetId="0">'2.x'!$A$1:$F$1</definedName>
     <definedName name="Excel_BuiltIn_Print_Area" localSheetId="1">#REF!</definedName>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8189" uniqueCount="1304">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8194" uniqueCount="1306">
   <si>
     <t>Status</t>
   </si>
@@ -3951,6 +3951,12 @@
   </si>
   <si>
     <t>ScheduleField.Parameter</t>
+  </si>
+  <si>
+    <t>GenericForm.IsSolid</t>
+  </si>
+  <si>
+    <t>Revit.Elements.GenericForm</t>
   </si>
 </sst>
 </file>
@@ -4451,10 +4457,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:W466"/>
+  <dimension ref="A1:W467"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A413" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="C430" sqref="C430"/>
+    <sheetView tabSelected="1" topLeftCell="A324" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="C337" sqref="C337"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.28515625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -13768,20 +13774,20 @@
     </row>
     <row r="332" spans="1:6" s="3" customFormat="1" ht="14.85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A332"/>
-      <c r="B332" s="5" t="s">
+      <c r="B332" s="9" t="s">
         <v>539</v>
       </c>
-      <c r="C332" t="s">
-        <v>634</v>
+      <c r="C332" s="9" t="s">
+        <v>1304</v>
       </c>
       <c r="D332" s="3" t="s">
-        <v>635</v>
-      </c>
-      <c r="E332" t="s">
-        <v>636</v>
-      </c>
-      <c r="F332" t="s">
-        <v>634</v>
+        <v>1305</v>
+      </c>
+      <c r="E332" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F332" s="3" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="333" spans="1:6" s="3" customFormat="1" ht="14.85" customHeight="1" x14ac:dyDescent="0.2">
@@ -13790,16 +13796,16 @@
         <v>539</v>
       </c>
       <c r="C333" t="s">
-        <v>637</v>
+        <v>634</v>
       </c>
       <c r="D333" s="3" t="s">
-        <v>471</v>
+        <v>635</v>
       </c>
       <c r="E333" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="F333" t="s">
-        <v>637</v>
+        <v>634</v>
       </c>
     </row>
     <row r="334" spans="1:6" s="3" customFormat="1" ht="14.85" customHeight="1" x14ac:dyDescent="0.2">
@@ -13808,7 +13814,7 @@
         <v>539</v>
       </c>
       <c r="C334" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="D334" s="3" t="s">
         <v>471</v>
@@ -13817,7 +13823,7 @@
         <v>638</v>
       </c>
       <c r="F334" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
     </row>
     <row r="335" spans="1:6" s="3" customFormat="1" ht="14.85" customHeight="1" x14ac:dyDescent="0.2">
@@ -13826,16 +13832,16 @@
         <v>539</v>
       </c>
       <c r="C335" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="D335" s="3" t="s">
         <v>471</v>
       </c>
       <c r="E335" t="s">
-        <v>641</v>
+        <v>638</v>
       </c>
       <c r="F335" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
     </row>
     <row r="336" spans="1:6" s="3" customFormat="1" ht="14.85" customHeight="1" x14ac:dyDescent="0.2">
@@ -13844,60 +13850,43 @@
         <v>539</v>
       </c>
       <c r="C336" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="D336" s="3" t="s">
-        <v>643</v>
+        <v>471</v>
       </c>
       <c r="E336" t="s">
-        <v>644</v>
+        <v>641</v>
       </c>
       <c r="F336" t="s">
-        <v>642</v>
-      </c>
-    </row>
-    <row r="337" spans="1:23" s="6" customFormat="1" ht="14.85" customHeight="1" x14ac:dyDescent="0.2">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="337" spans="1:23" s="3" customFormat="1" ht="14.85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A337"/>
       <c r="B337" s="5" t="s">
         <v>539</v>
       </c>
       <c r="C337" t="s">
-        <v>645</v>
+        <v>642</v>
       </c>
       <c r="D337" s="3" t="s">
-        <v>646</v>
+        <v>643</v>
       </c>
       <c r="E337" t="s">
-        <v>647</v>
+        <v>644</v>
       </c>
       <c r="F337" t="s">
-        <v>645</v>
-      </c>
-      <c r="G337" s="3"/>
-      <c r="H337" s="3"/>
-      <c r="I337" s="3"/>
-      <c r="J337" s="3"/>
-      <c r="K337" s="3"/>
-      <c r="L337" s="3"/>
-      <c r="M337" s="3"/>
-      <c r="N337" s="3"/>
-      <c r="O337" s="3"/>
-      <c r="P337" s="3"/>
-      <c r="Q337" s="3"/>
-      <c r="R337" s="3"/>
-      <c r="S337" s="3"/>
-      <c r="T337" s="3"/>
-      <c r="U337" s="3"/>
-      <c r="V337" s="3"/>
-      <c r="W337" s="3"/>
-    </row>
-    <row r="338" spans="1:23" s="3" customFormat="1" ht="14.85" customHeight="1" x14ac:dyDescent="0.2">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="338" spans="1:23" s="6" customFormat="1" ht="14.85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A338"/>
       <c r="B338" s="5" t="s">
         <v>539</v>
       </c>
       <c r="C338" t="s">
-        <v>648</v>
+        <v>645</v>
       </c>
       <c r="D338" s="3" t="s">
         <v>646</v>
@@ -13906,8 +13895,25 @@
         <v>647</v>
       </c>
       <c r="F338" t="s">
-        <v>648</v>
-      </c>
+        <v>645</v>
+      </c>
+      <c r="G338" s="3"/>
+      <c r="H338" s="3"/>
+      <c r="I338" s="3"/>
+      <c r="J338" s="3"/>
+      <c r="K338" s="3"/>
+      <c r="L338" s="3"/>
+      <c r="M338" s="3"/>
+      <c r="N338" s="3"/>
+      <c r="O338" s="3"/>
+      <c r="P338" s="3"/>
+      <c r="Q338" s="3"/>
+      <c r="R338" s="3"/>
+      <c r="S338" s="3"/>
+      <c r="T338" s="3"/>
+      <c r="U338" s="3"/>
+      <c r="V338" s="3"/>
+      <c r="W338" s="3"/>
     </row>
     <row r="339" spans="1:23" s="3" customFormat="1" ht="14.85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A339"/>
@@ -13915,16 +13921,16 @@
         <v>539</v>
       </c>
       <c r="C339" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="D339" s="3" t="s">
-        <v>650</v>
+        <v>646</v>
       </c>
       <c r="E339" t="s">
-        <v>651</v>
+        <v>647</v>
       </c>
       <c r="F339" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
     </row>
     <row r="340" spans="1:23" s="3" customFormat="1" ht="14.85" customHeight="1" x14ac:dyDescent="0.2">
@@ -13933,16 +13939,16 @@
         <v>539</v>
       </c>
       <c r="C340" t="s">
-        <v>652</v>
+        <v>649</v>
       </c>
       <c r="D340" s="3" t="s">
-        <v>474</v>
+        <v>650</v>
       </c>
       <c r="E340" t="s">
-        <v>10</v>
+        <v>651</v>
       </c>
       <c r="F340" t="s">
-        <v>652</v>
+        <v>649</v>
       </c>
     </row>
     <row r="341" spans="1:23" s="3" customFormat="1" ht="14.85" customHeight="1" x14ac:dyDescent="0.2">
@@ -13951,16 +13957,16 @@
         <v>539</v>
       </c>
       <c r="C341" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="D341" s="3" t="s">
-        <v>536</v>
+        <v>474</v>
       </c>
       <c r="E341" t="s">
-        <v>654</v>
+        <v>10</v>
       </c>
       <c r="F341" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
     </row>
     <row r="342" spans="1:23" s="3" customFormat="1" ht="14.85" customHeight="1" x14ac:dyDescent="0.2">
@@ -13969,69 +13975,52 @@
         <v>539</v>
       </c>
       <c r="C342" t="s">
+        <v>653</v>
+      </c>
+      <c r="D342" s="3" t="s">
+        <v>536</v>
+      </c>
+      <c r="E342" t="s">
+        <v>654</v>
+      </c>
+      <c r="F342" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="343" spans="1:23" s="3" customFormat="1" ht="14.85" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A343"/>
+      <c r="B343" s="5" t="s">
+        <v>539</v>
+      </c>
+      <c r="C343" t="s">
         <v>655</v>
-      </c>
-      <c r="D342" s="3" t="s">
-        <v>656</v>
-      </c>
-      <c r="E342" t="s">
-        <v>657</v>
-      </c>
-      <c r="F342" t="s">
-        <v>655</v>
-      </c>
-    </row>
-    <row r="343" spans="1:23" s="4" customFormat="1" ht="14.85" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A343"/>
-      <c r="B343" s="9" t="s">
-        <v>539</v>
-      </c>
-      <c r="C343" s="9" t="s">
-        <v>658</v>
       </c>
       <c r="D343" s="3" t="s">
         <v>656</v>
       </c>
-      <c r="E343" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F343" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="G343" s="3"/>
-      <c r="H343" s="3"/>
-      <c r="I343" s="3"/>
-      <c r="J343" s="3"/>
-      <c r="K343" s="3"/>
-      <c r="L343" s="3"/>
-      <c r="M343" s="3"/>
-      <c r="N343" s="3"/>
-      <c r="O343" s="3"/>
-      <c r="P343" s="3"/>
-      <c r="Q343" s="3"/>
-      <c r="R343" s="3"/>
-      <c r="S343" s="3"/>
-      <c r="T343" s="3"/>
-      <c r="U343" s="3"/>
-      <c r="V343" s="3"/>
-      <c r="W343" s="3"/>
+      <c r="E343" t="s">
+        <v>657</v>
+      </c>
+      <c r="F343" t="s">
+        <v>655</v>
+      </c>
     </row>
     <row r="344" spans="1:23" s="4" customFormat="1" ht="14.85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A344"/>
-      <c r="B344" s="5" t="s">
+      <c r="B344" s="9" t="s">
         <v>539</v>
       </c>
-      <c r="C344" t="s">
-        <v>659</v>
+      <c r="C344" s="9" t="s">
+        <v>658</v>
       </c>
       <c r="D344" s="3" t="s">
-        <v>660</v>
-      </c>
-      <c r="E344" t="s">
-        <v>661</v>
-      </c>
-      <c r="F344" t="s">
-        <v>659</v>
+        <v>656</v>
+      </c>
+      <c r="E344" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F344" s="3" t="s">
+        <v>7</v>
       </c>
       <c r="G344" s="3"/>
       <c r="H344" s="3"/>
@@ -14057,16 +14046,16 @@
         <v>539</v>
       </c>
       <c r="C345" t="s">
-        <v>662</v>
-      </c>
-      <c r="D345" t="s">
-        <v>480</v>
+        <v>659</v>
+      </c>
+      <c r="D345" s="3" t="s">
+        <v>660</v>
       </c>
       <c r="E345" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="F345" t="s">
-        <v>662</v>
+        <v>659</v>
       </c>
       <c r="G345" s="3"/>
       <c r="H345" s="3"/>
@@ -14088,20 +14077,20 @@
     </row>
     <row r="346" spans="1:23" s="4" customFormat="1" ht="14.85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A346"/>
-      <c r="B346" s="9" t="s">
+      <c r="B346" s="5" t="s">
         <v>539</v>
       </c>
-      <c r="C346" s="9" t="s">
-        <v>664</v>
+      <c r="C346" t="s">
+        <v>662</v>
       </c>
       <c r="D346" t="s">
         <v>480</v>
       </c>
-      <c r="E346" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F346" s="3" t="s">
-        <v>7</v>
+      <c r="E346" t="s">
+        <v>663</v>
+      </c>
+      <c r="F346" t="s">
+        <v>662</v>
       </c>
       <c r="G346" s="3"/>
       <c r="H346" s="3"/>
@@ -14123,20 +14112,20 @@
     </row>
     <row r="347" spans="1:23" s="4" customFormat="1" ht="14.85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A347"/>
-      <c r="B347" s="5" t="s">
+      <c r="B347" s="9" t="s">
         <v>539</v>
       </c>
-      <c r="C347" t="s">
-        <v>665</v>
+      <c r="C347" s="9" t="s">
+        <v>664</v>
       </c>
       <c r="D347" t="s">
         <v>480</v>
       </c>
-      <c r="E347" t="s">
-        <v>663</v>
-      </c>
-      <c r="F347" t="s">
-        <v>665</v>
+      <c r="E347" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F347" s="3" t="s">
+        <v>7</v>
       </c>
       <c r="G347" s="3"/>
       <c r="H347" s="3"/>
@@ -14162,16 +14151,16 @@
         <v>539</v>
       </c>
       <c r="C348" t="s">
-        <v>666</v>
-      </c>
-      <c r="D348" s="3" t="s">
-        <v>484</v>
+        <v>665</v>
+      </c>
+      <c r="D348" t="s">
+        <v>480</v>
       </c>
       <c r="E348" t="s">
-        <v>667</v>
+        <v>663</v>
       </c>
       <c r="F348" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="G348" s="3"/>
       <c r="H348" s="3"/>
@@ -14197,7 +14186,7 @@
         <v>539</v>
       </c>
       <c r="C349" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
       <c r="D349" s="3" t="s">
         <v>484</v>
@@ -14206,7 +14195,7 @@
         <v>667</v>
       </c>
       <c r="F349" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
       <c r="G349" s="3"/>
       <c r="H349" s="3"/>
@@ -14232,7 +14221,7 @@
         <v>539</v>
       </c>
       <c r="C350" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="D350" s="3" t="s">
         <v>484</v>
@@ -14241,7 +14230,7 @@
         <v>667</v>
       </c>
       <c r="F350" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="G350" s="3"/>
       <c r="H350" s="3"/>
@@ -14267,16 +14256,16 @@
         <v>539</v>
       </c>
       <c r="C351" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="D351" s="3" t="s">
-        <v>523</v>
+        <v>484</v>
       </c>
       <c r="E351" t="s">
-        <v>671</v>
+        <v>667</v>
       </c>
       <c r="F351" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="G351" s="3"/>
       <c r="H351" s="3"/>
@@ -14296,13 +14285,13 @@
       <c r="V351" s="3"/>
       <c r="W351" s="3"/>
     </row>
-    <row r="352" spans="1:23" s="3" customFormat="1" ht="14.85" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="352" spans="1:23" s="4" customFormat="1" ht="14.85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A352"/>
       <c r="B352" s="5" t="s">
         <v>539</v>
       </c>
       <c r="C352" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
       <c r="D352" s="3" t="s">
         <v>523</v>
@@ -14311,8 +14300,25 @@
         <v>671</v>
       </c>
       <c r="F352" t="s">
-        <v>672</v>
-      </c>
+        <v>670</v>
+      </c>
+      <c r="G352" s="3"/>
+      <c r="H352" s="3"/>
+      <c r="I352" s="3"/>
+      <c r="J352" s="3"/>
+      <c r="K352" s="3"/>
+      <c r="L352" s="3"/>
+      <c r="M352" s="3"/>
+      <c r="N352" s="3"/>
+      <c r="O352" s="3"/>
+      <c r="P352" s="3"/>
+      <c r="Q352" s="3"/>
+      <c r="R352" s="3"/>
+      <c r="S352" s="3"/>
+      <c r="T352" s="3"/>
+      <c r="U352" s="3"/>
+      <c r="V352" s="3"/>
+      <c r="W352" s="3"/>
     </row>
     <row r="353" spans="1:6" s="3" customFormat="1" ht="14.85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A353"/>
@@ -14320,7 +14326,7 @@
         <v>539</v>
       </c>
       <c r="C353" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="D353" s="3" t="s">
         <v>523</v>
@@ -14329,7 +14335,7 @@
         <v>671</v>
       </c>
       <c r="F353" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
     </row>
     <row r="354" spans="1:6" s="3" customFormat="1" ht="14.85" customHeight="1" x14ac:dyDescent="0.2">
@@ -14338,7 +14344,7 @@
         <v>539</v>
       </c>
       <c r="C354" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="D354" s="3" t="s">
         <v>523</v>
@@ -14347,7 +14353,7 @@
         <v>671</v>
       </c>
       <c r="F354" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
     </row>
     <row r="355" spans="1:6" s="3" customFormat="1" ht="14.85" customHeight="1" x14ac:dyDescent="0.2">
@@ -14356,7 +14362,7 @@
         <v>539</v>
       </c>
       <c r="C355" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="D355" s="3" t="s">
         <v>523</v>
@@ -14365,7 +14371,7 @@
         <v>671</v>
       </c>
       <c r="F355" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
     </row>
     <row r="356" spans="1:6" s="3" customFormat="1" ht="14.85" customHeight="1" x14ac:dyDescent="0.2">
@@ -14374,7 +14380,7 @@
         <v>539</v>
       </c>
       <c r="C356" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="D356" s="3" t="s">
         <v>523</v>
@@ -14383,7 +14389,7 @@
         <v>671</v>
       </c>
       <c r="F356" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
     </row>
     <row r="357" spans="1:6" s="3" customFormat="1" ht="14.85" customHeight="1" x14ac:dyDescent="0.2">
@@ -14392,7 +14398,7 @@
         <v>539</v>
       </c>
       <c r="C357" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="D357" s="3" t="s">
         <v>523</v>
@@ -14401,7 +14407,7 @@
         <v>671</v>
       </c>
       <c r="F357" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
     </row>
     <row r="358" spans="1:6" s="3" customFormat="1" ht="14.85" customHeight="1" x14ac:dyDescent="0.2">
@@ -14410,16 +14416,16 @@
         <v>539</v>
       </c>
       <c r="C358" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="D358" s="3" t="s">
-        <v>679</v>
+        <v>523</v>
       </c>
       <c r="E358" t="s">
         <v>671</v>
       </c>
       <c r="F358" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
     </row>
     <row r="359" spans="1:6" s="3" customFormat="1" ht="14.85" customHeight="1" x14ac:dyDescent="0.2">
@@ -14428,34 +14434,34 @@
         <v>539</v>
       </c>
       <c r="C359" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="D359" s="3" t="s">
-        <v>488</v>
+        <v>679</v>
       </c>
       <c r="E359" t="s">
-        <v>681</v>
+        <v>671</v>
       </c>
       <c r="F359" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
     </row>
     <row r="360" spans="1:6" s="3" customFormat="1" ht="14.85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A360"/>
-      <c r="B360" s="9" t="s">
+      <c r="B360" s="5" t="s">
         <v>539</v>
       </c>
-      <c r="C360" s="9" t="s">
-        <v>682</v>
-      </c>
-      <c r="D360" t="s">
-        <v>389</v>
-      </c>
-      <c r="E360" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F360" s="3" t="s">
-        <v>7</v>
+      <c r="C360" t="s">
+        <v>680</v>
+      </c>
+      <c r="D360" s="3" t="s">
+        <v>488</v>
+      </c>
+      <c r="E360" t="s">
+        <v>681</v>
+      </c>
+      <c r="F360" t="s">
+        <v>680</v>
       </c>
     </row>
     <row r="361" spans="1:6" s="3" customFormat="1" ht="14.85" customHeight="1" x14ac:dyDescent="0.2">
@@ -14464,7 +14470,7 @@
         <v>539</v>
       </c>
       <c r="C361" s="9" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="D361" t="s">
         <v>389</v>
@@ -14482,7 +14488,7 @@
         <v>539</v>
       </c>
       <c r="C362" s="9" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="D362" t="s">
         <v>389</v>
@@ -14496,20 +14502,20 @@
     </row>
     <row r="363" spans="1:6" s="3" customFormat="1" ht="14.85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A363"/>
-      <c r="B363" s="5" t="s">
+      <c r="B363" s="9" t="s">
         <v>539</v>
       </c>
-      <c r="C363" t="s">
-        <v>685</v>
-      </c>
-      <c r="D363" s="3" t="s">
-        <v>686</v>
-      </c>
-      <c r="E363" t="s">
-        <v>687</v>
-      </c>
-      <c r="F363" t="s">
-        <v>685</v>
+      <c r="C363" s="9" t="s">
+        <v>684</v>
+      </c>
+      <c r="D363" t="s">
+        <v>389</v>
+      </c>
+      <c r="E363" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F363" s="3" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="364" spans="1:6" s="3" customFormat="1" ht="14.85" customHeight="1" x14ac:dyDescent="0.2">
@@ -14518,16 +14524,16 @@
         <v>539</v>
       </c>
       <c r="C364" t="s">
-        <v>688</v>
+        <v>685</v>
       </c>
       <c r="D364" s="3" t="s">
-        <v>689</v>
+        <v>686</v>
       </c>
       <c r="E364" t="s">
-        <v>690</v>
+        <v>687</v>
       </c>
       <c r="F364" t="s">
-        <v>688</v>
+        <v>685</v>
       </c>
     </row>
     <row r="365" spans="1:6" s="3" customFormat="1" ht="14.85" customHeight="1" x14ac:dyDescent="0.2">
@@ -14536,16 +14542,16 @@
         <v>539</v>
       </c>
       <c r="C365" t="s">
-        <v>691</v>
-      </c>
-      <c r="D365" t="s">
-        <v>491</v>
+        <v>688</v>
+      </c>
+      <c r="D365" s="3" t="s">
+        <v>689</v>
       </c>
       <c r="E365" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
       <c r="F365" t="s">
-        <v>691</v>
+        <v>688</v>
       </c>
     </row>
     <row r="366" spans="1:6" s="3" customFormat="1" ht="14.85" customHeight="1" x14ac:dyDescent="0.2">
@@ -14554,16 +14560,16 @@
         <v>539</v>
       </c>
       <c r="C366" t="s">
-        <v>693</v>
-      </c>
-      <c r="D366" s="3" t="s">
-        <v>494</v>
+        <v>691</v>
+      </c>
+      <c r="D366" t="s">
+        <v>491</v>
       </c>
       <c r="E366" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="F366" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
     </row>
     <row r="367" spans="1:6" s="3" customFormat="1" ht="14.85" customHeight="1" x14ac:dyDescent="0.2">
@@ -14572,16 +14578,16 @@
         <v>539</v>
       </c>
       <c r="C367" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="D367" s="3" t="s">
-        <v>696</v>
+        <v>494</v>
       </c>
       <c r="E367" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
       <c r="F367" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
     </row>
     <row r="368" spans="1:6" s="3" customFormat="1" ht="14.85" customHeight="1" x14ac:dyDescent="0.2">
@@ -14590,7 +14596,7 @@
         <v>539</v>
       </c>
       <c r="C368" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
       <c r="D368" s="3" t="s">
         <v>696</v>
@@ -14599,7 +14605,7 @@
         <v>696</v>
       </c>
       <c r="F368" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
     </row>
     <row r="369" spans="1:23" s="3" customFormat="1" ht="14.85" customHeight="1" x14ac:dyDescent="0.2">
@@ -14608,52 +14614,35 @@
         <v>539</v>
       </c>
       <c r="C369" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="D369" s="3" t="s">
-        <v>699</v>
+        <v>696</v>
       </c>
       <c r="E369" t="s">
-        <v>700</v>
+        <v>696</v>
       </c>
       <c r="F369" t="s">
-        <v>698</v>
-      </c>
-    </row>
-    <row r="370" spans="1:23" s="6" customFormat="1" ht="14.85" customHeight="1" x14ac:dyDescent="0.2">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="370" spans="1:23" s="3" customFormat="1" ht="14.85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A370"/>
       <c r="B370" s="5" t="s">
         <v>539</v>
       </c>
       <c r="C370" t="s">
-        <v>701</v>
+        <v>698</v>
       </c>
       <c r="D370" s="3" t="s">
-        <v>702</v>
+        <v>699</v>
       </c>
       <c r="E370" t="s">
-        <v>703</v>
+        <v>700</v>
       </c>
       <c r="F370" t="s">
-        <v>701</v>
-      </c>
-      <c r="G370" s="3"/>
-      <c r="H370" s="3"/>
-      <c r="I370" s="3"/>
-      <c r="J370" s="3"/>
-      <c r="K370" s="3"/>
-      <c r="L370" s="3"/>
-      <c r="M370" s="3"/>
-      <c r="N370" s="3"/>
-      <c r="O370" s="3"/>
-      <c r="P370" s="3"/>
-      <c r="Q370" s="3"/>
-      <c r="R370" s="3"/>
-      <c r="S370" s="3"/>
-      <c r="T370" s="3"/>
-      <c r="U370" s="3"/>
-      <c r="V370" s="3"/>
-      <c r="W370" s="3"/>
+        <v>698</v>
+      </c>
     </row>
     <row r="371" spans="1:23" s="6" customFormat="1" ht="14.85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A371"/>
@@ -14661,16 +14650,16 @@
         <v>539</v>
       </c>
       <c r="C371" t="s">
-        <v>704</v>
+        <v>701</v>
       </c>
       <c r="D371" s="3" t="s">
-        <v>361</v>
+        <v>702</v>
       </c>
       <c r="E371" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
       <c r="F371" t="s">
-        <v>704</v>
+        <v>701</v>
       </c>
       <c r="G371" s="3"/>
       <c r="H371" s="3"/>
@@ -14693,19 +14682,19 @@
     <row r="372" spans="1:23" s="6" customFormat="1" ht="14.85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A372"/>
       <c r="B372" s="5" t="s">
-        <v>706</v>
+        <v>539</v>
       </c>
       <c r="C372" t="s">
-        <v>707</v>
+        <v>704</v>
       </c>
       <c r="D372" s="3" t="s">
-        <v>708</v>
+        <v>361</v>
       </c>
       <c r="E372" t="s">
-        <v>709</v>
+        <v>705</v>
       </c>
       <c r="F372" t="s">
-        <v>707</v>
+        <v>704</v>
       </c>
       <c r="G372" s="3"/>
       <c r="H372" s="3"/>
@@ -14731,7 +14720,7 @@
         <v>706</v>
       </c>
       <c r="C373" t="s">
-        <v>710</v>
+        <v>707</v>
       </c>
       <c r="D373" s="3" t="s">
         <v>708</v>
@@ -14740,7 +14729,7 @@
         <v>709</v>
       </c>
       <c r="F373" t="s">
-        <v>710</v>
+        <v>707</v>
       </c>
       <c r="G373" s="3"/>
       <c r="H373" s="3"/>
@@ -14766,7 +14755,7 @@
         <v>706</v>
       </c>
       <c r="C374" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="D374" s="3" t="s">
         <v>708</v>
@@ -14775,7 +14764,7 @@
         <v>709</v>
       </c>
       <c r="F374" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="G374" s="3"/>
       <c r="H374" s="3"/>
@@ -14798,19 +14787,19 @@
     <row r="375" spans="1:23" s="6" customFormat="1" ht="14.85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A375"/>
       <c r="B375" s="5" t="s">
-        <v>712</v>
+        <v>706</v>
       </c>
       <c r="C375" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="D375" s="3" t="s">
         <v>708</v>
       </c>
       <c r="E375" t="s">
-        <v>714</v>
+        <v>709</v>
       </c>
       <c r="F375" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="G375" s="3"/>
       <c r="H375" s="3"/>
@@ -14835,8 +14824,8 @@
       <c r="B376" s="5" t="s">
         <v>712</v>
       </c>
-      <c r="C376" s="5" t="s">
-        <v>715</v>
+      <c r="C376" t="s">
+        <v>713</v>
       </c>
       <c r="D376" s="3" t="s">
         <v>708</v>
@@ -14845,7 +14834,7 @@
         <v>714</v>
       </c>
       <c r="F376" t="s">
-        <v>716</v>
+        <v>713</v>
       </c>
       <c r="G376" s="3"/>
       <c r="H376" s="3"/>
@@ -14870,8 +14859,8 @@
       <c r="B377" s="5" t="s">
         <v>712</v>
       </c>
-      <c r="C377" t="s">
-        <v>717</v>
+      <c r="C377" s="5" t="s">
+        <v>715</v>
       </c>
       <c r="D377" s="3" t="s">
         <v>708</v>
@@ -14880,7 +14869,7 @@
         <v>714</v>
       </c>
       <c r="F377" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="G377" s="3"/>
       <c r="H377" s="3"/>
@@ -14906,7 +14895,7 @@
         <v>712</v>
       </c>
       <c r="C378" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="D378" s="3" t="s">
         <v>708</v>
@@ -14915,7 +14904,7 @@
         <v>714</v>
       </c>
       <c r="F378" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="G378" s="3"/>
       <c r="H378" s="3"/>
@@ -14935,13 +14924,13 @@
       <c r="V378" s="3"/>
       <c r="W378" s="3"/>
     </row>
-    <row r="379" spans="1:23" s="10" customFormat="1" ht="14.85" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="379" spans="1:23" s="6" customFormat="1" ht="14.85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A379"/>
       <c r="B379" s="5" t="s">
         <v>712</v>
       </c>
       <c r="C379" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="D379" s="3" t="s">
         <v>708</v>
@@ -14950,7 +14939,7 @@
         <v>714</v>
       </c>
       <c r="F379" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="G379" s="3"/>
       <c r="H379" s="3"/>
@@ -14976,16 +14965,16 @@
         <v>712</v>
       </c>
       <c r="C380" t="s">
-        <v>720</v>
-      </c>
-      <c r="D380" t="s">
+        <v>719</v>
+      </c>
+      <c r="D380" s="3" t="s">
         <v>708</v>
       </c>
       <c r="E380" t="s">
         <v>714</v>
       </c>
       <c r="F380" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="G380" s="3"/>
       <c r="H380" s="3"/>
@@ -15005,22 +14994,22 @@
       <c r="V380" s="3"/>
       <c r="W380" s="3"/>
     </row>
-    <row r="381" spans="1:23" s="6" customFormat="1" ht="14.85" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="381" spans="1:23" s="10" customFormat="1" ht="14.85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A381"/>
       <c r="B381" s="5" t="s">
         <v>712</v>
       </c>
       <c r="C381" t="s">
-        <v>721</v>
-      </c>
-      <c r="D381" s="3" t="s">
+        <v>720</v>
+      </c>
+      <c r="D381" t="s">
         <v>708</v>
       </c>
       <c r="E381" t="s">
         <v>714</v>
       </c>
       <c r="F381" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="G381" s="3"/>
       <c r="H381" s="3"/>
@@ -15040,13 +15029,13 @@
       <c r="V381" s="3"/>
       <c r="W381" s="3"/>
     </row>
-    <row r="382" spans="1:23" s="10" customFormat="1" ht="14.65" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="382" spans="1:23" s="6" customFormat="1" ht="14.85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A382"/>
       <c r="B382" s="5" t="s">
         <v>712</v>
       </c>
       <c r="C382" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="D382" s="3" t="s">
         <v>708</v>
@@ -15055,7 +15044,7 @@
         <v>714</v>
       </c>
       <c r="F382" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="G382" s="3"/>
       <c r="H382" s="3"/>
@@ -15075,13 +15064,13 @@
       <c r="V382" s="3"/>
       <c r="W382" s="3"/>
     </row>
-    <row r="383" spans="1:23" s="3" customFormat="1" ht="14.65" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="383" spans="1:23" s="10" customFormat="1" ht="14.65" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A383"/>
       <c r="B383" s="5" t="s">
         <v>712</v>
       </c>
       <c r="C383" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="D383" s="3" t="s">
         <v>708</v>
@@ -15090,60 +15079,60 @@
         <v>714</v>
       </c>
       <c r="F383" t="s">
-        <v>723</v>
-      </c>
-    </row>
-    <row r="384" spans="1:23" s="6" customFormat="1" ht="14.65" customHeight="1" x14ac:dyDescent="0.2">
+        <v>722</v>
+      </c>
+      <c r="G383" s="3"/>
+      <c r="H383" s="3"/>
+      <c r="I383" s="3"/>
+      <c r="J383" s="3"/>
+      <c r="K383" s="3"/>
+      <c r="L383" s="3"/>
+      <c r="M383" s="3"/>
+      <c r="N383" s="3"/>
+      <c r="O383" s="3"/>
+      <c r="P383" s="3"/>
+      <c r="Q383" s="3"/>
+      <c r="R383" s="3"/>
+      <c r="S383" s="3"/>
+      <c r="T383" s="3"/>
+      <c r="U383" s="3"/>
+      <c r="V383" s="3"/>
+      <c r="W383" s="3"/>
+    </row>
+    <row r="384" spans="1:23" s="3" customFormat="1" ht="14.65" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A384"/>
       <c r="B384" s="5" t="s">
-        <v>724</v>
+        <v>712</v>
       </c>
       <c r="C384" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
       <c r="D384" s="3" t="s">
         <v>708</v>
       </c>
       <c r="E384" t="s">
-        <v>726</v>
+        <v>714</v>
       </c>
       <c r="F384" t="s">
-        <v>725</v>
-      </c>
-      <c r="G384" s="3"/>
-      <c r="H384" s="3"/>
-      <c r="I384" s="3"/>
-      <c r="J384" s="3"/>
-      <c r="K384" s="3"/>
-      <c r="L384" s="3"/>
-      <c r="M384" s="3"/>
-      <c r="N384" s="3"/>
-      <c r="O384" s="3"/>
-      <c r="P384" s="3"/>
-      <c r="Q384" s="3"/>
-      <c r="R384" s="3"/>
-      <c r="S384" s="3"/>
-      <c r="T384" s="3"/>
-      <c r="U384" s="3"/>
-      <c r="V384" s="3"/>
-      <c r="W384" s="3"/>
-    </row>
-    <row r="385" spans="1:23" s="10" customFormat="1" ht="14.85" customHeight="1" x14ac:dyDescent="0.2">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="385" spans="1:23" s="6" customFormat="1" ht="14.65" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A385"/>
       <c r="B385" s="5" t="s">
-        <v>727</v>
+        <v>724</v>
       </c>
       <c r="C385" t="s">
-        <v>728</v>
+        <v>725</v>
       </c>
       <c r="D385" s="3" t="s">
         <v>708</v>
       </c>
       <c r="E385" t="s">
-        <v>729</v>
+        <v>726</v>
       </c>
       <c r="F385" t="s">
-        <v>728</v>
+        <v>725</v>
       </c>
       <c r="G385" s="3"/>
       <c r="H385" s="3"/>
@@ -15169,7 +15158,7 @@
         <v>727</v>
       </c>
       <c r="C386" t="s">
-        <v>730</v>
+        <v>728</v>
       </c>
       <c r="D386" s="3" t="s">
         <v>708</v>
@@ -15178,7 +15167,7 @@
         <v>729</v>
       </c>
       <c r="F386" t="s">
-        <v>730</v>
+        <v>728</v>
       </c>
       <c r="G386" s="3"/>
       <c r="H386" s="3"/>
@@ -15198,22 +15187,22 @@
       <c r="V386" s="3"/>
       <c r="W386" s="3"/>
     </row>
-    <row r="387" spans="1:23" s="4" customFormat="1" ht="14.85" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="387" spans="1:23" s="10" customFormat="1" ht="14.85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A387"/>
       <c r="B387" s="5" t="s">
-        <v>731</v>
+        <v>727</v>
       </c>
       <c r="C387" t="s">
-        <v>732</v>
+        <v>730</v>
       </c>
       <c r="D387" s="3" t="s">
         <v>708</v>
       </c>
       <c r="E387" t="s">
-        <v>733</v>
+        <v>729</v>
       </c>
       <c r="F387" t="s">
-        <v>732</v>
+        <v>730</v>
       </c>
       <c r="G387" s="3"/>
       <c r="H387" s="3"/>
@@ -15239,16 +15228,16 @@
         <v>731</v>
       </c>
       <c r="C388" t="s">
-        <v>734</v>
+        <v>732</v>
       </c>
       <c r="D388" s="3" t="s">
-        <v>7</v>
+        <v>708</v>
       </c>
       <c r="E388" t="s">
         <v>733</v>
       </c>
       <c r="F388" t="s">
-        <v>734</v>
+        <v>732</v>
       </c>
       <c r="G388" s="3"/>
       <c r="H388" s="3"/>
@@ -15274,16 +15263,16 @@
         <v>731</v>
       </c>
       <c r="C389" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="D389" s="3" t="s">
-        <v>708</v>
+        <v>7</v>
       </c>
       <c r="E389" t="s">
         <v>733</v>
       </c>
       <c r="F389" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="G389" s="3"/>
       <c r="H389" s="3"/>
@@ -15309,16 +15298,16 @@
         <v>731</v>
       </c>
       <c r="C390" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="D390" s="3" t="s">
-        <v>7</v>
+        <v>708</v>
       </c>
       <c r="E390" t="s">
         <v>733</v>
       </c>
       <c r="F390" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="G390" s="3"/>
       <c r="H390" s="3"/>
@@ -15344,16 +15333,16 @@
         <v>731</v>
       </c>
       <c r="C391" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="D391" s="3" t="s">
-        <v>708</v>
+        <v>7</v>
       </c>
       <c r="E391" t="s">
         <v>733</v>
       </c>
       <c r="F391" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="G391" s="3"/>
       <c r="H391" s="3"/>
@@ -15378,8 +15367,8 @@
       <c r="B392" s="5" t="s">
         <v>731</v>
       </c>
-      <c r="C392" s="5" t="s">
-        <v>738</v>
+      <c r="C392" t="s">
+        <v>737</v>
       </c>
       <c r="D392" s="3" t="s">
         <v>708</v>
@@ -15388,7 +15377,7 @@
         <v>733</v>
       </c>
       <c r="F392" t="s">
-        <v>739</v>
+        <v>737</v>
       </c>
       <c r="G392" s="3"/>
       <c r="H392" s="3"/>
@@ -15413,8 +15402,8 @@
       <c r="B393" s="5" t="s">
         <v>731</v>
       </c>
-      <c r="C393" t="s">
-        <v>740</v>
+      <c r="C393" s="5" t="s">
+        <v>738</v>
       </c>
       <c r="D393" s="3" t="s">
         <v>708</v>
@@ -15423,7 +15412,7 @@
         <v>733</v>
       </c>
       <c r="F393" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="G393" s="3"/>
       <c r="H393" s="3"/>
@@ -15443,22 +15432,22 @@
       <c r="V393" s="3"/>
       <c r="W393" s="3"/>
     </row>
-    <row r="394" spans="1:23" s="6" customFormat="1" ht="14.85" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="394" spans="1:23" s="4" customFormat="1" ht="14.85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A394"/>
       <c r="B394" s="5" t="s">
-        <v>741</v>
+        <v>731</v>
       </c>
       <c r="C394" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
       <c r="D394" s="3" t="s">
         <v>708</v>
       </c>
       <c r="E394" t="s">
-        <v>743</v>
+        <v>733</v>
       </c>
       <c r="F394" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
       <c r="G394" s="3"/>
       <c r="H394" s="3"/>
@@ -15478,22 +15467,22 @@
       <c r="V394" s="3"/>
       <c r="W394" s="3"/>
     </row>
-    <row r="395" spans="1:23" s="4" customFormat="1" ht="14.85" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="395" spans="1:23" s="6" customFormat="1" ht="14.85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A395"/>
-      <c r="B395" t="s">
-        <v>744</v>
+      <c r="B395" s="5" t="s">
+        <v>741</v>
       </c>
       <c r="C395" t="s">
-        <v>745</v>
+        <v>742</v>
       </c>
       <c r="D395" s="3" t="s">
-        <v>392</v>
+        <v>708</v>
       </c>
       <c r="E395" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="F395" t="s">
-        <v>745</v>
+        <v>742</v>
       </c>
       <c r="G395" s="3"/>
       <c r="H395" s="3"/>
@@ -15519,7 +15508,7 @@
         <v>744</v>
       </c>
       <c r="C396" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="D396" s="3" t="s">
         <v>392</v>
@@ -15528,7 +15517,7 @@
         <v>744</v>
       </c>
       <c r="F396" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="G396" s="3"/>
       <c r="H396" s="3"/>
@@ -15548,22 +15537,22 @@
       <c r="V396" s="3"/>
       <c r="W396" s="3"/>
     </row>
-    <row r="397" spans="1:23" s="6" customFormat="1" ht="14.85" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="397" spans="1:23" s="4" customFormat="1" ht="14.85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A397"/>
-      <c r="B397" s="5" t="s">
-        <v>747</v>
+      <c r="B397" t="s">
+        <v>744</v>
       </c>
       <c r="C397" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
       <c r="D397" s="3" t="s">
         <v>392</v>
       </c>
       <c r="E397" t="s">
-        <v>749</v>
+        <v>744</v>
       </c>
       <c r="F397" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
       <c r="G397" s="3"/>
       <c r="H397" s="3"/>
@@ -15586,19 +15575,19 @@
     <row r="398" spans="1:23" s="6" customFormat="1" ht="14.85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A398"/>
       <c r="B398" s="5" t="s">
-        <v>750</v>
+        <v>747</v>
       </c>
       <c r="C398" t="s">
-        <v>751</v>
+        <v>748</v>
       </c>
       <c r="D398" s="3" t="s">
-        <v>752</v>
+        <v>392</v>
       </c>
       <c r="E398" t="s">
-        <v>753</v>
+        <v>749</v>
       </c>
       <c r="F398" t="s">
-        <v>751</v>
+        <v>748</v>
       </c>
       <c r="G398" s="3"/>
       <c r="H398" s="3"/>
@@ -15624,16 +15613,16 @@
         <v>750</v>
       </c>
       <c r="C399" t="s">
-        <v>754</v>
-      </c>
-      <c r="D399" t="s">
-        <v>755</v>
+        <v>751</v>
+      </c>
+      <c r="D399" s="3" t="s">
+        <v>752</v>
       </c>
       <c r="E399" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
       <c r="F399" t="s">
-        <v>754</v>
+        <v>751</v>
       </c>
       <c r="G399" s="3"/>
       <c r="H399" s="3"/>
@@ -15659,7 +15648,7 @@
         <v>750</v>
       </c>
       <c r="C400" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
       <c r="D400" t="s">
         <v>755</v>
@@ -15668,7 +15657,7 @@
         <v>755</v>
       </c>
       <c r="F400" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
       <c r="G400" s="3"/>
       <c r="H400" s="3"/>
@@ -15694,7 +15683,7 @@
         <v>750</v>
       </c>
       <c r="C401" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="D401" t="s">
         <v>755</v>
@@ -15703,7 +15692,7 @@
         <v>755</v>
       </c>
       <c r="F401" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="G401" s="3"/>
       <c r="H401" s="3"/>
@@ -15729,7 +15718,7 @@
         <v>750</v>
       </c>
       <c r="C402" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="D402" t="s">
         <v>755</v>
@@ -15738,7 +15727,7 @@
         <v>755</v>
       </c>
       <c r="F402" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="G402" s="3"/>
       <c r="H402" s="3"/>
@@ -15764,7 +15753,7 @@
         <v>750</v>
       </c>
       <c r="C403" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="D403" t="s">
         <v>755</v>
@@ -15773,7 +15762,7 @@
         <v>755</v>
       </c>
       <c r="F403" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="G403" s="3"/>
       <c r="H403" s="3"/>
@@ -15793,13 +15782,13 @@
       <c r="V403" s="3"/>
       <c r="W403" s="3"/>
     </row>
-    <row r="404" spans="1:23" s="4" customFormat="1" ht="14.85" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="404" spans="1:23" s="6" customFormat="1" ht="14.85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A404"/>
       <c r="B404" s="5" t="s">
         <v>750</v>
       </c>
       <c r="C404" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="D404" t="s">
         <v>755</v>
@@ -15808,7 +15797,7 @@
         <v>755</v>
       </c>
       <c r="F404" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="G404" s="3"/>
       <c r="H404" s="3"/>
@@ -15834,7 +15823,7 @@
         <v>750</v>
       </c>
       <c r="C405" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="D405" t="s">
         <v>755</v>
@@ -15843,7 +15832,7 @@
         <v>755</v>
       </c>
       <c r="F405" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="G405" s="3"/>
       <c r="H405" s="3"/>
@@ -15863,13 +15852,13 @@
       <c r="V405" s="3"/>
       <c r="W405" s="3"/>
     </row>
-    <row r="406" spans="1:23" s="3" customFormat="1" ht="14.85" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="406" spans="1:23" s="4" customFormat="1" ht="14.85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A406"/>
       <c r="B406" s="5" t="s">
         <v>750</v>
       </c>
       <c r="C406" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="D406" t="s">
         <v>755</v>
@@ -15878,16 +15867,33 @@
         <v>755</v>
       </c>
       <c r="F406" t="s">
-        <v>762</v>
-      </c>
-    </row>
-    <row r="407" spans="1:23" s="4" customFormat="1" ht="14.85" customHeight="1" x14ac:dyDescent="0.2">
+        <v>761</v>
+      </c>
+      <c r="G406" s="3"/>
+      <c r="H406" s="3"/>
+      <c r="I406" s="3"/>
+      <c r="J406" s="3"/>
+      <c r="K406" s="3"/>
+      <c r="L406" s="3"/>
+      <c r="M406" s="3"/>
+      <c r="N406" s="3"/>
+      <c r="O406" s="3"/>
+      <c r="P406" s="3"/>
+      <c r="Q406" s="3"/>
+      <c r="R406" s="3"/>
+      <c r="S406" s="3"/>
+      <c r="T406" s="3"/>
+      <c r="U406" s="3"/>
+      <c r="V406" s="3"/>
+      <c r="W406" s="3"/>
+    </row>
+    <row r="407" spans="1:23" s="3" customFormat="1" ht="14.85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A407"/>
       <c r="B407" s="5" t="s">
         <v>750</v>
       </c>
       <c r="C407" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="D407" t="s">
         <v>755</v>
@@ -15896,25 +15902,8 @@
         <v>755</v>
       </c>
       <c r="F407" t="s">
-        <v>763</v>
-      </c>
-      <c r="G407" s="3"/>
-      <c r="H407" s="3"/>
-      <c r="I407" s="3"/>
-      <c r="J407" s="3"/>
-      <c r="K407" s="3"/>
-      <c r="L407" s="3"/>
-      <c r="M407" s="3"/>
-      <c r="N407" s="3"/>
-      <c r="O407" s="3"/>
-      <c r="P407" s="3"/>
-      <c r="Q407" s="3"/>
-      <c r="R407" s="3"/>
-      <c r="S407" s="3"/>
-      <c r="T407" s="3"/>
-      <c r="U407" s="3"/>
-      <c r="V407" s="3"/>
-      <c r="W407" s="3"/>
+        <v>762</v>
+      </c>
     </row>
     <row r="408" spans="1:23" s="4" customFormat="1" ht="14.85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A408"/>
@@ -15922,7 +15911,7 @@
         <v>750</v>
       </c>
       <c r="C408" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="D408" t="s">
         <v>755</v>
@@ -15931,7 +15920,7 @@
         <v>755</v>
       </c>
       <c r="F408" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="G408" s="3"/>
       <c r="H408" s="3"/>
@@ -15957,7 +15946,7 @@
         <v>750</v>
       </c>
       <c r="C409" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="D409" t="s">
         <v>755</v>
@@ -15966,7 +15955,7 @@
         <v>755</v>
       </c>
       <c r="F409" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="G409" s="3"/>
       <c r="H409" s="3"/>
@@ -15986,13 +15975,13 @@
       <c r="V409" s="3"/>
       <c r="W409" s="3"/>
     </row>
-    <row r="410" spans="1:23" s="3" customFormat="1" ht="14.85" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="410" spans="1:23" s="4" customFormat="1" ht="14.85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A410"/>
       <c r="B410" s="5" t="s">
         <v>750</v>
       </c>
       <c r="C410" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="D410" t="s">
         <v>755</v>
@@ -16001,16 +15990,33 @@
         <v>755</v>
       </c>
       <c r="F410" t="s">
-        <v>766</v>
-      </c>
-    </row>
-    <row r="411" spans="1:23" s="4" customFormat="1" ht="14.85" customHeight="1" x14ac:dyDescent="0.2">
+        <v>765</v>
+      </c>
+      <c r="G410" s="3"/>
+      <c r="H410" s="3"/>
+      <c r="I410" s="3"/>
+      <c r="J410" s="3"/>
+      <c r="K410" s="3"/>
+      <c r="L410" s="3"/>
+      <c r="M410" s="3"/>
+      <c r="N410" s="3"/>
+      <c r="O410" s="3"/>
+      <c r="P410" s="3"/>
+      <c r="Q410" s="3"/>
+      <c r="R410" s="3"/>
+      <c r="S410" s="3"/>
+      <c r="T410" s="3"/>
+      <c r="U410" s="3"/>
+      <c r="V410" s="3"/>
+      <c r="W410" s="3"/>
+    </row>
+    <row r="411" spans="1:23" s="3" customFormat="1" ht="14.85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A411"/>
       <c r="B411" s="5" t="s">
         <v>750</v>
       </c>
       <c r="C411" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="D411" t="s">
         <v>755</v>
@@ -16019,25 +16025,8 @@
         <v>755</v>
       </c>
       <c r="F411" t="s">
-        <v>767</v>
-      </c>
-      <c r="G411" s="3"/>
-      <c r="H411" s="3"/>
-      <c r="I411" s="3"/>
-      <c r="J411" s="3"/>
-      <c r="K411" s="3"/>
-      <c r="L411" s="3"/>
-      <c r="M411" s="3"/>
-      <c r="N411" s="3"/>
-      <c r="O411" s="3"/>
-      <c r="P411" s="3"/>
-      <c r="Q411" s="3"/>
-      <c r="R411" s="3"/>
-      <c r="S411" s="3"/>
-      <c r="T411" s="3"/>
-      <c r="U411" s="3"/>
-      <c r="V411" s="3"/>
-      <c r="W411" s="3"/>
+        <v>766</v>
+      </c>
     </row>
     <row r="412" spans="1:23" s="4" customFormat="1" ht="14.85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A412"/>
@@ -16045,7 +16034,7 @@
         <v>750</v>
       </c>
       <c r="C412" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="D412" t="s">
         <v>755</v>
@@ -16054,7 +16043,7 @@
         <v>755</v>
       </c>
       <c r="F412" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="G412" s="3"/>
       <c r="H412" s="3"/>
@@ -16080,7 +16069,7 @@
         <v>750</v>
       </c>
       <c r="C413" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="D413" t="s">
         <v>755</v>
@@ -16089,7 +16078,7 @@
         <v>755</v>
       </c>
       <c r="F413" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="G413" s="3"/>
       <c r="H413" s="3"/>
@@ -16115,7 +16104,7 @@
         <v>750</v>
       </c>
       <c r="C414" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="D414" t="s">
         <v>755</v>
@@ -16124,7 +16113,7 @@
         <v>755</v>
       </c>
       <c r="F414" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="G414" s="3"/>
       <c r="H414" s="3"/>
@@ -16150,7 +16139,7 @@
         <v>750</v>
       </c>
       <c r="C415" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="D415" t="s">
         <v>755</v>
@@ -16159,7 +16148,7 @@
         <v>755</v>
       </c>
       <c r="F415" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="G415" s="3"/>
       <c r="H415" s="3"/>
@@ -16181,20 +16170,20 @@
     </row>
     <row r="416" spans="1:23" s="4" customFormat="1" ht="14.85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A416"/>
-      <c r="B416" s="9" t="s">
+      <c r="B416" s="5" t="s">
         <v>750</v>
       </c>
-      <c r="C416" s="9" t="s">
-        <v>772</v>
+      <c r="C416" t="s">
+        <v>771</v>
       </c>
       <c r="D416" t="s">
-        <v>773</v>
+        <v>755</v>
       </c>
       <c r="E416" t="s">
-        <v>7</v>
+        <v>755</v>
       </c>
       <c r="F416" t="s">
-        <v>7</v>
+        <v>771</v>
       </c>
       <c r="G416" s="3"/>
       <c r="H416" s="3"/>
@@ -16216,20 +16205,20 @@
     </row>
     <row r="417" spans="1:23" s="4" customFormat="1" ht="14.85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A417"/>
-      <c r="B417" s="5" t="s">
-        <v>774</v>
-      </c>
-      <c r="C417" s="5" t="s">
-        <v>775</v>
-      </c>
-      <c r="D417" s="3" t="s">
-        <v>776</v>
+      <c r="B417" s="9" t="s">
+        <v>750</v>
+      </c>
+      <c r="C417" s="9" t="s">
+        <v>772</v>
+      </c>
+      <c r="D417" t="s">
+        <v>773</v>
       </c>
       <c r="E417" t="s">
-        <v>777</v>
+        <v>7</v>
       </c>
       <c r="F417" t="s">
-        <v>778</v>
+        <v>7</v>
       </c>
       <c r="G417" s="3"/>
       <c r="H417" s="3"/>
@@ -16252,19 +16241,19 @@
     <row r="418" spans="1:23" s="4" customFormat="1" ht="14.85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A418"/>
       <c r="B418" s="5" t="s">
-        <v>779</v>
-      </c>
-      <c r="C418" t="s">
-        <v>780</v>
+        <v>774</v>
+      </c>
+      <c r="C418" s="5" t="s">
+        <v>775</v>
       </c>
       <c r="D418" s="3" t="s">
-        <v>781</v>
+        <v>776</v>
       </c>
       <c r="E418" t="s">
-        <v>782</v>
+        <v>777</v>
       </c>
       <c r="F418" t="s">
-        <v>780</v>
+        <v>778</v>
       </c>
       <c r="G418" s="3"/>
       <c r="H418" s="3"/>
@@ -16286,20 +16275,20 @@
     </row>
     <row r="419" spans="1:23" s="4" customFormat="1" ht="14.85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A419"/>
-      <c r="B419" s="9" t="s">
+      <c r="B419" s="5" t="s">
         <v>779</v>
       </c>
-      <c r="C419" s="9" t="s">
-        <v>783</v>
+      <c r="C419" t="s">
+        <v>780</v>
       </c>
       <c r="D419" s="3" t="s">
-        <v>784</v>
+        <v>781</v>
       </c>
       <c r="E419" t="s">
-        <v>7</v>
+        <v>782</v>
       </c>
       <c r="F419" t="s">
-        <v>7</v>
+        <v>780</v>
       </c>
       <c r="G419" s="3"/>
       <c r="H419" s="3"/>
@@ -16321,20 +16310,20 @@
     </row>
     <row r="420" spans="1:23" s="4" customFormat="1" ht="14.85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A420"/>
-      <c r="B420" s="5" t="s">
+      <c r="B420" s="9" t="s">
         <v>779</v>
       </c>
-      <c r="C420" t="s">
-        <v>785</v>
+      <c r="C420" s="9" t="s">
+        <v>783</v>
       </c>
       <c r="D420" s="3" t="s">
         <v>784</v>
       </c>
       <c r="E420" t="s">
-        <v>786</v>
+        <v>7</v>
       </c>
       <c r="F420" t="s">
-        <v>785</v>
+        <v>7</v>
       </c>
       <c r="G420" s="3"/>
       <c r="H420" s="3"/>
@@ -16356,20 +16345,20 @@
     </row>
     <row r="421" spans="1:23" s="4" customFormat="1" ht="14.85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A421"/>
-      <c r="B421" s="9" t="s">
+      <c r="B421" s="5" t="s">
         <v>779</v>
       </c>
-      <c r="C421" s="9" t="s">
-        <v>1303</v>
+      <c r="C421" t="s">
+        <v>785</v>
       </c>
       <c r="D421" s="3" t="s">
         <v>784</v>
       </c>
       <c r="E421" t="s">
-        <v>7</v>
+        <v>786</v>
       </c>
       <c r="F421" t="s">
-        <v>7</v>
+        <v>785</v>
       </c>
       <c r="G421" s="3"/>
       <c r="H421" s="3"/>
@@ -16395,7 +16384,7 @@
         <v>779</v>
       </c>
       <c r="C422" s="9" t="s">
-        <v>787</v>
+        <v>1303</v>
       </c>
       <c r="D422" s="3" t="s">
         <v>784</v>
@@ -16426,20 +16415,20 @@
     </row>
     <row r="423" spans="1:23" s="4" customFormat="1" ht="14.85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A423"/>
-      <c r="B423" s="5" t="s">
+      <c r="B423" s="9" t="s">
         <v>779</v>
       </c>
-      <c r="C423" t="s">
-        <v>788</v>
+      <c r="C423" s="9" t="s">
+        <v>787</v>
       </c>
       <c r="D423" s="3" t="s">
-        <v>776</v>
+        <v>784</v>
       </c>
       <c r="E423" t="s">
-        <v>789</v>
+        <v>7</v>
       </c>
       <c r="F423" t="s">
-        <v>788</v>
+        <v>7</v>
       </c>
       <c r="G423" s="3"/>
       <c r="H423" s="3"/>
@@ -16465,7 +16454,7 @@
         <v>779</v>
       </c>
       <c r="C424" t="s">
-        <v>790</v>
+        <v>788</v>
       </c>
       <c r="D424" s="3" t="s">
         <v>776</v>
@@ -16474,7 +16463,7 @@
         <v>789</v>
       </c>
       <c r="F424" t="s">
-        <v>790</v>
+        <v>788</v>
       </c>
       <c r="G424" s="3"/>
       <c r="H424" s="3"/>
@@ -16500,16 +16489,16 @@
         <v>779</v>
       </c>
       <c r="C425" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="D425" s="3" t="s">
-        <v>792</v>
+        <v>776</v>
       </c>
       <c r="E425" t="s">
-        <v>792</v>
+        <v>789</v>
       </c>
       <c r="F425" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="G425" s="3"/>
       <c r="H425" s="3"/>
@@ -16535,7 +16524,7 @@
         <v>779</v>
       </c>
       <c r="C426" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="D426" s="3" t="s">
         <v>792</v>
@@ -16544,7 +16533,7 @@
         <v>792</v>
       </c>
       <c r="F426" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="G426" s="3"/>
       <c r="H426" s="3"/>
@@ -16570,7 +16559,7 @@
         <v>779</v>
       </c>
       <c r="C427" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="D427" s="3" t="s">
         <v>792</v>
@@ -16579,7 +16568,7 @@
         <v>792</v>
       </c>
       <c r="F427" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="G427" s="3"/>
       <c r="H427" s="3"/>
@@ -16605,7 +16594,7 @@
         <v>779</v>
       </c>
       <c r="C428" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="D428" s="3" t="s">
         <v>792</v>
@@ -16614,7 +16603,7 @@
         <v>792</v>
       </c>
       <c r="F428" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="G428" s="3"/>
       <c r="H428" s="3"/>
@@ -16640,7 +16629,7 @@
         <v>779</v>
       </c>
       <c r="C429" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="D429" s="3" t="s">
         <v>792</v>
@@ -16649,7 +16638,7 @@
         <v>792</v>
       </c>
       <c r="F429" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="G429" s="3"/>
       <c r="H429" s="3"/>
@@ -16669,13 +16658,13 @@
       <c r="V429" s="3"/>
       <c r="W429" s="3"/>
     </row>
-    <row r="430" spans="1:23" s="4" customFormat="1" ht="14.65" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="430" spans="1:23" s="4" customFormat="1" ht="14.85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A430"/>
       <c r="B430" s="5" t="s">
         <v>779</v>
       </c>
       <c r="C430" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="D430" s="3" t="s">
         <v>792</v>
@@ -16684,7 +16673,7 @@
         <v>792</v>
       </c>
       <c r="F430" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="G430" s="3"/>
       <c r="H430" s="3"/>
@@ -16710,7 +16699,7 @@
         <v>779</v>
       </c>
       <c r="C431" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="D431" s="3" t="s">
         <v>792</v>
@@ -16719,7 +16708,7 @@
         <v>792</v>
       </c>
       <c r="F431" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="G431" s="3"/>
       <c r="H431" s="3"/>
@@ -16739,13 +16728,13 @@
       <c r="V431" s="3"/>
       <c r="W431" s="3"/>
     </row>
-    <row r="432" spans="1:23" s="3" customFormat="1" ht="14.65" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="432" spans="1:23" s="4" customFormat="1" ht="14.65" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A432"/>
       <c r="B432" s="5" t="s">
         <v>779</v>
       </c>
       <c r="C432" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="D432" s="3" t="s">
         <v>792</v>
@@ -16754,8 +16743,25 @@
         <v>792</v>
       </c>
       <c r="F432" t="s">
-        <v>799</v>
-      </c>
+        <v>798</v>
+      </c>
+      <c r="G432" s="3"/>
+      <c r="H432" s="3"/>
+      <c r="I432" s="3"/>
+      <c r="J432" s="3"/>
+      <c r="K432" s="3"/>
+      <c r="L432" s="3"/>
+      <c r="M432" s="3"/>
+      <c r="N432" s="3"/>
+      <c r="O432" s="3"/>
+      <c r="P432" s="3"/>
+      <c r="Q432" s="3"/>
+      <c r="R432" s="3"/>
+      <c r="S432" s="3"/>
+      <c r="T432" s="3"/>
+      <c r="U432" s="3"/>
+      <c r="V432" s="3"/>
+      <c r="W432" s="3"/>
     </row>
     <row r="433" spans="1:23" s="3" customFormat="1" ht="14.65" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A433"/>
@@ -16763,7 +16769,7 @@
         <v>779</v>
       </c>
       <c r="C433" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="D433" s="3" t="s">
         <v>792</v>
@@ -16772,16 +16778,16 @@
         <v>792</v>
       </c>
       <c r="F433" t="s">
-        <v>800</v>
-      </c>
-    </row>
-    <row r="434" spans="1:23" s="4" customFormat="1" ht="14.85" customHeight="1" x14ac:dyDescent="0.2">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="434" spans="1:23" s="3" customFormat="1" ht="14.65" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A434"/>
       <c r="B434" s="5" t="s">
         <v>779</v>
       </c>
       <c r="C434" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="D434" s="3" t="s">
         <v>792</v>
@@ -16790,33 +16796,16 @@
         <v>792</v>
       </c>
       <c r="F434" t="s">
-        <v>801</v>
-      </c>
-      <c r="G434" s="3"/>
-      <c r="H434" s="3"/>
-      <c r="I434" s="3"/>
-      <c r="J434" s="3"/>
-      <c r="K434" s="3"/>
-      <c r="L434" s="3"/>
-      <c r="M434" s="3"/>
-      <c r="N434" s="3"/>
-      <c r="O434" s="3"/>
-      <c r="P434" s="3"/>
-      <c r="Q434" s="3"/>
-      <c r="R434" s="3"/>
-      <c r="S434" s="3"/>
-      <c r="T434" s="3"/>
-      <c r="U434" s="3"/>
-      <c r="V434" s="3"/>
-      <c r="W434" s="3"/>
-    </row>
-    <row r="435" spans="1:23" s="3" customFormat="1" ht="14.85" customHeight="1" x14ac:dyDescent="0.2">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="435" spans="1:23" s="4" customFormat="1" ht="14.85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A435"/>
       <c r="B435" s="5" t="s">
         <v>779</v>
       </c>
       <c r="C435" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="D435" s="3" t="s">
         <v>792</v>
@@ -16825,16 +16814,33 @@
         <v>792</v>
       </c>
       <c r="F435" t="s">
-        <v>802</v>
-      </c>
-    </row>
-    <row r="436" spans="1:23" s="4" customFormat="1" ht="14.85" customHeight="1" x14ac:dyDescent="0.2">
+        <v>801</v>
+      </c>
+      <c r="G435" s="3"/>
+      <c r="H435" s="3"/>
+      <c r="I435" s="3"/>
+      <c r="J435" s="3"/>
+      <c r="K435" s="3"/>
+      <c r="L435" s="3"/>
+      <c r="M435" s="3"/>
+      <c r="N435" s="3"/>
+      <c r="O435" s="3"/>
+      <c r="P435" s="3"/>
+      <c r="Q435" s="3"/>
+      <c r="R435" s="3"/>
+      <c r="S435" s="3"/>
+      <c r="T435" s="3"/>
+      <c r="U435" s="3"/>
+      <c r="V435" s="3"/>
+      <c r="W435" s="3"/>
+    </row>
+    <row r="436" spans="1:23" s="3" customFormat="1" ht="14.85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A436"/>
       <c r="B436" s="5" t="s">
         <v>779</v>
       </c>
       <c r="C436" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="D436" s="3" t="s">
         <v>792</v>
@@ -16843,25 +16849,8 @@
         <v>792</v>
       </c>
       <c r="F436" t="s">
-        <v>803</v>
-      </c>
-      <c r="G436" s="3"/>
-      <c r="H436" s="3"/>
-      <c r="I436" s="3"/>
-      <c r="J436" s="3"/>
-      <c r="K436" s="3"/>
-      <c r="L436" s="3"/>
-      <c r="M436" s="3"/>
-      <c r="N436" s="3"/>
-      <c r="O436" s="3"/>
-      <c r="P436" s="3"/>
-      <c r="Q436" s="3"/>
-      <c r="R436" s="3"/>
-      <c r="S436" s="3"/>
-      <c r="T436" s="3"/>
-      <c r="U436" s="3"/>
-      <c r="V436" s="3"/>
-      <c r="W436" s="3"/>
+        <v>802</v>
+      </c>
     </row>
     <row r="437" spans="1:23" s="4" customFormat="1" ht="14.85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A437"/>
@@ -16869,7 +16858,7 @@
         <v>779</v>
       </c>
       <c r="C437" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="D437" s="3" t="s">
         <v>792</v>
@@ -16878,7 +16867,7 @@
         <v>792</v>
       </c>
       <c r="F437" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="G437" s="3"/>
       <c r="H437" s="3"/>
@@ -16898,13 +16887,13 @@
       <c r="V437" s="3"/>
       <c r="W437" s="3"/>
     </row>
-    <row r="438" spans="1:23" s="3" customFormat="1" ht="14.85" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="438" spans="1:23" s="4" customFormat="1" ht="14.85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A438"/>
       <c r="B438" s="5" t="s">
         <v>779</v>
       </c>
       <c r="C438" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="D438" s="3" t="s">
         <v>792</v>
@@ -16913,8 +16902,25 @@
         <v>792</v>
       </c>
       <c r="F438" t="s">
-        <v>805</v>
-      </c>
+        <v>804</v>
+      </c>
+      <c r="G438" s="3"/>
+      <c r="H438" s="3"/>
+      <c r="I438" s="3"/>
+      <c r="J438" s="3"/>
+      <c r="K438" s="3"/>
+      <c r="L438" s="3"/>
+      <c r="M438" s="3"/>
+      <c r="N438" s="3"/>
+      <c r="O438" s="3"/>
+      <c r="P438" s="3"/>
+      <c r="Q438" s="3"/>
+      <c r="R438" s="3"/>
+      <c r="S438" s="3"/>
+      <c r="T438" s="3"/>
+      <c r="U438" s="3"/>
+      <c r="V438" s="3"/>
+      <c r="W438" s="3"/>
     </row>
     <row r="439" spans="1:23" s="3" customFormat="1" ht="14.85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A439"/>
@@ -16922,16 +16928,16 @@
         <v>779</v>
       </c>
       <c r="C439" t="s">
-        <v>806</v>
-      </c>
-      <c r="D439" t="s">
-        <v>773</v>
+        <v>805</v>
+      </c>
+      <c r="D439" s="3" t="s">
+        <v>792</v>
       </c>
       <c r="E439" t="s">
-        <v>807</v>
+        <v>792</v>
       </c>
       <c r="F439" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
     </row>
     <row r="440" spans="1:23" s="3" customFormat="1" ht="14.85" customHeight="1" x14ac:dyDescent="0.2">
@@ -16940,34 +16946,34 @@
         <v>779</v>
       </c>
       <c r="C440" t="s">
-        <v>808</v>
-      </c>
-      <c r="D440" s="3" t="s">
-        <v>809</v>
+        <v>806</v>
+      </c>
+      <c r="D440" t="s">
+        <v>773</v>
       </c>
       <c r="E440" t="s">
-        <v>810</v>
+        <v>807</v>
       </c>
       <c r="F440" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
     </row>
     <row r="441" spans="1:23" s="3" customFormat="1" ht="14.85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A441"/>
       <c r="B441" s="5" t="s">
-        <v>811</v>
+        <v>779</v>
       </c>
       <c r="C441" t="s">
-        <v>812</v>
+        <v>808</v>
       </c>
       <c r="D441" s="3" t="s">
-        <v>813</v>
+        <v>809</v>
       </c>
       <c r="E441" t="s">
-        <v>814</v>
+        <v>810</v>
       </c>
       <c r="F441" t="s">
-        <v>812</v>
+        <v>808</v>
       </c>
     </row>
     <row r="442" spans="1:23" s="3" customFormat="1" ht="14.85" customHeight="1" x14ac:dyDescent="0.2">
@@ -16976,16 +16982,16 @@
         <v>811</v>
       </c>
       <c r="C442" t="s">
-        <v>815</v>
+        <v>812</v>
       </c>
       <c r="D442" s="3" t="s">
         <v>813</v>
       </c>
       <c r="E442" t="s">
-        <v>816</v>
+        <v>814</v>
       </c>
       <c r="F442" t="s">
-        <v>815</v>
+        <v>812</v>
       </c>
     </row>
     <row r="443" spans="1:23" s="3" customFormat="1" ht="14.85" customHeight="1" x14ac:dyDescent="0.2">
@@ -16994,7 +17000,7 @@
         <v>811</v>
       </c>
       <c r="C443" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
       <c r="D443" s="3" t="s">
         <v>813</v>
@@ -17003,7 +17009,7 @@
         <v>816</v>
       </c>
       <c r="F443" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
     </row>
     <row r="444" spans="1:23" s="3" customFormat="1" ht="14.85" customHeight="1" x14ac:dyDescent="0.2">
@@ -17012,7 +17018,7 @@
         <v>811</v>
       </c>
       <c r="C444" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="D444" s="3" t="s">
         <v>813</v>
@@ -17021,25 +17027,25 @@
         <v>816</v>
       </c>
       <c r="F444" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
     </row>
     <row r="445" spans="1:23" s="3" customFormat="1" ht="14.85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A445"/>
       <c r="B445" s="5" t="s">
-        <v>819</v>
-      </c>
-      <c r="C445" s="5" t="s">
-        <v>820</v>
+        <v>811</v>
+      </c>
+      <c r="C445" t="s">
+        <v>818</v>
       </c>
       <c r="D445" s="3" t="s">
-        <v>821</v>
+        <v>813</v>
       </c>
       <c r="E445" t="s">
-        <v>12</v>
+        <v>816</v>
       </c>
       <c r="F445" t="s">
-        <v>822</v>
+        <v>818</v>
       </c>
     </row>
     <row r="446" spans="1:23" s="3" customFormat="1" ht="14.85" customHeight="1" x14ac:dyDescent="0.2">
@@ -17048,7 +17054,7 @@
         <v>819</v>
       </c>
       <c r="C446" s="5" t="s">
-        <v>823</v>
+        <v>820</v>
       </c>
       <c r="D446" s="3" t="s">
         <v>821</v>
@@ -17057,7 +17063,7 @@
         <v>12</v>
       </c>
       <c r="F446" t="s">
-        <v>824</v>
+        <v>822</v>
       </c>
     </row>
     <row r="447" spans="1:23" s="3" customFormat="1" ht="14.85" customHeight="1" x14ac:dyDescent="0.2">
@@ -17065,17 +17071,17 @@
       <c r="B447" s="5" t="s">
         <v>819</v>
       </c>
-      <c r="C447" t="s">
-        <v>825</v>
+      <c r="C447" s="5" t="s">
+        <v>823</v>
       </c>
       <c r="D447" s="3" t="s">
         <v>821</v>
       </c>
       <c r="E447" t="s">
-        <v>826</v>
+        <v>12</v>
       </c>
       <c r="F447" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="448" spans="1:23" s="3" customFormat="1" ht="14.85" customHeight="1" x14ac:dyDescent="0.2">
@@ -17083,17 +17089,17 @@
       <c r="B448" s="5" t="s">
         <v>819</v>
       </c>
-      <c r="C448" s="5" t="s">
-        <v>827</v>
+      <c r="C448" t="s">
+        <v>825</v>
       </c>
       <c r="D448" s="3" t="s">
         <v>821</v>
       </c>
       <c r="E448" t="s">
-        <v>12</v>
+        <v>826</v>
       </c>
       <c r="F448" t="s">
-        <v>828</v>
+        <v>825</v>
       </c>
     </row>
     <row r="449" spans="1:23" s="3" customFormat="1" ht="14.85" customHeight="1" x14ac:dyDescent="0.2">
@@ -17102,7 +17108,7 @@
         <v>819</v>
       </c>
       <c r="C449" s="5" t="s">
-        <v>829</v>
+        <v>827</v>
       </c>
       <c r="D449" s="3" t="s">
         <v>821</v>
@@ -17111,43 +17117,26 @@
         <v>12</v>
       </c>
       <c r="F449" t="s">
-        <v>830</v>
-      </c>
-    </row>
-    <row r="450" spans="1:23" s="4" customFormat="1" ht="14.85" customHeight="1" x14ac:dyDescent="0.2">
+        <v>828</v>
+      </c>
+    </row>
+    <row r="450" spans="1:23" s="3" customFormat="1" ht="14.85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A450"/>
       <c r="B450" s="5" t="s">
-        <v>831</v>
+        <v>819</v>
       </c>
       <c r="C450" s="5" t="s">
-        <v>832</v>
+        <v>829</v>
       </c>
       <c r="D450" s="3" t="s">
         <v>821</v>
       </c>
       <c r="E450" t="s">
-        <v>833</v>
+        <v>12</v>
       </c>
       <c r="F450" t="s">
-        <v>834</v>
-      </c>
-      <c r="G450" s="3"/>
-      <c r="H450" s="3"/>
-      <c r="I450" s="3"/>
-      <c r="J450" s="3"/>
-      <c r="K450" s="3"/>
-      <c r="L450" s="3"/>
-      <c r="M450" s="3"/>
-      <c r="N450" s="3"/>
-      <c r="O450" s="3"/>
-      <c r="P450" s="3"/>
-      <c r="Q450" s="3"/>
-      <c r="R450" s="3"/>
-      <c r="S450" s="3"/>
-      <c r="T450" s="3"/>
-      <c r="U450" s="3"/>
-      <c r="V450" s="3"/>
-      <c r="W450" s="3"/>
+        <v>830</v>
+      </c>
     </row>
     <row r="451" spans="1:23" s="4" customFormat="1" ht="14.85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A451"/>
@@ -17155,16 +17144,16 @@
         <v>831</v>
       </c>
       <c r="C451" s="5" t="s">
-        <v>835</v>
+        <v>832</v>
       </c>
       <c r="D451" s="3" t="s">
         <v>821</v>
       </c>
       <c r="E451" t="s">
-        <v>313</v>
+        <v>833</v>
       </c>
       <c r="F451" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
       <c r="G451" s="3"/>
       <c r="H451" s="3"/>
@@ -17184,57 +17173,57 @@
       <c r="V451" s="3"/>
       <c r="W451" s="3"/>
     </row>
-    <row r="452" spans="1:23" s="11" customFormat="1" ht="14.85" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="452" spans="1:23" s="4" customFormat="1" ht="14.85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A452"/>
       <c r="B452" s="5" t="s">
         <v>831</v>
       </c>
-      <c r="C452" t="s">
-        <v>837</v>
+      <c r="C452" s="5" t="s">
+        <v>835</v>
       </c>
       <c r="D452" s="3" t="s">
         <v>821</v>
       </c>
       <c r="E452" t="s">
-        <v>833</v>
+        <v>313</v>
       </c>
       <c r="F452" t="s">
-        <v>837</v>
-      </c>
-      <c r="G452"/>
-      <c r="H452"/>
-      <c r="I452"/>
-      <c r="J452"/>
-      <c r="K452"/>
-      <c r="L452"/>
-      <c r="M452"/>
-      <c r="N452"/>
-      <c r="O452"/>
-      <c r="P452"/>
-      <c r="Q452"/>
-      <c r="R452"/>
-      <c r="S452"/>
-      <c r="T452"/>
-      <c r="U452"/>
-      <c r="V452"/>
-      <c r="W452"/>
+        <v>836</v>
+      </c>
+      <c r="G452" s="3"/>
+      <c r="H452" s="3"/>
+      <c r="I452" s="3"/>
+      <c r="J452" s="3"/>
+      <c r="K452" s="3"/>
+      <c r="L452" s="3"/>
+      <c r="M452" s="3"/>
+      <c r="N452" s="3"/>
+      <c r="O452" s="3"/>
+      <c r="P452" s="3"/>
+      <c r="Q452" s="3"/>
+      <c r="R452" s="3"/>
+      <c r="S452" s="3"/>
+      <c r="T452" s="3"/>
+      <c r="U452" s="3"/>
+      <c r="V452" s="3"/>
+      <c r="W452" s="3"/>
     </row>
     <row r="453" spans="1:23" s="11" customFormat="1" ht="14.85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A453"/>
       <c r="B453" s="5" t="s">
         <v>831</v>
       </c>
-      <c r="C453" s="5" t="s">
-        <v>838</v>
+      <c r="C453" t="s">
+        <v>837</v>
       </c>
       <c r="D453" s="3" t="s">
         <v>821</v>
       </c>
       <c r="E453" t="s">
-        <v>313</v>
+        <v>833</v>
       </c>
       <c r="F453" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
       <c r="G453"/>
       <c r="H453"/>
@@ -17260,16 +17249,16 @@
         <v>831</v>
       </c>
       <c r="C454" s="5" t="s">
-        <v>840</v>
+        <v>838</v>
       </c>
       <c r="D454" s="3" t="s">
         <v>821</v>
       </c>
       <c r="E454" t="s">
-        <v>12</v>
+        <v>313</v>
       </c>
       <c r="F454" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
       <c r="G454"/>
       <c r="H454"/>
@@ -17289,57 +17278,57 @@
       <c r="V454"/>
       <c r="W454"/>
     </row>
-    <row r="455" spans="1:23" ht="14.85" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="455" spans="1:23" s="11" customFormat="1" ht="14.85" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A455"/>
       <c r="B455" s="5" t="s">
-        <v>842</v>
+        <v>831</v>
       </c>
       <c r="C455" s="5" t="s">
-        <v>843</v>
-      </c>
-      <c r="D455" t="s">
-        <v>7</v>
+        <v>840</v>
+      </c>
+      <c r="D455" s="3" t="s">
+        <v>821</v>
       </c>
       <c r="E455" t="s">
         <v>12</v>
       </c>
       <c r="F455" t="s">
-        <v>844</v>
-      </c>
-    </row>
-    <row r="456" spans="1:23" s="11" customFormat="1" ht="14.85" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A456"/>
+        <v>841</v>
+      </c>
+      <c r="G455"/>
+      <c r="H455"/>
+      <c r="I455"/>
+      <c r="J455"/>
+      <c r="K455"/>
+      <c r="L455"/>
+      <c r="M455"/>
+      <c r="N455"/>
+      <c r="O455"/>
+      <c r="P455"/>
+      <c r="Q455"/>
+      <c r="R455"/>
+      <c r="S455"/>
+      <c r="T455"/>
+      <c r="U455"/>
+      <c r="V455"/>
+      <c r="W455"/>
+    </row>
+    <row r="456" spans="1:23" ht="14.85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B456" s="5" t="s">
         <v>842</v>
       </c>
       <c r="C456" s="5" t="s">
-        <v>845</v>
+        <v>843</v>
       </c>
       <c r="D456" t="s">
-        <v>846</v>
+        <v>7</v>
       </c>
       <c r="E456" t="s">
         <v>12</v>
       </c>
       <c r="F456" t="s">
-        <v>847</v>
-      </c>
-      <c r="G456"/>
-      <c r="H456"/>
-      <c r="I456"/>
-      <c r="J456"/>
-      <c r="K456"/>
-      <c r="L456"/>
-      <c r="M456"/>
-      <c r="N456"/>
-      <c r="O456"/>
-      <c r="P456"/>
-      <c r="Q456"/>
-      <c r="R456"/>
-      <c r="S456"/>
-      <c r="T456"/>
-      <c r="U456"/>
-      <c r="V456"/>
-      <c r="W456"/>
+        <v>844</v>
+      </c>
     </row>
     <row r="457" spans="1:23" s="11" customFormat="1" ht="14.85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A457"/>
@@ -17347,7 +17336,7 @@
         <v>842</v>
       </c>
       <c r="C457" s="5" t="s">
-        <v>848</v>
+        <v>845</v>
       </c>
       <c r="D457" t="s">
         <v>846</v>
@@ -17356,7 +17345,7 @@
         <v>12</v>
       </c>
       <c r="F457" t="s">
-        <v>849</v>
+        <v>847</v>
       </c>
       <c r="G457"/>
       <c r="H457"/>
@@ -17382,7 +17371,7 @@
         <v>842</v>
       </c>
       <c r="C458" s="5" t="s">
-        <v>850</v>
+        <v>848</v>
       </c>
       <c r="D458" t="s">
         <v>846</v>
@@ -17391,7 +17380,7 @@
         <v>12</v>
       </c>
       <c r="F458" t="s">
-        <v>851</v>
+        <v>849</v>
       </c>
       <c r="G458"/>
       <c r="H458"/>
@@ -17413,20 +17402,20 @@
     </row>
     <row r="459" spans="1:23" s="11" customFormat="1" ht="14.85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A459"/>
-      <c r="B459" s="12" t="s">
+      <c r="B459" s="5" t="s">
         <v>842</v>
       </c>
-      <c r="C459" s="9" t="s">
-        <v>852</v>
+      <c r="C459" s="5" t="s">
+        <v>850</v>
       </c>
       <c r="D459" t="s">
         <v>846</v>
       </c>
       <c r="E459" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="F459" t="s">
-        <v>7</v>
+        <v>851</v>
       </c>
       <c r="G459"/>
       <c r="H459"/>
@@ -17448,20 +17437,20 @@
     </row>
     <row r="460" spans="1:23" s="11" customFormat="1" ht="14.85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A460"/>
-      <c r="B460" s="5" t="s">
-        <v>853</v>
-      </c>
-      <c r="C460" s="5" t="s">
-        <v>854</v>
+      <c r="B460" s="12" t="s">
+        <v>842</v>
+      </c>
+      <c r="C460" s="9" t="s">
+        <v>852</v>
       </c>
       <c r="D460" t="s">
-        <v>855</v>
+        <v>846</v>
       </c>
       <c r="E460" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="F460" t="s">
-        <v>856</v>
+        <v>7</v>
       </c>
       <c r="G460"/>
       <c r="H460"/>
@@ -17487,7 +17476,7 @@
         <v>853</v>
       </c>
       <c r="C461" s="5" t="s">
-        <v>857</v>
+        <v>854</v>
       </c>
       <c r="D461" t="s">
         <v>855</v>
@@ -17496,7 +17485,7 @@
         <v>12</v>
       </c>
       <c r="F461" t="s">
-        <v>858</v>
+        <v>856</v>
       </c>
       <c r="G461"/>
       <c r="H461"/>
@@ -17522,16 +17511,16 @@
         <v>853</v>
       </c>
       <c r="C462" s="5" t="s">
-        <v>859</v>
+        <v>857</v>
       </c>
       <c r="D462" t="s">
         <v>855</v>
       </c>
       <c r="E462" t="s">
-        <v>207</v>
+        <v>12</v>
       </c>
       <c r="F462" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
       <c r="G462"/>
       <c r="H462"/>
@@ -17551,22 +17540,22 @@
       <c r="V462"/>
       <c r="W462"/>
     </row>
-    <row r="463" spans="1:23" s="11" customFormat="1" ht="14.65" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="463" spans="1:23" s="11" customFormat="1" ht="14.85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A463"/>
       <c r="B463" s="5" t="s">
         <v>853</v>
       </c>
-      <c r="C463" t="s">
-        <v>861</v>
+      <c r="C463" s="5" t="s">
+        <v>859</v>
       </c>
       <c r="D463" t="s">
         <v>855</v>
       </c>
       <c r="E463" t="s">
-        <v>12</v>
+        <v>207</v>
       </c>
       <c r="F463" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="G463"/>
       <c r="H463"/>
@@ -17592,7 +17581,7 @@
         <v>853</v>
       </c>
       <c r="C464" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="D464" t="s">
         <v>855</v>
@@ -17601,7 +17590,7 @@
         <v>12</v>
       </c>
       <c r="F464" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="G464"/>
       <c r="H464"/>
@@ -17627,7 +17616,7 @@
         <v>853</v>
       </c>
       <c r="C465" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="D465" t="s">
         <v>855</v>
@@ -17636,7 +17625,7 @@
         <v>12</v>
       </c>
       <c r="F465" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="G465"/>
       <c r="H465"/>
@@ -17662,7 +17651,7 @@
         <v>853</v>
       </c>
       <c r="C466" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="D466" t="s">
         <v>855</v>
@@ -17671,7 +17660,7 @@
         <v>12</v>
       </c>
       <c r="F466" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="G466"/>
       <c r="H466"/>
@@ -17691,8 +17680,43 @@
       <c r="V466"/>
       <c r="W466"/>
     </row>
+    <row r="467" spans="1:23" s="11" customFormat="1" ht="14.65" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A467"/>
+      <c r="B467" s="5" t="s">
+        <v>853</v>
+      </c>
+      <c r="C467" t="s">
+        <v>864</v>
+      </c>
+      <c r="D467" t="s">
+        <v>855</v>
+      </c>
+      <c r="E467" t="s">
+        <v>12</v>
+      </c>
+      <c r="F467" t="s">
+        <v>864</v>
+      </c>
+      <c r="G467"/>
+      <c r="H467"/>
+      <c r="I467"/>
+      <c r="J467"/>
+      <c r="K467"/>
+      <c r="L467"/>
+      <c r="M467"/>
+      <c r="N467"/>
+      <c r="O467"/>
+      <c r="P467"/>
+      <c r="Q467"/>
+      <c r="R467"/>
+      <c r="S467"/>
+      <c r="T467"/>
+      <c r="U467"/>
+      <c r="V467"/>
+      <c r="W467"/>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:F466" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:F467" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter>

--- a/NodeList.xlsx
+++ b/NodeList.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="U:\repos\ClockworkForDynamo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F68562A1-25D8-46BF-8F2C-50E8959BDF42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C45EAA8-A028-43EA-A8B4-103D65F5E76F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4500,7 +4500,7 @@
   <dimension ref="A1:F469"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.28515625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -8628,7 +8628,7 @@
     </row>
     <row r="197" spans="1:6" s="2" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A197" s="2" t="str">
-        <f t="shared" ref="A197:A260" si="3">IF(F197="---","NEW",IF(AND(C197&lt;&gt;F197,B197&lt;&gt;E197),"RENAMED &amp; RECATEGORIZED", IF(C197&lt;&gt;F197,"RENAMED",IF(B197&lt;&gt;E197,"RECATEGORIZED",""))))</f>
+        <f t="shared" ref="A197:A205" si="3">IF(F197="---","NEW",IF(AND(C197&lt;&gt;F197,B197&lt;&gt;E197),"RENAMED &amp; RECATEGORIZED", IF(C197&lt;&gt;F197,"RENAMED",IF(B197&lt;&gt;E197,"RECATEGORIZED",""))))</f>
         <v>RENAMED &amp; RECATEGORIZED</v>
       </c>
       <c r="B197" t="s">
@@ -10419,7 +10419,7 @@
         <v>585</v>
       </c>
       <c r="D282" s="2" t="s">
-        <v>582</v>
+        <v>540</v>
       </c>
       <c r="E282" s="2" t="s">
         <v>582</v>
@@ -10976,7 +10976,7 @@
     </row>
     <row r="309" spans="1:6" s="2" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A309" s="2" t="str">
-        <f t="shared" ref="A309:A340" si="7">IF(F309="---","NEW",IF(AND(C309&lt;&gt;F309,B309&lt;&gt;E309),"RENAMED &amp; RECATEGORIZED", IF(C309&lt;&gt;F309,"RENAMED",IF(B309&lt;&gt;E309,"RECATEGORIZED",""))))</f>
+        <f t="shared" ref="A309:A327" si="7">IF(F309="---","NEW",IF(AND(C309&lt;&gt;F309,B309&lt;&gt;E309),"RENAMED &amp; RECATEGORIZED", IF(C309&lt;&gt;F309,"RENAMED",IF(B309&lt;&gt;E309,"RECATEGORIZED",""))))</f>
         <v>RENAMED &amp; RECATEGORIZED</v>
       </c>
       <c r="B309" t="s">
@@ -14330,7 +14330,7 @@
     </row>
     <row r="469" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A469" s="2" t="str">
-        <f t="shared" ref="A469:A500" si="12">IF(F469="---","NEW",IF(AND(C469&lt;&gt;F469,B469&lt;&gt;E469),"RENAMED &amp; RECATEGORIZED", IF(C469&lt;&gt;F469,"RENAMED",IF(B469&lt;&gt;E469,"RECATEGORIZED",""))))</f>
+        <f t="shared" ref="A469" si="12">IF(F469="---","NEW",IF(AND(C469&lt;&gt;F469,B469&lt;&gt;E469),"RENAMED &amp; RECATEGORIZED", IF(C469&lt;&gt;F469,"RENAMED",IF(B469&lt;&gt;E469,"RECATEGORIZED",""))))</f>
         <v>RECATEGORIZED</v>
       </c>
       <c r="B469" t="s">
@@ -15160,7 +15160,7 @@
     </row>
     <row r="34" spans="1:20" s="3" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="str">
-        <f t="shared" ref="A34:A65" si="1">IF(E34="---","NEW",IF(AND(C34&lt;&gt;E34,B34&lt;&gt;D34),"RENAMED &amp; RECATEGORIZED", IF(C34&lt;&gt;E34,"RENAMED",IF(B34&lt;&gt;D34,"RECATEGORIZED",""))))</f>
+        <f t="shared" ref="A34:A54" si="1">IF(E34="---","NEW",IF(AND(C34&lt;&gt;E34,B34&lt;&gt;D34),"RENAMED &amp; RECATEGORIZED", IF(C34&lt;&gt;E34,"RENAMED",IF(B34&lt;&gt;D34,"RECATEGORIZED",""))))</f>
         <v>NEW</v>
       </c>
       <c r="B34" t="s">
@@ -18595,7 +18595,7 @@
     </row>
     <row r="140" spans="1:20" s="3" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A140" s="2" t="str">
-        <f t="shared" ref="A140:A171" si="5">IF(E140="---","NEW",IF(AND(C140&lt;&gt;E140,B140&lt;&gt;D140),"RENAMED &amp; RECATEGORIZED", IF(C140&lt;&gt;E140,"RENAMED",IF(B140&lt;&gt;D140,"RECATEGORIZED",""))))</f>
+        <f t="shared" ref="A140:A160" si="5">IF(E140="---","NEW",IF(AND(C140&lt;&gt;E140,B140&lt;&gt;D140),"RENAMED &amp; RECATEGORIZED", IF(C140&lt;&gt;E140,"RENAMED",IF(B140&lt;&gt;D140,"RECATEGORIZED",""))))</f>
         <v/>
       </c>
       <c r="B140" s="2" t="s">
@@ -26916,7 +26916,7 @@
     </row>
     <row r="473" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A473" s="2" t="str">
-        <f t="shared" ref="A473:A504" si="17">IF(E473="---","NEW",IF(AND(C473&lt;&gt;E473,B473&lt;&gt;D473),"RENAMED &amp; RECATEGORIZED", IF(C473&lt;&gt;E473,"RENAMED",IF(B473&lt;&gt;D473,"RECATEGORIZED",""))))</f>
+        <f t="shared" ref="A473:A477" si="17">IF(E473="---","NEW",IF(AND(C473&lt;&gt;E473,B473&lt;&gt;D473),"RENAMED &amp; RECATEGORIZED", IF(C473&lt;&gt;E473,"RENAMED",IF(B473&lt;&gt;D473,"RECATEGORIZED",""))))</f>
         <v/>
       </c>
       <c r="B473" t="s">
@@ -30938,7 +30938,7 @@
     </row>
     <row r="220" spans="1:5" s="2" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A220" s="2" t="str">
-        <f t="shared" ref="A220:A251" si="5">IF(E220="---","NEW",IF(AND(C220&lt;&gt;E220,B220&lt;&gt;D220),"RENAMED &amp; RECATEGORIZED", IF(C220&lt;&gt;E220,"RENAMED",IF(B220&lt;&gt;D220,"RECATEGORIZED",""))))</f>
+        <f t="shared" ref="A220:A232" si="5">IF(E220="---","NEW",IF(AND(C220&lt;&gt;E220,B220&lt;&gt;D220),"RENAMED &amp; RECATEGORIZED", IF(C220&lt;&gt;E220,"RENAMED",IF(B220&lt;&gt;D220,"RECATEGORIZED",""))))</f>
         <v>NEW</v>
       </c>
       <c r="B220" t="s">
@@ -34609,7 +34609,7 @@
     </row>
     <row r="426" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A426" s="2" t="str">
-        <f t="shared" ref="A426:A457" si="12">IF(E426="---","NEW",IF(AND(C426&lt;&gt;E426,B426&lt;&gt;D426),"RENAMED &amp; RECATEGORIZED", IF(C426&lt;&gt;E426,"RENAMED",IF(B426&lt;&gt;D426,"RECATEGORIZED",""))))</f>
+        <f t="shared" ref="A426:A432" si="12">IF(E426="---","NEW",IF(AND(C426&lt;&gt;E426,B426&lt;&gt;D426),"RENAMED &amp; RECATEGORIZED", IF(C426&lt;&gt;E426,"RENAMED",IF(B426&lt;&gt;D426,"RECATEGORIZED",""))))</f>
         <v/>
       </c>
       <c r="B426" t="s">
@@ -41716,7 +41716,7 @@
     </row>
     <row r="386" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A386" s="2" t="str">
-        <f t="shared" ref="A386:A449" si="6">IF(E386="---","NEW",IF(AND(C386&lt;&gt;E386,B386&lt;&gt;D386),"RENAMED &amp; RECATEGORIZED", IF(C386&lt;&gt;E386,"RENAMED",IF(B386&lt;&gt;D386,"RECATEGORIZED",""))))</f>
+        <f t="shared" ref="A386:A387" si="6">IF(E386="---","NEW",IF(AND(C386&lt;&gt;E386,B386&lt;&gt;D386),"RENAMED &amp; RECATEGORIZED", IF(C386&lt;&gt;E386,"RENAMED",IF(B386&lt;&gt;D386,"RECATEGORIZED",""))))</f>
         <v>RENAMED &amp; RECATEGORIZED</v>
       </c>
       <c r="B386" t="s">

--- a/NodeList.xlsx
+++ b/NodeList.xlsx
@@ -4589,8 +4589,8 @@
   </sheetPr>
   <dimension ref="A1:F462"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C343" activeCellId="0" sqref="C343"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B21" activeCellId="0" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4784,6 +4784,10 @@
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="1" t="str">
+        <f aca="false">IF(F10="---","NEW",IF(AND(C10&lt;&gt;F10,B10&lt;&gt;E10),"RENAMED &amp; RECATEGORIZED", IF(C10&lt;&gt;F10,"RENAMED",IF(B10&lt;&gt;E10,"RECATEGORIZED","---"))))</f>
+        <v>---</v>
+      </c>
       <c r="B10" s="3" t="s">
         <v>20</v>
       </c>
@@ -4801,6 +4805,10 @@
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="1" t="str">
+        <f aca="false">IF(F11="---","NEW",IF(AND(C11&lt;&gt;F11,B11&lt;&gt;E11),"RENAMED &amp; RECATEGORIZED", IF(C11&lt;&gt;F11,"RENAMED",IF(B11&lt;&gt;E11,"RECATEGORIZED","---"))))</f>
+        <v>---</v>
+      </c>
       <c r="B11" s="3" t="s">
         <v>20</v>
       </c>
@@ -4818,6 +4826,10 @@
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="1" t="str">
+        <f aca="false">IF(F12="---","NEW",IF(AND(C12&lt;&gt;F12,B12&lt;&gt;E12),"RENAMED &amp; RECATEGORIZED", IF(C12&lt;&gt;F12,"RENAMED",IF(B12&lt;&gt;E12,"RECATEGORIZED","---"))))</f>
+        <v>---</v>
+      </c>
       <c r="B12" s="3" t="s">
         <v>20</v>
       </c>
@@ -4835,6 +4847,10 @@
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="1" t="str">
+        <f aca="false">IF(F13="---","NEW",IF(AND(C13&lt;&gt;F13,B13&lt;&gt;E13),"RENAMED &amp; RECATEGORIZED", IF(C13&lt;&gt;F13,"RENAMED",IF(B13&lt;&gt;E13,"RECATEGORIZED","---"))))</f>
+        <v>---</v>
+      </c>
       <c r="B13" s="3" t="s">
         <v>20</v>
       </c>
@@ -4852,6 +4868,10 @@
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="1" t="str">
+        <f aca="false">IF(F14="---","NEW",IF(AND(C14&lt;&gt;F14,B14&lt;&gt;E14),"RENAMED &amp; RECATEGORIZED", IF(C14&lt;&gt;F14,"RENAMED",IF(B14&lt;&gt;E14,"RECATEGORIZED","---"))))</f>
+        <v>---</v>
+      </c>
       <c r="B14" s="3" t="s">
         <v>20</v>
       </c>
@@ -4869,6 +4889,10 @@
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="1" t="str">
+        <f aca="false">IF(F15="---","NEW",IF(AND(C15&lt;&gt;F15,B15&lt;&gt;E15),"RENAMED &amp; RECATEGORIZED", IF(C15&lt;&gt;F15,"RENAMED",IF(B15&lt;&gt;E15,"RECATEGORIZED","---"))))</f>
+        <v>---</v>
+      </c>
       <c r="B15" s="3" t="s">
         <v>20</v>
       </c>
@@ -4886,6 +4910,10 @@
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="1" t="str">
+        <f aca="false">IF(F16="---","NEW",IF(AND(C16&lt;&gt;F16,B16&lt;&gt;E16),"RENAMED &amp; RECATEGORIZED", IF(C16&lt;&gt;F16,"RENAMED",IF(B16&lt;&gt;E16,"RECATEGORIZED","---"))))</f>
+        <v>---</v>
+      </c>
       <c r="B16" s="3" t="s">
         <v>20</v>
       </c>
@@ -4903,6 +4931,10 @@
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="1" t="str">
+        <f aca="false">IF(F17="---","NEW",IF(AND(C17&lt;&gt;F17,B17&lt;&gt;E17),"RENAMED &amp; RECATEGORIZED", IF(C17&lt;&gt;F17,"RENAMED",IF(B17&lt;&gt;E17,"RECATEGORIZED","---"))))</f>
+        <v>---</v>
+      </c>
       <c r="B17" s="3" t="s">
         <v>20</v>
       </c>
@@ -4920,6 +4952,10 @@
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="1" t="str">
+        <f aca="false">IF(F18="---","NEW",IF(AND(C18&lt;&gt;F18,B18&lt;&gt;E18),"RENAMED &amp; RECATEGORIZED", IF(C18&lt;&gt;F18,"RENAMED",IF(B18&lt;&gt;E18,"RECATEGORIZED","---"))))</f>
+        <v>---</v>
+      </c>
       <c r="B18" s="3" t="s">
         <v>20</v>
       </c>
@@ -4937,6 +4973,10 @@
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="1" t="str">
+        <f aca="false">IF(F19="---","NEW",IF(AND(C19&lt;&gt;F19,B19&lt;&gt;E19),"RENAMED &amp; RECATEGORIZED", IF(C19&lt;&gt;F19,"RENAMED",IF(B19&lt;&gt;E19,"RECATEGORIZED","---"))))</f>
+        <v>---</v>
+      </c>
       <c r="B19" s="3" t="s">
         <v>20</v>
       </c>
@@ -4954,6 +4994,10 @@
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="1" t="str">
+        <f aca="false">IF(F20="---","NEW",IF(AND(C20&lt;&gt;F20,B20&lt;&gt;E20),"RENAMED &amp; RECATEGORIZED", IF(C20&lt;&gt;F20,"RENAMED",IF(B20&lt;&gt;E20,"RECATEGORIZED","---"))))</f>
+        <v>---</v>
+      </c>
       <c r="B20" s="3" t="s">
         <v>20</v>
       </c>
@@ -4971,6 +5015,10 @@
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="1" t="str">
+        <f aca="false">IF(F21="---","NEW",IF(AND(C21&lt;&gt;F21,B21&lt;&gt;E21),"RENAMED &amp; RECATEGORIZED", IF(C21&lt;&gt;F21,"RENAMED",IF(B21&lt;&gt;E21,"RECATEGORIZED","---"))))</f>
+        <v>---</v>
+      </c>
       <c r="B21" s="3" t="s">
         <v>20</v>
       </c>
@@ -4988,6 +5036,10 @@
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="1" t="str">
+        <f aca="false">IF(F22="---","NEW",IF(AND(C22&lt;&gt;F22,B22&lt;&gt;E22),"RENAMED &amp; RECATEGORIZED", IF(C22&lt;&gt;F22,"RENAMED",IF(B22&lt;&gt;E22,"RECATEGORIZED","---"))))</f>
+        <v>---</v>
+      </c>
       <c r="B22" s="3" t="s">
         <v>20</v>
       </c>
@@ -5005,6 +5057,10 @@
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="1" t="str">
+        <f aca="false">IF(F23="---","NEW",IF(AND(C23&lt;&gt;F23,B23&lt;&gt;E23),"RENAMED &amp; RECATEGORIZED", IF(C23&lt;&gt;F23,"RENAMED",IF(B23&lt;&gt;E23,"RECATEGORIZED","---"))))</f>
+        <v>---</v>
+      </c>
       <c r="B23" s="3" t="s">
         <v>20</v>
       </c>
@@ -5022,6 +5078,10 @@
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="1" t="str">
+        <f aca="false">IF(F24="---","NEW",IF(AND(C24&lt;&gt;F24,B24&lt;&gt;E24),"RENAMED &amp; RECATEGORIZED", IF(C24&lt;&gt;F24,"RENAMED",IF(B24&lt;&gt;E24,"RECATEGORIZED","---"))))</f>
+        <v>---</v>
+      </c>
       <c r="B24" s="3" t="s">
         <v>20</v>
       </c>
@@ -5039,6 +5099,10 @@
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="1" t="str">
+        <f aca="false">IF(F25="---","NEW",IF(AND(C25&lt;&gt;F25,B25&lt;&gt;E25),"RENAMED &amp; RECATEGORIZED", IF(C25&lt;&gt;F25,"RENAMED",IF(B25&lt;&gt;E25,"RECATEGORIZED","---"))))</f>
+        <v>---</v>
+      </c>
       <c r="B25" s="3" t="s">
         <v>20</v>
       </c>
@@ -5056,6 +5120,10 @@
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="1" t="str">
+        <f aca="false">IF(F26="---","NEW",IF(AND(C26&lt;&gt;F26,B26&lt;&gt;E26),"RENAMED &amp; RECATEGORIZED", IF(C26&lt;&gt;F26,"RENAMED",IF(B26&lt;&gt;E26,"RECATEGORIZED","---"))))</f>
+        <v>---</v>
+      </c>
       <c r="B26" s="3" t="s">
         <v>20</v>
       </c>
@@ -5073,6 +5141,10 @@
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="1" t="str">
+        <f aca="false">IF(F27="---","NEW",IF(AND(C27&lt;&gt;F27,B27&lt;&gt;E27),"RENAMED &amp; RECATEGORIZED", IF(C27&lt;&gt;F27,"RENAMED",IF(B27&lt;&gt;E27,"RECATEGORIZED","---"))))</f>
+        <v>---</v>
+      </c>
       <c r="B27" s="3" t="s">
         <v>20</v>
       </c>
@@ -5090,6 +5162,10 @@
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="1" t="str">
+        <f aca="false">IF(F28="---","NEW",IF(AND(C28&lt;&gt;F28,B28&lt;&gt;E28),"RENAMED &amp; RECATEGORIZED", IF(C28&lt;&gt;F28,"RENAMED",IF(B28&lt;&gt;E28,"RECATEGORIZED","---"))))</f>
+        <v>---</v>
+      </c>
       <c r="B28" s="3" t="s">
         <v>20</v>
       </c>
@@ -5107,6 +5183,10 @@
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="1" t="str">
+        <f aca="false">IF(F29="---","NEW",IF(AND(C29&lt;&gt;F29,B29&lt;&gt;E29),"RENAMED &amp; RECATEGORIZED", IF(C29&lt;&gt;F29,"RENAMED",IF(B29&lt;&gt;E29,"RECATEGORIZED","---"))))</f>
+        <v>---</v>
+      </c>
       <c r="B29" s="3" t="s">
         <v>41</v>
       </c>
@@ -5124,6 +5204,10 @@
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="1" t="str">
+        <f aca="false">IF(F30="---","NEW",IF(AND(C30&lt;&gt;F30,B30&lt;&gt;E30),"RENAMED &amp; RECATEGORIZED", IF(C30&lt;&gt;F30,"RENAMED",IF(B30&lt;&gt;E30,"RECATEGORIZED","---"))))</f>
+        <v>---</v>
+      </c>
       <c r="B30" s="3" t="s">
         <v>43</v>
       </c>
@@ -5141,6 +5225,10 @@
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="1" t="str">
+        <f aca="false">IF(F31="---","NEW",IF(AND(C31&lt;&gt;F31,B31&lt;&gt;E31),"RENAMED &amp; RECATEGORIZED", IF(C31&lt;&gt;F31,"RENAMED",IF(B31&lt;&gt;E31,"RECATEGORIZED","---"))))</f>
+        <v>---</v>
+      </c>
       <c r="B31" s="3" t="s">
         <v>43</v>
       </c>
@@ -5158,6 +5246,10 @@
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="1" t="str">
+        <f aca="false">IF(F32="---","NEW",IF(AND(C32&lt;&gt;F32,B32&lt;&gt;E32),"RENAMED &amp; RECATEGORIZED", IF(C32&lt;&gt;F32,"RENAMED",IF(B32&lt;&gt;E32,"RECATEGORIZED","---"))))</f>
+        <v>---</v>
+      </c>
       <c r="B32" s="3" t="s">
         <v>43</v>
       </c>
@@ -5175,6 +5267,10 @@
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="1" t="str">
+        <f aca="false">IF(F33="---","NEW",IF(AND(C33&lt;&gt;F33,B33&lt;&gt;E33),"RENAMED &amp; RECATEGORIZED", IF(C33&lt;&gt;F33,"RENAMED",IF(B33&lt;&gt;E33,"RECATEGORIZED","---"))))</f>
+        <v>---</v>
+      </c>
       <c r="B33" s="3" t="s">
         <v>43</v>
       </c>
@@ -5192,6 +5288,10 @@
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="1" t="str">
+        <f aca="false">IF(F34="---","NEW",IF(AND(C34&lt;&gt;F34,B34&lt;&gt;E34),"RENAMED &amp; RECATEGORIZED", IF(C34&lt;&gt;F34,"RENAMED",IF(B34&lt;&gt;E34,"RECATEGORIZED","---"))))</f>
+        <v>---</v>
+      </c>
       <c r="B34" s="3" t="s">
         <v>43</v>
       </c>
@@ -5209,6 +5309,10 @@
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="1" t="str">
+        <f aca="false">IF(F35="---","NEW",IF(AND(C35&lt;&gt;F35,B35&lt;&gt;E35),"RENAMED &amp; RECATEGORIZED", IF(C35&lt;&gt;F35,"RENAMED",IF(B35&lt;&gt;E35,"RECATEGORIZED","---"))))</f>
+        <v>---</v>
+      </c>
       <c r="B35" s="3" t="s">
         <v>43</v>
       </c>
@@ -5226,6 +5330,10 @@
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="1" t="str">
+        <f aca="false">IF(F36="---","NEW",IF(AND(C36&lt;&gt;F36,B36&lt;&gt;E36),"RENAMED &amp; RECATEGORIZED", IF(C36&lt;&gt;F36,"RENAMED",IF(B36&lt;&gt;E36,"RECATEGORIZED","---"))))</f>
+        <v>---</v>
+      </c>
       <c r="B36" s="3" t="s">
         <v>51</v>
       </c>
@@ -5243,6 +5351,10 @@
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="1" t="str">
+        <f aca="false">IF(F37="---","NEW",IF(AND(C37&lt;&gt;F37,B37&lt;&gt;E37),"RENAMED &amp; RECATEGORIZED", IF(C37&lt;&gt;F37,"RENAMED",IF(B37&lt;&gt;E37,"RECATEGORIZED","---"))))</f>
+        <v>---</v>
+      </c>
       <c r="B37" s="3" t="s">
         <v>51</v>
       </c>
@@ -5260,6 +5372,10 @@
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="1" t="str">
+        <f aca="false">IF(F38="---","NEW",IF(AND(C38&lt;&gt;F38,B38&lt;&gt;E38),"RENAMED &amp; RECATEGORIZED", IF(C38&lt;&gt;F38,"RENAMED",IF(B38&lt;&gt;E38,"RECATEGORIZED","---"))))</f>
+        <v>---</v>
+      </c>
       <c r="B38" s="3" t="s">
         <v>51</v>
       </c>
@@ -5277,6 +5393,10 @@
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="1" t="str">
+        <f aca="false">IF(F39="---","NEW",IF(AND(C39&lt;&gt;F39,B39&lt;&gt;E39),"RENAMED &amp; RECATEGORIZED", IF(C39&lt;&gt;F39,"RENAMED",IF(B39&lt;&gt;E39,"RECATEGORIZED","---"))))</f>
+        <v>---</v>
+      </c>
       <c r="B39" s="3" t="s">
         <v>51</v>
       </c>
@@ -5294,6 +5414,10 @@
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="1" t="str">
+        <f aca="false">IF(F40="---","NEW",IF(AND(C40&lt;&gt;F40,B40&lt;&gt;E40),"RENAMED &amp; RECATEGORIZED", IF(C40&lt;&gt;F40,"RENAMED",IF(B40&lt;&gt;E40,"RECATEGORIZED","---"))))</f>
+        <v>---</v>
+      </c>
       <c r="B40" s="3" t="s">
         <v>51</v>
       </c>
@@ -5311,6 +5435,10 @@
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="1" t="str">
+        <f aca="false">IF(F41="---","NEW",IF(AND(C41&lt;&gt;F41,B41&lt;&gt;E41),"RENAMED &amp; RECATEGORIZED", IF(C41&lt;&gt;F41,"RENAMED",IF(B41&lt;&gt;E41,"RECATEGORIZED","---"))))</f>
+        <v>---</v>
+      </c>
       <c r="B41" s="3" t="s">
         <v>51</v>
       </c>
@@ -5328,6 +5456,10 @@
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="1" t="str">
+        <f aca="false">IF(F42="---","NEW",IF(AND(C42&lt;&gt;F42,B42&lt;&gt;E42),"RENAMED &amp; RECATEGORIZED", IF(C42&lt;&gt;F42,"RENAMED",IF(B42&lt;&gt;E42,"RECATEGORIZED","---"))))</f>
+        <v>---</v>
+      </c>
       <c r="B42" s="3" t="s">
         <v>51</v>
       </c>
@@ -5345,6 +5477,10 @@
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="1" t="str">
+        <f aca="false">IF(F43="---","NEW",IF(AND(C43&lt;&gt;F43,B43&lt;&gt;E43),"RENAMED &amp; RECATEGORIZED", IF(C43&lt;&gt;F43,"RENAMED",IF(B43&lt;&gt;E43,"RECATEGORIZED","---"))))</f>
+        <v>---</v>
+      </c>
       <c r="B43" s="3" t="s">
         <v>61</v>
       </c>
@@ -5362,6 +5498,10 @@
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="1" t="str">
+        <f aca="false">IF(F44="---","NEW",IF(AND(C44&lt;&gt;F44,B44&lt;&gt;E44),"RENAMED &amp; RECATEGORIZED", IF(C44&lt;&gt;F44,"RENAMED",IF(B44&lt;&gt;E44,"RECATEGORIZED","---"))))</f>
+        <v>---</v>
+      </c>
       <c r="B44" s="3" t="s">
         <v>61</v>
       </c>
@@ -5379,6 +5519,10 @@
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="1" t="str">
+        <f aca="false">IF(F45="---","NEW",IF(AND(C45&lt;&gt;F45,B45&lt;&gt;E45),"RENAMED &amp; RECATEGORIZED", IF(C45&lt;&gt;F45,"RENAMED",IF(B45&lt;&gt;E45,"RECATEGORIZED","---"))))</f>
+        <v>---</v>
+      </c>
       <c r="B45" s="3" t="s">
         <v>61</v>
       </c>
@@ -5396,6 +5540,10 @@
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="1" t="str">
+        <f aca="false">IF(F46="---","NEW",IF(AND(C46&lt;&gt;F46,B46&lt;&gt;E46),"RENAMED &amp; RECATEGORIZED", IF(C46&lt;&gt;F46,"RENAMED",IF(B46&lt;&gt;E46,"RECATEGORIZED","---"))))</f>
+        <v>---</v>
+      </c>
       <c r="B46" s="3" t="s">
         <v>61</v>
       </c>
@@ -5413,6 +5561,10 @@
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="1" t="str">
+        <f aca="false">IF(F47="---","NEW",IF(AND(C47&lt;&gt;F47,B47&lt;&gt;E47),"RENAMED &amp; RECATEGORIZED", IF(C47&lt;&gt;F47,"RENAMED",IF(B47&lt;&gt;E47,"RECATEGORIZED","---"))))</f>
+        <v>---</v>
+      </c>
       <c r="B47" s="3" t="s">
         <v>61</v>
       </c>
@@ -5430,6 +5582,10 @@
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="1" t="str">
+        <f aca="false">IF(F48="---","NEW",IF(AND(C48&lt;&gt;F48,B48&lt;&gt;E48),"RENAMED &amp; RECATEGORIZED", IF(C48&lt;&gt;F48,"RENAMED",IF(B48&lt;&gt;E48,"RECATEGORIZED","---"))))</f>
+        <v>---</v>
+      </c>
       <c r="B48" s="3" t="s">
         <v>61</v>
       </c>
@@ -5447,6 +5603,10 @@
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="1" t="str">
+        <f aca="false">IF(F49="---","NEW",IF(AND(C49&lt;&gt;F49,B49&lt;&gt;E49),"RENAMED &amp; RECATEGORIZED", IF(C49&lt;&gt;F49,"RENAMED",IF(B49&lt;&gt;E49,"RECATEGORIZED","---"))))</f>
+        <v>---</v>
+      </c>
       <c r="B49" s="3" t="s">
         <v>70</v>
       </c>
@@ -5464,6 +5624,10 @@
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="1" t="str">
+        <f aca="false">IF(F50="---","NEW",IF(AND(C50&lt;&gt;F50,B50&lt;&gt;E50),"RENAMED &amp; RECATEGORIZED", IF(C50&lt;&gt;F50,"RENAMED",IF(B50&lt;&gt;E50,"RECATEGORIZED","---"))))</f>
+        <v>---</v>
+      </c>
       <c r="B50" s="3" t="s">
         <v>70</v>
       </c>
@@ -5481,6 +5645,10 @@
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="1" t="str">
+        <f aca="false">IF(F51="---","NEW",IF(AND(C51&lt;&gt;F51,B51&lt;&gt;E51),"RENAMED &amp; RECATEGORIZED", IF(C51&lt;&gt;F51,"RENAMED",IF(B51&lt;&gt;E51,"RECATEGORIZED","---"))))</f>
+        <v>---</v>
+      </c>
       <c r="B51" s="3" t="s">
         <v>70</v>
       </c>
@@ -5498,6 +5666,10 @@
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="1" t="str">
+        <f aca="false">IF(F52="---","NEW",IF(AND(C52&lt;&gt;F52,B52&lt;&gt;E52),"RENAMED &amp; RECATEGORIZED", IF(C52&lt;&gt;F52,"RENAMED",IF(B52&lt;&gt;E52,"RECATEGORIZED","---"))))</f>
+        <v>---</v>
+      </c>
       <c r="B52" s="3" t="s">
         <v>70</v>
       </c>
@@ -5515,6 +5687,10 @@
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="1" t="str">
+        <f aca="false">IF(F53="---","NEW",IF(AND(C53&lt;&gt;F53,B53&lt;&gt;E53),"RENAMED &amp; RECATEGORIZED", IF(C53&lt;&gt;F53,"RENAMED",IF(B53&lt;&gt;E53,"RECATEGORIZED","---"))))</f>
+        <v>---</v>
+      </c>
       <c r="B53" s="3" t="s">
         <v>70</v>
       </c>
@@ -5532,6 +5708,10 @@
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="1" t="str">
+        <f aca="false">IF(F54="---","NEW",IF(AND(C54&lt;&gt;F54,B54&lt;&gt;E54),"RENAMED &amp; RECATEGORIZED", IF(C54&lt;&gt;F54,"RENAMED",IF(B54&lt;&gt;E54,"RECATEGORIZED","---"))))</f>
+        <v>---</v>
+      </c>
       <c r="B54" s="3" t="s">
         <v>70</v>
       </c>
@@ -5549,6 +5729,10 @@
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="1" t="str">
+        <f aca="false">IF(F55="---","NEW",IF(AND(C55&lt;&gt;F55,B55&lt;&gt;E55),"RENAMED &amp; RECATEGORIZED", IF(C55&lt;&gt;F55,"RENAMED",IF(B55&lt;&gt;E55,"RECATEGORIZED","---"))))</f>
+        <v>---</v>
+      </c>
       <c r="B55" s="3" t="s">
         <v>70</v>
       </c>
@@ -5566,6 +5750,10 @@
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="1" t="str">
+        <f aca="false">IF(F56="---","NEW",IF(AND(C56&lt;&gt;F56,B56&lt;&gt;E56),"RENAMED &amp; RECATEGORIZED", IF(C56&lt;&gt;F56,"RENAMED",IF(B56&lt;&gt;E56,"RECATEGORIZED","---"))))</f>
+        <v>---</v>
+      </c>
       <c r="B56" s="3" t="s">
         <v>67</v>
       </c>
@@ -5583,6 +5771,10 @@
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="1" t="str">
+        <f aca="false">IF(F57="---","NEW",IF(AND(C57&lt;&gt;F57,B57&lt;&gt;E57),"RENAMED &amp; RECATEGORIZED", IF(C57&lt;&gt;F57,"RENAMED",IF(B57&lt;&gt;E57,"RECATEGORIZED","---"))))</f>
+        <v>---</v>
+      </c>
       <c r="B57" s="3" t="s">
         <v>67</v>
       </c>
@@ -5600,6 +5792,10 @@
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="1" t="str">
+        <f aca="false">IF(F58="---","NEW",IF(AND(C58&lt;&gt;F58,B58&lt;&gt;E58),"RENAMED &amp; RECATEGORIZED", IF(C58&lt;&gt;F58,"RENAMED",IF(B58&lt;&gt;E58,"RECATEGORIZED","---"))))</f>
+        <v>---</v>
+      </c>
       <c r="B58" s="3" t="s">
         <v>67</v>
       </c>
@@ -5617,6 +5813,10 @@
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="1" t="str">
+        <f aca="false">IF(F59="---","NEW",IF(AND(C59&lt;&gt;F59,B59&lt;&gt;E59),"RENAMED &amp; RECATEGORIZED", IF(C59&lt;&gt;F59,"RENAMED",IF(B59&lt;&gt;E59,"RECATEGORIZED","---"))))</f>
+        <v>---</v>
+      </c>
       <c r="B59" s="3" t="s">
         <v>82</v>
       </c>
@@ -5634,6 +5834,10 @@
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A60" s="1" t="str">
+        <f aca="false">IF(F60="---","NEW",IF(AND(C60&lt;&gt;F60,B60&lt;&gt;E60),"RENAMED &amp; RECATEGORIZED", IF(C60&lt;&gt;F60,"RENAMED",IF(B60&lt;&gt;E60,"RECATEGORIZED","---"))))</f>
+        <v>---</v>
+      </c>
       <c r="B60" s="3" t="s">
         <v>85</v>
       </c>
@@ -5651,6 +5855,10 @@
       </c>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A61" s="1" t="str">
+        <f aca="false">IF(F61="---","NEW",IF(AND(C61&lt;&gt;F61,B61&lt;&gt;E61),"RENAMED &amp; RECATEGORIZED", IF(C61&lt;&gt;F61,"RENAMED",IF(B61&lt;&gt;E61,"RECATEGORIZED","---"))))</f>
+        <v>---</v>
+      </c>
       <c r="B61" s="3" t="s">
         <v>88</v>
       </c>
@@ -5668,6 +5876,10 @@
       </c>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A62" s="1" t="str">
+        <f aca="false">IF(F62="---","NEW",IF(AND(C62&lt;&gt;F62,B62&lt;&gt;E62),"RENAMED &amp; RECATEGORIZED", IF(C62&lt;&gt;F62,"RENAMED",IF(B62&lt;&gt;E62,"RECATEGORIZED","---"))))</f>
+        <v>---</v>
+      </c>
       <c r="B62" s="3" t="s">
         <v>90</v>
       </c>
@@ -5685,6 +5897,10 @@
       </c>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A63" s="1" t="str">
+        <f aca="false">IF(F63="---","NEW",IF(AND(C63&lt;&gt;F63,B63&lt;&gt;E63),"RENAMED &amp; RECATEGORIZED", IF(C63&lt;&gt;F63,"RENAMED",IF(B63&lt;&gt;E63,"RECATEGORIZED","---"))))</f>
+        <v>---</v>
+      </c>
       <c r="B63" s="3" t="s">
         <v>90</v>
       </c>
@@ -5702,6 +5918,10 @@
       </c>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A64" s="1" t="str">
+        <f aca="false">IF(F64="---","NEW",IF(AND(C64&lt;&gt;F64,B64&lt;&gt;E64),"RENAMED &amp; RECATEGORIZED", IF(C64&lt;&gt;F64,"RENAMED",IF(B64&lt;&gt;E64,"RECATEGORIZED","---"))))</f>
+        <v>---</v>
+      </c>
       <c r="B64" s="3" t="s">
         <v>94</v>
       </c>
@@ -5719,6 +5939,10 @@
       </c>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A65" s="1" t="str">
+        <f aca="false">IF(F65="---","NEW",IF(AND(C65&lt;&gt;F65,B65&lt;&gt;E65),"RENAMED &amp; RECATEGORIZED", IF(C65&lt;&gt;F65,"RENAMED",IF(B65&lt;&gt;E65,"RECATEGORIZED","---"))))</f>
+        <v>---</v>
+      </c>
       <c r="B65" s="3" t="s">
         <v>94</v>
       </c>
@@ -5736,6 +5960,10 @@
       </c>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A66" s="1" t="str">
+        <f aca="false">IF(F66="---","NEW",IF(AND(C66&lt;&gt;F66,B66&lt;&gt;E66),"RENAMED &amp; RECATEGORIZED", IF(C66&lt;&gt;F66,"RENAMED",IF(B66&lt;&gt;E66,"RECATEGORIZED","---"))))</f>
+        <v>---</v>
+      </c>
       <c r="B66" s="3" t="s">
         <v>94</v>
       </c>
@@ -5753,6 +5981,10 @@
       </c>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A67" s="1" t="str">
+        <f aca="false">IF(F67="---","NEW",IF(AND(C67&lt;&gt;F67,B67&lt;&gt;E67),"RENAMED &amp; RECATEGORIZED", IF(C67&lt;&gt;F67,"RENAMED",IF(B67&lt;&gt;E67,"RECATEGORIZED","---"))))</f>
+        <v>---</v>
+      </c>
       <c r="B67" s="3" t="s">
         <v>94</v>
       </c>
@@ -5770,6 +6002,10 @@
       </c>
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A68" s="1" t="str">
+        <f aca="false">IF(F68="---","NEW",IF(AND(C68&lt;&gt;F68,B68&lt;&gt;E68),"RENAMED &amp; RECATEGORIZED", IF(C68&lt;&gt;F68,"RENAMED",IF(B68&lt;&gt;E68,"RECATEGORIZED","---"))))</f>
+        <v>---</v>
+      </c>
       <c r="B68" s="3" t="s">
         <v>94</v>
       </c>
@@ -5787,6 +6023,10 @@
       </c>
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A69" s="1" t="str">
+        <f aca="false">IF(F69="---","NEW",IF(AND(C69&lt;&gt;F69,B69&lt;&gt;E69),"RENAMED &amp; RECATEGORIZED", IF(C69&lt;&gt;F69,"RENAMED",IF(B69&lt;&gt;E69,"RECATEGORIZED","---"))))</f>
+        <v>---</v>
+      </c>
       <c r="B69" s="3" t="s">
         <v>94</v>
       </c>
@@ -5804,6 +6044,10 @@
       </c>
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A70" s="1" t="str">
+        <f aca="false">IF(F70="---","NEW",IF(AND(C70&lt;&gt;F70,B70&lt;&gt;E70),"RENAMED &amp; RECATEGORIZED", IF(C70&lt;&gt;F70,"RENAMED",IF(B70&lt;&gt;E70,"RECATEGORIZED","---"))))</f>
+        <v>---</v>
+      </c>
       <c r="B70" s="3" t="s">
         <v>94</v>
       </c>
@@ -5821,6 +6065,10 @@
       </c>
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A71" s="1" t="str">
+        <f aca="false">IF(F71="---","NEW",IF(AND(C71&lt;&gt;F71,B71&lt;&gt;E71),"RENAMED &amp; RECATEGORIZED", IF(C71&lt;&gt;F71,"RENAMED",IF(B71&lt;&gt;E71,"RECATEGORIZED","---"))))</f>
+        <v>---</v>
+      </c>
       <c r="B71" s="3" t="s">
         <v>94</v>
       </c>
@@ -5838,6 +6086,10 @@
       </c>
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A72" s="1" t="str">
+        <f aca="false">IF(F72="---","NEW",IF(AND(C72&lt;&gt;F72,B72&lt;&gt;E72),"RENAMED &amp; RECATEGORIZED", IF(C72&lt;&gt;F72,"RENAMED",IF(B72&lt;&gt;E72,"RECATEGORIZED","---"))))</f>
+        <v>---</v>
+      </c>
       <c r="B72" s="3" t="s">
         <v>94</v>
       </c>
@@ -5855,6 +6107,10 @@
       </c>
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A73" s="1" t="str">
+        <f aca="false">IF(F73="---","NEW",IF(AND(C73&lt;&gt;F73,B73&lt;&gt;E73),"RENAMED &amp; RECATEGORIZED", IF(C73&lt;&gt;F73,"RENAMED",IF(B73&lt;&gt;E73,"RECATEGORIZED","---"))))</f>
+        <v>---</v>
+      </c>
       <c r="B73" s="3" t="s">
         <v>94</v>
       </c>
@@ -5872,6 +6128,10 @@
       </c>
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A74" s="1" t="str">
+        <f aca="false">IF(F74="---","NEW",IF(AND(C74&lt;&gt;F74,B74&lt;&gt;E74),"RENAMED &amp; RECATEGORIZED", IF(C74&lt;&gt;F74,"RENAMED",IF(B74&lt;&gt;E74,"RECATEGORIZED","---"))))</f>
+        <v>---</v>
+      </c>
       <c r="B74" s="3" t="s">
         <v>107</v>
       </c>
@@ -5889,6 +6149,10 @@
       </c>
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A75" s="1" t="str">
+        <f aca="false">IF(F75="---","NEW",IF(AND(C75&lt;&gt;F75,B75&lt;&gt;E75),"RENAMED &amp; RECATEGORIZED", IF(C75&lt;&gt;F75,"RENAMED",IF(B75&lt;&gt;E75,"RECATEGORIZED","---"))))</f>
+        <v>---</v>
+      </c>
       <c r="B75" s="3" t="s">
         <v>109</v>
       </c>
@@ -5906,6 +6170,10 @@
       </c>
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A76" s="1" t="str">
+        <f aca="false">IF(F76="---","NEW",IF(AND(C76&lt;&gt;F76,B76&lt;&gt;E76),"RENAMED &amp; RECATEGORIZED", IF(C76&lt;&gt;F76,"RENAMED",IF(B76&lt;&gt;E76,"RECATEGORIZED","---"))))</f>
+        <v>---</v>
+      </c>
       <c r="B76" s="3" t="s">
         <v>109</v>
       </c>
@@ -5923,6 +6191,10 @@
       </c>
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A77" s="1" t="str">
+        <f aca="false">IF(F77="---","NEW",IF(AND(C77&lt;&gt;F77,B77&lt;&gt;E77),"RENAMED &amp; RECATEGORIZED", IF(C77&lt;&gt;F77,"RENAMED",IF(B77&lt;&gt;E77,"RECATEGORIZED","---"))))</f>
+        <v>---</v>
+      </c>
       <c r="B77" s="3" t="s">
         <v>109</v>
       </c>
@@ -5940,6 +6212,10 @@
       </c>
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A78" s="1" t="str">
+        <f aca="false">IF(F78="---","NEW",IF(AND(C78&lt;&gt;F78,B78&lt;&gt;E78),"RENAMED &amp; RECATEGORIZED", IF(C78&lt;&gt;F78,"RENAMED",IF(B78&lt;&gt;E78,"RECATEGORIZED","---"))))</f>
+        <v>---</v>
+      </c>
       <c r="B78" s="3" t="s">
         <v>109</v>
       </c>
@@ -5957,6 +6233,10 @@
       </c>
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A79" s="1" t="str">
+        <f aca="false">IF(F79="---","NEW",IF(AND(C79&lt;&gt;F79,B79&lt;&gt;E79),"RENAMED &amp; RECATEGORIZED", IF(C79&lt;&gt;F79,"RENAMED",IF(B79&lt;&gt;E79,"RECATEGORIZED","---"))))</f>
+        <v>---</v>
+      </c>
       <c r="B79" s="3" t="s">
         <v>109</v>
       </c>
@@ -5974,6 +6254,10 @@
       </c>
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A80" s="1" t="str">
+        <f aca="false">IF(F80="---","NEW",IF(AND(C80&lt;&gt;F80,B80&lt;&gt;E80),"RENAMED &amp; RECATEGORIZED", IF(C80&lt;&gt;F80,"RENAMED",IF(B80&lt;&gt;E80,"RECATEGORIZED","---"))))</f>
+        <v>---</v>
+      </c>
       <c r="B80" s="3" t="s">
         <v>109</v>
       </c>
@@ -5991,6 +6275,10 @@
       </c>
     </row>
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A81" s="1" t="str">
+        <f aca="false">IF(F81="---","NEW",IF(AND(C81&lt;&gt;F81,B81&lt;&gt;E81),"RENAMED &amp; RECATEGORIZED", IF(C81&lt;&gt;F81,"RENAMED",IF(B81&lt;&gt;E81,"RECATEGORIZED","---"))))</f>
+        <v>---</v>
+      </c>
       <c r="B81" s="3" t="s">
         <v>109</v>
       </c>
@@ -6008,6 +6296,10 @@
       </c>
     </row>
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A82" s="1" t="str">
+        <f aca="false">IF(F82="---","NEW",IF(AND(C82&lt;&gt;F82,B82&lt;&gt;E82),"RENAMED &amp; RECATEGORIZED", IF(C82&lt;&gt;F82,"RENAMED",IF(B82&lt;&gt;E82,"RECATEGORIZED","---"))))</f>
+        <v>---</v>
+      </c>
       <c r="B82" s="3" t="s">
         <v>118</v>
       </c>
@@ -6025,6 +6317,10 @@
       </c>
     </row>
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A83" s="1" t="str">
+        <f aca="false">IF(F83="---","NEW",IF(AND(C83&lt;&gt;F83,B83&lt;&gt;E83),"RENAMED &amp; RECATEGORIZED", IF(C83&lt;&gt;F83,"RENAMED",IF(B83&lt;&gt;E83,"RECATEGORIZED","---"))))</f>
+        <v>---</v>
+      </c>
       <c r="B83" s="3" t="s">
         <v>121</v>
       </c>
@@ -6042,6 +6338,10 @@
       </c>
     </row>
     <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A84" s="1" t="str">
+        <f aca="false">IF(F84="---","NEW",IF(AND(C84&lt;&gt;F84,B84&lt;&gt;E84),"RENAMED &amp; RECATEGORIZED", IF(C84&lt;&gt;F84,"RENAMED",IF(B84&lt;&gt;E84,"RECATEGORIZED","---"))))</f>
+        <v>---</v>
+      </c>
       <c r="B84" s="3" t="s">
         <v>124</v>
       </c>
@@ -6059,6 +6359,10 @@
       </c>
     </row>
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A85" s="1" t="str">
+        <f aca="false">IF(F85="---","NEW",IF(AND(C85&lt;&gt;F85,B85&lt;&gt;E85),"RENAMED &amp; RECATEGORIZED", IF(C85&lt;&gt;F85,"RENAMED",IF(B85&lt;&gt;E85,"RECATEGORIZED","---"))))</f>
+        <v>---</v>
+      </c>
       <c r="B85" s="3" t="s">
         <v>127</v>
       </c>
@@ -6076,6 +6380,10 @@
       </c>
     </row>
     <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A86" s="1" t="str">
+        <f aca="false">IF(F86="---","NEW",IF(AND(C86&lt;&gt;F86,B86&lt;&gt;E86),"RENAMED &amp; RECATEGORIZED", IF(C86&lt;&gt;F86,"RENAMED",IF(B86&lt;&gt;E86,"RECATEGORIZED","---"))))</f>
+        <v>---</v>
+      </c>
       <c r="B86" s="3" t="s">
         <v>129</v>
       </c>
@@ -6092,7 +6400,11 @@
         <v>130</v>
       </c>
     </row>
-    <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="87" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A87" s="1" t="str">
+        <f aca="false">IF(F87="---","NEW",IF(AND(C87&lt;&gt;F87,B87&lt;&gt;E87),"RENAMED &amp; RECATEGORIZED", IF(C87&lt;&gt;F87,"RENAMED",IF(B87&lt;&gt;E87,"RECATEGORIZED","---"))))</f>
+        <v>---</v>
+      </c>
       <c r="B87" s="3" t="s">
         <v>132</v>
       </c>
@@ -6109,7 +6421,11 @@
         <v>133</v>
       </c>
     </row>
-    <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="88" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A88" s="1" t="str">
+        <f aca="false">IF(F88="---","NEW",IF(AND(C88&lt;&gt;F88,B88&lt;&gt;E88),"RENAMED &amp; RECATEGORIZED", IF(C88&lt;&gt;F88,"RENAMED",IF(B88&lt;&gt;E88,"RECATEGORIZED","---"))))</f>
+        <v>---</v>
+      </c>
       <c r="B88" s="3" t="s">
         <v>132</v>
       </c>
@@ -6126,7 +6442,11 @@
         <v>134</v>
       </c>
     </row>
-    <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="89" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A89" s="1" t="str">
+        <f aca="false">IF(F89="---","NEW",IF(AND(C89&lt;&gt;F89,B89&lt;&gt;E89),"RENAMED &amp; RECATEGORIZED", IF(C89&lt;&gt;F89,"RENAMED",IF(B89&lt;&gt;E89,"RECATEGORIZED","---"))))</f>
+        <v>---</v>
+      </c>
       <c r="B89" s="3" t="s">
         <v>132</v>
       </c>
@@ -6143,7 +6463,11 @@
         <v>136</v>
       </c>
     </row>
-    <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="90" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A90" s="1" t="str">
+        <f aca="false">IF(F90="---","NEW",IF(AND(C90&lt;&gt;F90,B90&lt;&gt;E90),"RENAMED &amp; RECATEGORIZED", IF(C90&lt;&gt;F90,"RENAMED",IF(B90&lt;&gt;E90,"RECATEGORIZED","---"))))</f>
+        <v>---</v>
+      </c>
       <c r="B90" s="3" t="s">
         <v>132</v>
       </c>
@@ -6160,7 +6484,11 @@
         <v>137</v>
       </c>
     </row>
-    <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="91" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A91" s="1" t="str">
+        <f aca="false">IF(F91="---","NEW",IF(AND(C91&lt;&gt;F91,B91&lt;&gt;E91),"RENAMED &amp; RECATEGORIZED", IF(C91&lt;&gt;F91,"RENAMED",IF(B91&lt;&gt;E91,"RECATEGORIZED","---"))))</f>
+        <v>---</v>
+      </c>
       <c r="B91" s="3" t="s">
         <v>132</v>
       </c>
@@ -6177,7 +6505,11 @@
         <v>138</v>
       </c>
     </row>
-    <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="92" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A92" s="1" t="str">
+        <f aca="false">IF(F92="---","NEW",IF(AND(C92&lt;&gt;F92,B92&lt;&gt;E92),"RENAMED &amp; RECATEGORIZED", IF(C92&lt;&gt;F92,"RENAMED",IF(B92&lt;&gt;E92,"RECATEGORIZED","---"))))</f>
+        <v>---</v>
+      </c>
       <c r="B92" s="3" t="s">
         <v>132</v>
       </c>
@@ -6195,6 +6527,10 @@
       </c>
     </row>
     <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A93" s="1" t="str">
+        <f aca="false">IF(F93="---","NEW",IF(AND(C93&lt;&gt;F93,B93&lt;&gt;E93),"RENAMED &amp; RECATEGORIZED", IF(C93&lt;&gt;F93,"RENAMED",IF(B93&lt;&gt;E93,"RECATEGORIZED","---"))))</f>
+        <v>---</v>
+      </c>
       <c r="B93" s="3" t="s">
         <v>140</v>
       </c>
@@ -6211,7 +6547,11 @@
         <v>141</v>
       </c>
     </row>
-    <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="94" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A94" s="1" t="str">
+        <f aca="false">IF(F94="---","NEW",IF(AND(C94&lt;&gt;F94,B94&lt;&gt;E94),"RENAMED &amp; RECATEGORIZED", IF(C94&lt;&gt;F94,"RENAMED",IF(B94&lt;&gt;E94,"RECATEGORIZED","---"))))</f>
+        <v>---</v>
+      </c>
       <c r="B94" s="3" t="s">
         <v>140</v>
       </c>
@@ -6228,7 +6568,11 @@
         <v>142</v>
       </c>
     </row>
-    <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="95" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A95" s="1" t="str">
+        <f aca="false">IF(F95="---","NEW",IF(AND(C95&lt;&gt;F95,B95&lt;&gt;E95),"RENAMED &amp; RECATEGORIZED", IF(C95&lt;&gt;F95,"RENAMED",IF(B95&lt;&gt;E95,"RECATEGORIZED","---"))))</f>
+        <v>---</v>
+      </c>
       <c r="B95" s="3" t="s">
         <v>140</v>
       </c>
@@ -6245,7 +6589,11 @@
         <v>144</v>
       </c>
     </row>
-    <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="96" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A96" s="1" t="str">
+        <f aca="false">IF(F96="---","NEW",IF(AND(C96&lt;&gt;F96,B96&lt;&gt;E96),"RENAMED &amp; RECATEGORIZED", IF(C96&lt;&gt;F96,"RENAMED",IF(B96&lt;&gt;E96,"RECATEGORIZED","---"))))</f>
+        <v>---</v>
+      </c>
       <c r="B96" s="3" t="s">
         <v>140</v>
       </c>
@@ -6262,7 +6610,11 @@
         <v>146</v>
       </c>
     </row>
-    <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="97" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A97" s="1" t="str">
+        <f aca="false">IF(F97="---","NEW",IF(AND(C97&lt;&gt;F97,B97&lt;&gt;E97),"RENAMED &amp; RECATEGORIZED", IF(C97&lt;&gt;F97,"RENAMED",IF(B97&lt;&gt;E97,"RECATEGORIZED","---"))))</f>
+        <v>---</v>
+      </c>
       <c r="B97" s="3" t="s">
         <v>140</v>
       </c>
@@ -6279,7 +6631,11 @@
         <v>148</v>
       </c>
     </row>
-    <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="98" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A98" s="1" t="str">
+        <f aca="false">IF(F98="---","NEW",IF(AND(C98&lt;&gt;F98,B98&lt;&gt;E98),"RENAMED &amp; RECATEGORIZED", IF(C98&lt;&gt;F98,"RENAMED",IF(B98&lt;&gt;E98,"RECATEGORIZED","---"))))</f>
+        <v>---</v>
+      </c>
       <c r="B98" s="3" t="s">
         <v>140</v>
       </c>
@@ -6296,7 +6652,11 @@
         <v>150</v>
       </c>
     </row>
-    <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="99" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A99" s="1" t="str">
+        <f aca="false">IF(F99="---","NEW",IF(AND(C99&lt;&gt;F99,B99&lt;&gt;E99),"RENAMED &amp; RECATEGORIZED", IF(C99&lt;&gt;F99,"RENAMED",IF(B99&lt;&gt;E99,"RECATEGORIZED","---"))))</f>
+        <v>---</v>
+      </c>
       <c r="B99" s="3" t="s">
         <v>140</v>
       </c>
@@ -6313,7 +6673,11 @@
         <v>152</v>
       </c>
     </row>
-    <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="100" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A100" s="1" t="str">
+        <f aca="false">IF(F100="---","NEW",IF(AND(C100&lt;&gt;F100,B100&lt;&gt;E100),"RENAMED &amp; RECATEGORIZED", IF(C100&lt;&gt;F100,"RENAMED",IF(B100&lt;&gt;E100,"RECATEGORIZED","---"))))</f>
+        <v>---</v>
+      </c>
       <c r="B100" s="3" t="s">
         <v>140</v>
       </c>
@@ -6331,6 +6695,10 @@
       </c>
     </row>
     <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A101" s="1" t="str">
+        <f aca="false">IF(F101="---","NEW",IF(AND(C101&lt;&gt;F101,B101&lt;&gt;E101),"RENAMED &amp; RECATEGORIZED", IF(C101&lt;&gt;F101,"RENAMED",IF(B101&lt;&gt;E101,"RECATEGORIZED","---"))))</f>
+        <v>---</v>
+      </c>
       <c r="B101" s="3" t="s">
         <v>156</v>
       </c>
@@ -6348,6 +6716,10 @@
       </c>
     </row>
     <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A102" s="1" t="str">
+        <f aca="false">IF(F102="---","NEW",IF(AND(C102&lt;&gt;F102,B102&lt;&gt;E102),"RENAMED &amp; RECATEGORIZED", IF(C102&lt;&gt;F102,"RENAMED",IF(B102&lt;&gt;E102,"RECATEGORIZED","---"))))</f>
+        <v>---</v>
+      </c>
       <c r="B102" s="3" t="s">
         <v>156</v>
       </c>
@@ -6365,6 +6737,10 @@
       </c>
     </row>
     <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A103" s="1" t="str">
+        <f aca="false">IF(F103="---","NEW",IF(AND(C103&lt;&gt;F103,B103&lt;&gt;E103),"RENAMED &amp; RECATEGORIZED", IF(C103&lt;&gt;F103,"RENAMED",IF(B103&lt;&gt;E103,"RECATEGORIZED","---"))))</f>
+        <v>---</v>
+      </c>
       <c r="B103" s="3" t="s">
         <v>156</v>
       </c>
@@ -6382,6 +6758,10 @@
       </c>
     </row>
     <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A104" s="1" t="str">
+        <f aca="false">IF(F104="---","NEW",IF(AND(C104&lt;&gt;F104,B104&lt;&gt;E104),"RENAMED &amp; RECATEGORIZED", IF(C104&lt;&gt;F104,"RENAMED",IF(B104&lt;&gt;E104,"RECATEGORIZED","---"))))</f>
+        <v>---</v>
+      </c>
       <c r="B104" s="3" t="s">
         <v>162</v>
       </c>
@@ -6399,6 +6779,10 @@
       </c>
     </row>
     <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A105" s="1" t="str">
+        <f aca="false">IF(F105="---","NEW",IF(AND(C105&lt;&gt;F105,B105&lt;&gt;E105),"RENAMED &amp; RECATEGORIZED", IF(C105&lt;&gt;F105,"RENAMED",IF(B105&lt;&gt;E105,"RECATEGORIZED","---"))))</f>
+        <v>---</v>
+      </c>
       <c r="B105" s="3" t="s">
         <v>162</v>
       </c>
@@ -6416,6 +6800,10 @@
       </c>
     </row>
     <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A106" s="1" t="str">
+        <f aca="false">IF(F106="---","NEW",IF(AND(C106&lt;&gt;F106,B106&lt;&gt;E106),"RENAMED &amp; RECATEGORIZED", IF(C106&lt;&gt;F106,"RENAMED",IF(B106&lt;&gt;E106,"RECATEGORIZED","---"))))</f>
+        <v>---</v>
+      </c>
       <c r="B106" s="3" t="s">
         <v>162</v>
       </c>
@@ -6433,6 +6821,10 @@
       </c>
     </row>
     <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A107" s="1" t="str">
+        <f aca="false">IF(F107="---","NEW",IF(AND(C107&lt;&gt;F107,B107&lt;&gt;E107),"RENAMED &amp; RECATEGORIZED", IF(C107&lt;&gt;F107,"RENAMED",IF(B107&lt;&gt;E107,"RECATEGORIZED","---"))))</f>
+        <v>---</v>
+      </c>
       <c r="B107" s="3" t="s">
         <v>162</v>
       </c>
@@ -6450,6 +6842,10 @@
       </c>
     </row>
     <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A108" s="1" t="str">
+        <f aca="false">IF(F108="---","NEW",IF(AND(C108&lt;&gt;F108,B108&lt;&gt;E108),"RENAMED &amp; RECATEGORIZED", IF(C108&lt;&gt;F108,"RENAMED",IF(B108&lt;&gt;E108,"RECATEGORIZED","---"))))</f>
+        <v>---</v>
+      </c>
       <c r="B108" s="3" t="s">
         <v>162</v>
       </c>
@@ -6467,6 +6863,10 @@
       </c>
     </row>
     <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A109" s="1" t="str">
+        <f aca="false">IF(F109="---","NEW",IF(AND(C109&lt;&gt;F109,B109&lt;&gt;E109),"RENAMED &amp; RECATEGORIZED", IF(C109&lt;&gt;F109,"RENAMED",IF(B109&lt;&gt;E109,"RECATEGORIZED","---"))))</f>
+        <v>---</v>
+      </c>
       <c r="B109" s="3" t="s">
         <v>162</v>
       </c>
@@ -6484,6 +6884,10 @@
       </c>
     </row>
     <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A110" s="1" t="str">
+        <f aca="false">IF(F110="---","NEW",IF(AND(C110&lt;&gt;F110,B110&lt;&gt;E110),"RENAMED &amp; RECATEGORIZED", IF(C110&lt;&gt;F110,"RENAMED",IF(B110&lt;&gt;E110,"RECATEGORIZED","---"))))</f>
+        <v>---</v>
+      </c>
       <c r="B110" s="3" t="s">
         <v>171</v>
       </c>
@@ -6501,6 +6905,10 @@
       </c>
     </row>
     <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A111" s="1" t="str">
+        <f aca="false">IF(F111="---","NEW",IF(AND(C111&lt;&gt;F111,B111&lt;&gt;E111),"RENAMED &amp; RECATEGORIZED", IF(C111&lt;&gt;F111,"RENAMED",IF(B111&lt;&gt;E111,"RECATEGORIZED","---"))))</f>
+        <v>---</v>
+      </c>
       <c r="B111" s="3" t="s">
         <v>171</v>
       </c>
@@ -6518,6 +6926,10 @@
       </c>
     </row>
     <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A112" s="1" t="str">
+        <f aca="false">IF(F112="---","NEW",IF(AND(C112&lt;&gt;F112,B112&lt;&gt;E112),"RENAMED &amp; RECATEGORIZED", IF(C112&lt;&gt;F112,"RENAMED",IF(B112&lt;&gt;E112,"RECATEGORIZED","---"))))</f>
+        <v>---</v>
+      </c>
       <c r="B112" s="3" t="s">
         <v>175</v>
       </c>
@@ -6535,6 +6947,10 @@
       </c>
     </row>
     <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A113" s="1" t="str">
+        <f aca="false">IF(F113="---","NEW",IF(AND(C113&lt;&gt;F113,B113&lt;&gt;E113),"RENAMED &amp; RECATEGORIZED", IF(C113&lt;&gt;F113,"RENAMED",IF(B113&lt;&gt;E113,"RECATEGORIZED","---"))))</f>
+        <v>---</v>
+      </c>
       <c r="B113" s="3" t="s">
         <v>178</v>
       </c>
@@ -6552,6 +6968,10 @@
       </c>
     </row>
     <row r="114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A114" s="1" t="str">
+        <f aca="false">IF(F114="---","NEW",IF(AND(C114&lt;&gt;F114,B114&lt;&gt;E114),"RENAMED &amp; RECATEGORIZED", IF(C114&lt;&gt;F114,"RENAMED",IF(B114&lt;&gt;E114,"RECATEGORIZED","---"))))</f>
+        <v>---</v>
+      </c>
       <c r="B114" s="3" t="s">
         <v>178</v>
       </c>
@@ -6569,6 +6989,10 @@
       </c>
     </row>
     <row r="115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A115" s="1" t="str">
+        <f aca="false">IF(F115="---","NEW",IF(AND(C115&lt;&gt;F115,B115&lt;&gt;E115),"RENAMED &amp; RECATEGORIZED", IF(C115&lt;&gt;F115,"RENAMED",IF(B115&lt;&gt;E115,"RECATEGORIZED","---"))))</f>
+        <v>---</v>
+      </c>
       <c r="B115" s="3" t="s">
         <v>178</v>
       </c>
@@ -6586,6 +7010,10 @@
       </c>
     </row>
     <row r="116" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A116" s="1" t="str">
+        <f aca="false">IF(F116="---","NEW",IF(AND(C116&lt;&gt;F116,B116&lt;&gt;E116),"RENAMED &amp; RECATEGORIZED", IF(C116&lt;&gt;F116,"RENAMED",IF(B116&lt;&gt;E116,"RECATEGORIZED","---"))))</f>
+        <v>---</v>
+      </c>
       <c r="B116" s="3" t="s">
         <v>178</v>
       </c>
@@ -6603,6 +7031,10 @@
       </c>
     </row>
     <row r="117" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A117" s="1" t="str">
+        <f aca="false">IF(F117="---","NEW",IF(AND(C117&lt;&gt;F117,B117&lt;&gt;E117),"RENAMED &amp; RECATEGORIZED", IF(C117&lt;&gt;F117,"RENAMED",IF(B117&lt;&gt;E117,"RECATEGORIZED","---"))))</f>
+        <v>---</v>
+      </c>
       <c r="B117" s="3" t="s">
         <v>184</v>
       </c>
@@ -6620,6 +7052,10 @@
       </c>
     </row>
     <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A118" s="1" t="str">
+        <f aca="false">IF(F118="---","NEW",IF(AND(C118&lt;&gt;F118,B118&lt;&gt;E118),"RENAMED &amp; RECATEGORIZED", IF(C118&lt;&gt;F118,"RENAMED",IF(B118&lt;&gt;E118,"RECATEGORIZED","---"))))</f>
+        <v>---</v>
+      </c>
       <c r="B118" s="3" t="s">
         <v>184</v>
       </c>
@@ -6637,6 +7073,10 @@
       </c>
     </row>
     <row r="119" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A119" s="1" t="str">
+        <f aca="false">IF(F119="---","NEW",IF(AND(C119&lt;&gt;F119,B119&lt;&gt;E119),"RENAMED &amp; RECATEGORIZED", IF(C119&lt;&gt;F119,"RENAMED",IF(B119&lt;&gt;E119,"RECATEGORIZED","---"))))</f>
+        <v>---</v>
+      </c>
       <c r="B119" s="3" t="s">
         <v>184</v>
       </c>
@@ -6654,6 +7094,10 @@
       </c>
     </row>
     <row r="120" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A120" s="1" t="str">
+        <f aca="false">IF(F120="---","NEW",IF(AND(C120&lt;&gt;F120,B120&lt;&gt;E120),"RENAMED &amp; RECATEGORIZED", IF(C120&lt;&gt;F120,"RENAMED",IF(B120&lt;&gt;E120,"RECATEGORIZED","---"))))</f>
+        <v>---</v>
+      </c>
       <c r="B120" s="3" t="s">
         <v>184</v>
       </c>
@@ -6671,6 +7115,10 @@
       </c>
     </row>
     <row r="121" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A121" s="1" t="str">
+        <f aca="false">IF(F121="---","NEW",IF(AND(C121&lt;&gt;F121,B121&lt;&gt;E121),"RENAMED &amp; RECATEGORIZED", IF(C121&lt;&gt;F121,"RENAMED",IF(B121&lt;&gt;E121,"RECATEGORIZED","---"))))</f>
+        <v>---</v>
+      </c>
       <c r="B121" s="3" t="s">
         <v>184</v>
       </c>
@@ -6688,6 +7136,10 @@
       </c>
     </row>
     <row r="122" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A122" s="1" t="str">
+        <f aca="false">IF(F122="---","NEW",IF(AND(C122&lt;&gt;F122,B122&lt;&gt;E122),"RENAMED &amp; RECATEGORIZED", IF(C122&lt;&gt;F122,"RENAMED",IF(B122&lt;&gt;E122,"RECATEGORIZED","---"))))</f>
+        <v>---</v>
+      </c>
       <c r="B122" s="3" t="s">
         <v>184</v>
       </c>
@@ -6705,6 +7157,10 @@
       </c>
     </row>
     <row r="123" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A123" s="1" t="str">
+        <f aca="false">IF(F123="---","NEW",IF(AND(C123&lt;&gt;F123,B123&lt;&gt;E123),"RENAMED &amp; RECATEGORIZED", IF(C123&lt;&gt;F123,"RENAMED",IF(B123&lt;&gt;E123,"RECATEGORIZED","---"))))</f>
+        <v>---</v>
+      </c>
       <c r="B123" s="3" t="s">
         <v>184</v>
       </c>
@@ -6722,6 +7178,10 @@
       </c>
     </row>
     <row r="124" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A124" s="1" t="str">
+        <f aca="false">IF(F124="---","NEW",IF(AND(C124&lt;&gt;F124,B124&lt;&gt;E124),"RENAMED &amp; RECATEGORIZED", IF(C124&lt;&gt;F124,"RENAMED",IF(B124&lt;&gt;E124,"RECATEGORIZED","---"))))</f>
+        <v>---</v>
+      </c>
       <c r="B124" s="3" t="s">
         <v>184</v>
       </c>
@@ -6739,6 +7199,10 @@
       </c>
     </row>
     <row r="125" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A125" s="1" t="str">
+        <f aca="false">IF(F125="---","NEW",IF(AND(C125&lt;&gt;F125,B125&lt;&gt;E125),"RENAMED &amp; RECATEGORIZED", IF(C125&lt;&gt;F125,"RENAMED",IF(B125&lt;&gt;E125,"RECATEGORIZED","---"))))</f>
+        <v>---</v>
+      </c>
       <c r="B125" s="3" t="s">
         <v>184</v>
       </c>
@@ -6756,6 +7220,10 @@
       </c>
     </row>
     <row r="126" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A126" s="1" t="str">
+        <f aca="false">IF(F126="---","NEW",IF(AND(C126&lt;&gt;F126,B126&lt;&gt;E126),"RENAMED &amp; RECATEGORIZED", IF(C126&lt;&gt;F126,"RENAMED",IF(B126&lt;&gt;E126,"RECATEGORIZED","---"))))</f>
+        <v>---</v>
+      </c>
       <c r="B126" s="3" t="s">
         <v>8</v>
       </c>
@@ -6773,6 +7241,10 @@
       </c>
     </row>
     <row r="127" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A127" s="1" t="str">
+        <f aca="false">IF(F127="---","NEW",IF(AND(C127&lt;&gt;F127,B127&lt;&gt;E127),"RENAMED &amp; RECATEGORIZED", IF(C127&lt;&gt;F127,"RENAMED",IF(B127&lt;&gt;E127,"RECATEGORIZED","---"))))</f>
+        <v>---</v>
+      </c>
       <c r="B127" s="3" t="s">
         <v>8</v>
       </c>
@@ -6790,6 +7262,10 @@
       </c>
     </row>
     <row r="128" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A128" s="1" t="str">
+        <f aca="false">IF(F128="---","NEW",IF(AND(C128&lt;&gt;F128,B128&lt;&gt;E128),"RENAMED &amp; RECATEGORIZED", IF(C128&lt;&gt;F128,"RENAMED",IF(B128&lt;&gt;E128,"RECATEGORIZED","---"))))</f>
+        <v>---</v>
+      </c>
       <c r="B128" s="3" t="s">
         <v>8</v>
       </c>
@@ -6807,6 +7283,10 @@
       </c>
     </row>
     <row r="129" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A129" s="1" t="str">
+        <f aca="false">IF(F129="---","NEW",IF(AND(C129&lt;&gt;F129,B129&lt;&gt;E129),"RENAMED &amp; RECATEGORIZED", IF(C129&lt;&gt;F129,"RENAMED",IF(B129&lt;&gt;E129,"RECATEGORIZED","---"))))</f>
+        <v>---</v>
+      </c>
       <c r="B129" s="3" t="s">
         <v>199</v>
       </c>
@@ -6824,6 +7304,10 @@
       </c>
     </row>
     <row r="130" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A130" s="1" t="str">
+        <f aca="false">IF(F130="---","NEW",IF(AND(C130&lt;&gt;F130,B130&lt;&gt;E130),"RENAMED &amp; RECATEGORIZED", IF(C130&lt;&gt;F130,"RENAMED",IF(B130&lt;&gt;E130,"RECATEGORIZED","---"))))</f>
+        <v>---</v>
+      </c>
       <c r="B130" s="3" t="s">
         <v>202</v>
       </c>
@@ -6841,6 +7325,10 @@
       </c>
     </row>
     <row r="131" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A131" s="1" t="str">
+        <f aca="false">IF(F131="---","NEW",IF(AND(C131&lt;&gt;F131,B131&lt;&gt;E131),"RENAMED &amp; RECATEGORIZED", IF(C131&lt;&gt;F131,"RENAMED",IF(B131&lt;&gt;E131,"RECATEGORIZED","---"))))</f>
+        <v>---</v>
+      </c>
       <c r="B131" s="3" t="s">
         <v>202</v>
       </c>
@@ -6858,6 +7346,10 @@
       </c>
     </row>
     <row r="132" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A132" s="1" t="str">
+        <f aca="false">IF(F132="---","NEW",IF(AND(C132&lt;&gt;F132,B132&lt;&gt;E132),"RENAMED &amp; RECATEGORIZED", IF(C132&lt;&gt;F132,"RENAMED",IF(B132&lt;&gt;E132,"RECATEGORIZED","---"))))</f>
+        <v>---</v>
+      </c>
       <c r="B132" s="3" t="s">
         <v>202</v>
       </c>
@@ -6875,6 +7367,10 @@
       </c>
     </row>
     <row r="133" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A133" s="1" t="str">
+        <f aca="false">IF(F133="---","NEW",IF(AND(C133&lt;&gt;F133,B133&lt;&gt;E133),"RENAMED &amp; RECATEGORIZED", IF(C133&lt;&gt;F133,"RENAMED",IF(B133&lt;&gt;E133,"RECATEGORIZED","---"))))</f>
+        <v>---</v>
+      </c>
       <c r="B133" s="3" t="s">
         <v>202</v>
       </c>
@@ -6892,6 +7388,10 @@
       </c>
     </row>
     <row r="134" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A134" s="1" t="str">
+        <f aca="false">IF(F134="---","NEW",IF(AND(C134&lt;&gt;F134,B134&lt;&gt;E134),"RENAMED &amp; RECATEGORIZED", IF(C134&lt;&gt;F134,"RENAMED",IF(B134&lt;&gt;E134,"RECATEGORIZED","---"))))</f>
+        <v>---</v>
+      </c>
       <c r="B134" s="3" t="s">
         <v>202</v>
       </c>
@@ -6909,6 +7409,10 @@
       </c>
     </row>
     <row r="135" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A135" s="1" t="str">
+        <f aca="false">IF(F135="---","NEW",IF(AND(C135&lt;&gt;F135,B135&lt;&gt;E135),"RENAMED &amp; RECATEGORIZED", IF(C135&lt;&gt;F135,"RENAMED",IF(B135&lt;&gt;E135,"RECATEGORIZED","---"))))</f>
+        <v>---</v>
+      </c>
       <c r="B135" s="3" t="s">
         <v>202</v>
       </c>
@@ -6926,6 +7430,10 @@
       </c>
     </row>
     <row r="136" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A136" s="1" t="str">
+        <f aca="false">IF(F136="---","NEW",IF(AND(C136&lt;&gt;F136,B136&lt;&gt;E136),"RENAMED &amp; RECATEGORIZED", IF(C136&lt;&gt;F136,"RENAMED",IF(B136&lt;&gt;E136,"RECATEGORIZED","---"))))</f>
+        <v>---</v>
+      </c>
       <c r="B136" s="3" t="s">
         <v>210</v>
       </c>
@@ -6943,6 +7451,10 @@
       </c>
     </row>
     <row r="137" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A137" s="1" t="str">
+        <f aca="false">IF(F137="---","NEW",IF(AND(C137&lt;&gt;F137,B137&lt;&gt;E137),"RENAMED &amp; RECATEGORIZED", IF(C137&lt;&gt;F137,"RENAMED",IF(B137&lt;&gt;E137,"RECATEGORIZED","---"))))</f>
+        <v>---</v>
+      </c>
       <c r="B137" s="3" t="s">
         <v>210</v>
       </c>
@@ -6960,6 +7472,10 @@
       </c>
     </row>
     <row r="138" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A138" s="1" t="str">
+        <f aca="false">IF(F138="---","NEW",IF(AND(C138&lt;&gt;F138,B138&lt;&gt;E138),"RENAMED &amp; RECATEGORIZED", IF(C138&lt;&gt;F138,"RENAMED",IF(B138&lt;&gt;E138,"RECATEGORIZED","---"))))</f>
+        <v>---</v>
+      </c>
       <c r="B138" s="3" t="s">
         <v>210</v>
       </c>
@@ -6977,6 +7493,10 @@
       </c>
     </row>
     <row r="139" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A139" s="1" t="str">
+        <f aca="false">IF(F139="---","NEW",IF(AND(C139&lt;&gt;F139,B139&lt;&gt;E139),"RENAMED &amp; RECATEGORIZED", IF(C139&lt;&gt;F139,"RENAMED",IF(B139&lt;&gt;E139,"RECATEGORIZED","---"))))</f>
+        <v>---</v>
+      </c>
       <c r="B139" s="3" t="s">
         <v>210</v>
       </c>
@@ -6994,6 +7514,10 @@
       </c>
     </row>
     <row r="140" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A140" s="1" t="str">
+        <f aca="false">IF(F140="---","NEW",IF(AND(C140&lt;&gt;F140,B140&lt;&gt;E140),"RENAMED &amp; RECATEGORIZED", IF(C140&lt;&gt;F140,"RENAMED",IF(B140&lt;&gt;E140,"RECATEGORIZED","---"))))</f>
+        <v>---</v>
+      </c>
       <c r="B140" s="3" t="s">
         <v>216</v>
       </c>
@@ -7011,6 +7535,10 @@
       </c>
     </row>
     <row r="141" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A141" s="1" t="str">
+        <f aca="false">IF(F141="---","NEW",IF(AND(C141&lt;&gt;F141,B141&lt;&gt;E141),"RENAMED &amp; RECATEGORIZED", IF(C141&lt;&gt;F141,"RENAMED",IF(B141&lt;&gt;E141,"RECATEGORIZED","---"))))</f>
+        <v>---</v>
+      </c>
       <c r="B141" s="3" t="s">
         <v>216</v>
       </c>
@@ -7028,6 +7556,10 @@
       </c>
     </row>
     <row r="142" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A142" s="1" t="str">
+        <f aca="false">IF(F142="---","NEW",IF(AND(C142&lt;&gt;F142,B142&lt;&gt;E142),"RENAMED &amp; RECATEGORIZED", IF(C142&lt;&gt;F142,"RENAMED",IF(B142&lt;&gt;E142,"RECATEGORIZED","---"))))</f>
+        <v>---</v>
+      </c>
       <c r="B142" s="3" t="s">
         <v>216</v>
       </c>
@@ -7045,6 +7577,10 @@
       </c>
     </row>
     <row r="143" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A143" s="1" t="str">
+        <f aca="false">IF(F143="---","NEW",IF(AND(C143&lt;&gt;F143,B143&lt;&gt;E143),"RENAMED &amp; RECATEGORIZED", IF(C143&lt;&gt;F143,"RENAMED",IF(B143&lt;&gt;E143,"RECATEGORIZED","---"))))</f>
+        <v>---</v>
+      </c>
       <c r="B143" s="3" t="s">
         <v>216</v>
       </c>
@@ -7062,6 +7598,10 @@
       </c>
     </row>
     <row r="144" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A144" s="1" t="str">
+        <f aca="false">IF(F144="---","NEW",IF(AND(C144&lt;&gt;F144,B144&lt;&gt;E144),"RENAMED &amp; RECATEGORIZED", IF(C144&lt;&gt;F144,"RENAMED",IF(B144&lt;&gt;E144,"RECATEGORIZED","---"))))</f>
+        <v>---</v>
+      </c>
       <c r="B144" s="3" t="s">
         <v>216</v>
       </c>
@@ -7079,6 +7619,10 @@
       </c>
     </row>
     <row r="145" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A145" s="1" t="str">
+        <f aca="false">IF(F145="---","NEW",IF(AND(C145&lt;&gt;F145,B145&lt;&gt;E145),"RENAMED &amp; RECATEGORIZED", IF(C145&lt;&gt;F145,"RENAMED",IF(B145&lt;&gt;E145,"RECATEGORIZED","---"))))</f>
+        <v>---</v>
+      </c>
       <c r="B145" s="3" t="s">
         <v>216</v>
       </c>
@@ -7096,6 +7640,10 @@
       </c>
     </row>
     <row r="146" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A146" s="1" t="str">
+        <f aca="false">IF(F146="---","NEW",IF(AND(C146&lt;&gt;F146,B146&lt;&gt;E146),"RENAMED &amp; RECATEGORIZED", IF(C146&lt;&gt;F146,"RENAMED",IF(B146&lt;&gt;E146,"RECATEGORIZED","---"))))</f>
+        <v>---</v>
+      </c>
       <c r="B146" s="3" t="s">
         <v>216</v>
       </c>
@@ -7113,6 +7661,10 @@
       </c>
     </row>
     <row r="147" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A147" s="1" t="str">
+        <f aca="false">IF(F147="---","NEW",IF(AND(C147&lt;&gt;F147,B147&lt;&gt;E147),"RENAMED &amp; RECATEGORIZED", IF(C147&lt;&gt;F147,"RENAMED",IF(B147&lt;&gt;E147,"RECATEGORIZED","---"))))</f>
+        <v>---</v>
+      </c>
       <c r="B147" s="3" t="s">
         <v>216</v>
       </c>
@@ -7130,6 +7682,10 @@
       </c>
     </row>
     <row r="148" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A148" s="1" t="str">
+        <f aca="false">IF(F148="---","NEW",IF(AND(C148&lt;&gt;F148,B148&lt;&gt;E148),"RENAMED &amp; RECATEGORIZED", IF(C148&lt;&gt;F148,"RENAMED",IF(B148&lt;&gt;E148,"RECATEGORIZED","---"))))</f>
+        <v>---</v>
+      </c>
       <c r="B148" s="3" t="s">
         <v>216</v>
       </c>
@@ -7147,6 +7703,10 @@
       </c>
     </row>
     <row r="149" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A149" s="1" t="str">
+        <f aca="false">IF(F149="---","NEW",IF(AND(C149&lt;&gt;F149,B149&lt;&gt;E149),"RENAMED &amp; RECATEGORIZED", IF(C149&lt;&gt;F149,"RENAMED",IF(B149&lt;&gt;E149,"RECATEGORIZED","---"))))</f>
+        <v>---</v>
+      </c>
       <c r="B149" s="3" t="s">
         <v>227</v>
       </c>
@@ -7164,6 +7724,10 @@
       </c>
     </row>
     <row r="150" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A150" s="1" t="str">
+        <f aca="false">IF(F150="---","NEW",IF(AND(C150&lt;&gt;F150,B150&lt;&gt;E150),"RENAMED &amp; RECATEGORIZED", IF(C150&lt;&gt;F150,"RENAMED",IF(B150&lt;&gt;E150,"RECATEGORIZED","---"))))</f>
+        <v>---</v>
+      </c>
       <c r="B150" s="3" t="s">
         <v>227</v>
       </c>
@@ -7181,6 +7745,10 @@
       </c>
     </row>
     <row r="151" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A151" s="1" t="str">
+        <f aca="false">IF(F151="---","NEW",IF(AND(C151&lt;&gt;F151,B151&lt;&gt;E151),"RENAMED &amp; RECATEGORIZED", IF(C151&lt;&gt;F151,"RENAMED",IF(B151&lt;&gt;E151,"RECATEGORIZED","---"))))</f>
+        <v>---</v>
+      </c>
       <c r="B151" s="3" t="s">
         <v>227</v>
       </c>
@@ -7198,6 +7766,10 @@
       </c>
     </row>
     <row r="152" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A152" s="1" t="str">
+        <f aca="false">IF(F152="---","NEW",IF(AND(C152&lt;&gt;F152,B152&lt;&gt;E152),"RENAMED &amp; RECATEGORIZED", IF(C152&lt;&gt;F152,"RENAMED",IF(B152&lt;&gt;E152,"RECATEGORIZED","---"))))</f>
+        <v>---</v>
+      </c>
       <c r="B152" s="3" t="s">
         <v>227</v>
       </c>
@@ -7215,6 +7787,10 @@
       </c>
     </row>
     <row r="153" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A153" s="1" t="str">
+        <f aca="false">IF(F153="---","NEW",IF(AND(C153&lt;&gt;F153,B153&lt;&gt;E153),"RENAMED &amp; RECATEGORIZED", IF(C153&lt;&gt;F153,"RENAMED",IF(B153&lt;&gt;E153,"RECATEGORIZED","---"))))</f>
+        <v>---</v>
+      </c>
       <c r="B153" s="3" t="s">
         <v>227</v>
       </c>
@@ -7232,6 +7808,10 @@
       </c>
     </row>
     <row r="154" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A154" s="1" t="str">
+        <f aca="false">IF(F154="---","NEW",IF(AND(C154&lt;&gt;F154,B154&lt;&gt;E154),"RENAMED &amp; RECATEGORIZED", IF(C154&lt;&gt;F154,"RENAMED",IF(B154&lt;&gt;E154,"RECATEGORIZED","---"))))</f>
+        <v>---</v>
+      </c>
       <c r="B154" s="3" t="s">
         <v>227</v>
       </c>
@@ -7249,6 +7829,10 @@
       </c>
     </row>
     <row r="155" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A155" s="1" t="str">
+        <f aca="false">IF(F155="---","NEW",IF(AND(C155&lt;&gt;F155,B155&lt;&gt;E155),"RENAMED &amp; RECATEGORIZED", IF(C155&lt;&gt;F155,"RENAMED",IF(B155&lt;&gt;E155,"RECATEGORIZED","---"))))</f>
+        <v>---</v>
+      </c>
       <c r="B155" s="3" t="s">
         <v>227</v>
       </c>
@@ -7266,6 +7850,10 @@
       </c>
     </row>
     <row r="156" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A156" s="1" t="str">
+        <f aca="false">IF(F156="---","NEW",IF(AND(C156&lt;&gt;F156,B156&lt;&gt;E156),"RENAMED &amp; RECATEGORIZED", IF(C156&lt;&gt;F156,"RENAMED",IF(B156&lt;&gt;E156,"RECATEGORIZED","---"))))</f>
+        <v>---</v>
+      </c>
       <c r="B156" s="3" t="s">
         <v>227</v>
       </c>
@@ -7283,6 +7871,10 @@
       </c>
     </row>
     <row r="157" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A157" s="1" t="str">
+        <f aca="false">IF(F157="---","NEW",IF(AND(C157&lt;&gt;F157,B157&lt;&gt;E157),"RENAMED &amp; RECATEGORIZED", IF(C157&lt;&gt;F157,"RENAMED",IF(B157&lt;&gt;E157,"RECATEGORIZED","---"))))</f>
+        <v>---</v>
+      </c>
       <c r="B157" s="3" t="s">
         <v>227</v>
       </c>
@@ -7300,6 +7892,10 @@
       </c>
     </row>
     <row r="158" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A158" s="1" t="str">
+        <f aca="false">IF(F158="---","NEW",IF(AND(C158&lt;&gt;F158,B158&lt;&gt;E158),"RENAMED &amp; RECATEGORIZED", IF(C158&lt;&gt;F158,"RENAMED",IF(B158&lt;&gt;E158,"RECATEGORIZED","---"))))</f>
+        <v>---</v>
+      </c>
       <c r="B158" s="3" t="s">
         <v>227</v>
       </c>
@@ -7317,6 +7913,10 @@
       </c>
     </row>
     <row r="159" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A159" s="1" t="str">
+        <f aca="false">IF(F159="---","NEW",IF(AND(C159&lt;&gt;F159,B159&lt;&gt;E159),"RENAMED &amp; RECATEGORIZED", IF(C159&lt;&gt;F159,"RENAMED",IF(B159&lt;&gt;E159,"RECATEGORIZED","---"))))</f>
+        <v>---</v>
+      </c>
       <c r="B159" s="3" t="s">
         <v>239</v>
       </c>
@@ -7334,6 +7934,10 @@
       </c>
     </row>
     <row r="160" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A160" s="1" t="str">
+        <f aca="false">IF(F160="---","NEW",IF(AND(C160&lt;&gt;F160,B160&lt;&gt;E160),"RENAMED &amp; RECATEGORIZED", IF(C160&lt;&gt;F160,"RENAMED",IF(B160&lt;&gt;E160,"RECATEGORIZED","---"))))</f>
+        <v>---</v>
+      </c>
       <c r="B160" s="3" t="s">
         <v>241</v>
       </c>
@@ -7351,6 +7955,10 @@
       </c>
     </row>
     <row r="161" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A161" s="1" t="str">
+        <f aca="false">IF(F161="---","NEW",IF(AND(C161&lt;&gt;F161,B161&lt;&gt;E161),"RENAMED &amp; RECATEGORIZED", IF(C161&lt;&gt;F161,"RENAMED",IF(B161&lt;&gt;E161,"RECATEGORIZED","---"))))</f>
+        <v>---</v>
+      </c>
       <c r="B161" s="3" t="s">
         <v>243</v>
       </c>
@@ -7368,6 +7976,10 @@
       </c>
     </row>
     <row r="162" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A162" s="1" t="str">
+        <f aca="false">IF(F162="---","NEW",IF(AND(C162&lt;&gt;F162,B162&lt;&gt;E162),"RENAMED &amp; RECATEGORIZED", IF(C162&lt;&gt;F162,"RENAMED",IF(B162&lt;&gt;E162,"RECATEGORIZED","---"))))</f>
+        <v>---</v>
+      </c>
       <c r="B162" s="3" t="s">
         <v>243</v>
       </c>
@@ -7385,6 +7997,10 @@
       </c>
     </row>
     <row r="163" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A163" s="1" t="str">
+        <f aca="false">IF(F163="---","NEW",IF(AND(C163&lt;&gt;F163,B163&lt;&gt;E163),"RENAMED &amp; RECATEGORIZED", IF(C163&lt;&gt;F163,"RENAMED",IF(B163&lt;&gt;E163,"RECATEGORIZED","---"))))</f>
+        <v>---</v>
+      </c>
       <c r="B163" s="3" t="s">
         <v>247</v>
       </c>
@@ -7402,6 +8018,10 @@
       </c>
     </row>
     <row r="164" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A164" s="1" t="str">
+        <f aca="false">IF(F164="---","NEW",IF(AND(C164&lt;&gt;F164,B164&lt;&gt;E164),"RENAMED &amp; RECATEGORIZED", IF(C164&lt;&gt;F164,"RENAMED",IF(B164&lt;&gt;E164,"RECATEGORIZED","---"))))</f>
+        <v>---</v>
+      </c>
       <c r="B164" s="3" t="s">
         <v>247</v>
       </c>
@@ -7419,6 +8039,10 @@
       </c>
     </row>
     <row r="165" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A165" s="1" t="str">
+        <f aca="false">IF(F165="---","NEW",IF(AND(C165&lt;&gt;F165,B165&lt;&gt;E165),"RENAMED &amp; RECATEGORIZED", IF(C165&lt;&gt;F165,"RENAMED",IF(B165&lt;&gt;E165,"RECATEGORIZED","---"))))</f>
+        <v>---</v>
+      </c>
       <c r="B165" s="3" t="s">
         <v>247</v>
       </c>
@@ -7436,6 +8060,10 @@
       </c>
     </row>
     <row r="166" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A166" s="1" t="str">
+        <f aca="false">IF(F166="---","NEW",IF(AND(C166&lt;&gt;F166,B166&lt;&gt;E166),"RENAMED &amp; RECATEGORIZED", IF(C166&lt;&gt;F166,"RENAMED",IF(B166&lt;&gt;E166,"RECATEGORIZED","---"))))</f>
+        <v>---</v>
+      </c>
       <c r="B166" s="3" t="s">
         <v>247</v>
       </c>
@@ -7453,6 +8081,10 @@
       </c>
     </row>
     <row r="167" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A167" s="1" t="str">
+        <f aca="false">IF(F167="---","NEW",IF(AND(C167&lt;&gt;F167,B167&lt;&gt;E167),"RENAMED &amp; RECATEGORIZED", IF(C167&lt;&gt;F167,"RENAMED",IF(B167&lt;&gt;E167,"RECATEGORIZED","---"))))</f>
+        <v>---</v>
+      </c>
       <c r="B167" s="3" t="s">
         <v>253</v>
       </c>
@@ -7470,6 +8102,10 @@
       </c>
     </row>
     <row r="168" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A168" s="1" t="str">
+        <f aca="false">IF(F168="---","NEW",IF(AND(C168&lt;&gt;F168,B168&lt;&gt;E168),"RENAMED &amp; RECATEGORIZED", IF(C168&lt;&gt;F168,"RENAMED",IF(B168&lt;&gt;E168,"RECATEGORIZED","---"))))</f>
+        <v>---</v>
+      </c>
       <c r="B168" s="3" t="s">
         <v>253</v>
       </c>
@@ -7487,6 +8123,10 @@
       </c>
     </row>
     <row r="169" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A169" s="1" t="str">
+        <f aca="false">IF(F169="---","NEW",IF(AND(C169&lt;&gt;F169,B169&lt;&gt;E169),"RENAMED &amp; RECATEGORIZED", IF(C169&lt;&gt;F169,"RENAMED",IF(B169&lt;&gt;E169,"RECATEGORIZED","---"))))</f>
+        <v>---</v>
+      </c>
       <c r="B169" s="3" t="s">
         <v>253</v>
       </c>
@@ -7504,6 +8144,10 @@
       </c>
     </row>
     <row r="170" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A170" s="1" t="str">
+        <f aca="false">IF(F170="---","NEW",IF(AND(C170&lt;&gt;F170,B170&lt;&gt;E170),"RENAMED &amp; RECATEGORIZED", IF(C170&lt;&gt;F170,"RENAMED",IF(B170&lt;&gt;E170,"RECATEGORIZED","---"))))</f>
+        <v>---</v>
+      </c>
       <c r="B170" s="3" t="s">
         <v>253</v>
       </c>
@@ -7521,6 +8165,10 @@
       </c>
     </row>
     <row r="171" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A171" s="1" t="str">
+        <f aca="false">IF(F171="---","NEW",IF(AND(C171&lt;&gt;F171,B171&lt;&gt;E171),"RENAMED &amp; RECATEGORIZED", IF(C171&lt;&gt;F171,"RENAMED",IF(B171&lt;&gt;E171,"RECATEGORIZED","---"))))</f>
+        <v>---</v>
+      </c>
       <c r="B171" s="3" t="s">
         <v>253</v>
       </c>
@@ -7538,6 +8186,10 @@
       </c>
     </row>
     <row r="172" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A172" s="1" t="str">
+        <f aca="false">IF(F172="---","NEW",IF(AND(C172&lt;&gt;F172,B172&lt;&gt;E172),"RENAMED &amp; RECATEGORIZED", IF(C172&lt;&gt;F172,"RENAMED",IF(B172&lt;&gt;E172,"RECATEGORIZED","---"))))</f>
+        <v>---</v>
+      </c>
       <c r="B172" s="3" t="s">
         <v>261</v>
       </c>
@@ -7555,6 +8207,10 @@
       </c>
     </row>
     <row r="173" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A173" s="1" t="str">
+        <f aca="false">IF(F173="---","NEW",IF(AND(C173&lt;&gt;F173,B173&lt;&gt;E173),"RENAMED &amp; RECATEGORIZED", IF(C173&lt;&gt;F173,"RENAMED",IF(B173&lt;&gt;E173,"RECATEGORIZED","---"))))</f>
+        <v>---</v>
+      </c>
       <c r="B173" s="3" t="s">
         <v>261</v>
       </c>
@@ -7572,6 +8228,10 @@
       </c>
     </row>
     <row r="174" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A174" s="1" t="str">
+        <f aca="false">IF(F174="---","NEW",IF(AND(C174&lt;&gt;F174,B174&lt;&gt;E174),"RENAMED &amp; RECATEGORIZED", IF(C174&lt;&gt;F174,"RENAMED",IF(B174&lt;&gt;E174,"RECATEGORIZED","---"))))</f>
+        <v>---</v>
+      </c>
       <c r="B174" s="3" t="s">
         <v>261</v>
       </c>
@@ -7589,6 +8249,10 @@
       </c>
     </row>
     <row r="175" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A175" s="1" t="str">
+        <f aca="false">IF(F175="---","NEW",IF(AND(C175&lt;&gt;F175,B175&lt;&gt;E175),"RENAMED &amp; RECATEGORIZED", IF(C175&lt;&gt;F175,"RENAMED",IF(B175&lt;&gt;E175,"RECATEGORIZED","---"))))</f>
+        <v>---</v>
+      </c>
       <c r="B175" s="3" t="s">
         <v>261</v>
       </c>
@@ -7606,6 +8270,10 @@
       </c>
     </row>
     <row r="176" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A176" s="1" t="str">
+        <f aca="false">IF(F176="---","NEW",IF(AND(C176&lt;&gt;F176,B176&lt;&gt;E176),"RENAMED &amp; RECATEGORIZED", IF(C176&lt;&gt;F176,"RENAMED",IF(B176&lt;&gt;E176,"RECATEGORIZED","---"))))</f>
+        <v>---</v>
+      </c>
       <c r="B176" s="3" t="s">
         <v>261</v>
       </c>
@@ -7623,6 +8291,10 @@
       </c>
     </row>
     <row r="177" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A177" s="1" t="str">
+        <f aca="false">IF(F177="---","NEW",IF(AND(C177&lt;&gt;F177,B177&lt;&gt;E177),"RENAMED &amp; RECATEGORIZED", IF(C177&lt;&gt;F177,"RENAMED",IF(B177&lt;&gt;E177,"RECATEGORIZED","---"))))</f>
+        <v>---</v>
+      </c>
       <c r="B177" s="3" t="s">
         <v>261</v>
       </c>
@@ -7640,6 +8312,10 @@
       </c>
     </row>
     <row r="178" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A178" s="1" t="str">
+        <f aca="false">IF(F178="---","NEW",IF(AND(C178&lt;&gt;F178,B178&lt;&gt;E178),"RENAMED &amp; RECATEGORIZED", IF(C178&lt;&gt;F178,"RENAMED",IF(B178&lt;&gt;E178,"RECATEGORIZED","---"))))</f>
+        <v>---</v>
+      </c>
       <c r="B178" s="3" t="s">
         <v>261</v>
       </c>
@@ -7657,6 +8333,10 @@
       </c>
     </row>
     <row r="179" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A179" s="1" t="str">
+        <f aca="false">IF(F179="---","NEW",IF(AND(C179&lt;&gt;F179,B179&lt;&gt;E179),"RENAMED &amp; RECATEGORIZED", IF(C179&lt;&gt;F179,"RENAMED",IF(B179&lt;&gt;E179,"RECATEGORIZED","---"))))</f>
+        <v>---</v>
+      </c>
       <c r="B179" s="3" t="s">
         <v>261</v>
       </c>
@@ -7674,6 +8354,10 @@
       </c>
     </row>
     <row r="180" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A180" s="1" t="str">
+        <f aca="false">IF(F180="---","NEW",IF(AND(C180&lt;&gt;F180,B180&lt;&gt;E180),"RENAMED &amp; RECATEGORIZED", IF(C180&lt;&gt;F180,"RENAMED",IF(B180&lt;&gt;E180,"RECATEGORIZED","---"))))</f>
+        <v>---</v>
+      </c>
       <c r="B180" s="3" t="s">
         <v>261</v>
       </c>
@@ -7691,6 +8375,10 @@
       </c>
     </row>
     <row r="181" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A181" s="1" t="str">
+        <f aca="false">IF(F181="---","NEW",IF(AND(C181&lt;&gt;F181,B181&lt;&gt;E181),"RENAMED &amp; RECATEGORIZED", IF(C181&lt;&gt;F181,"RENAMED",IF(B181&lt;&gt;E181,"RECATEGORIZED","---"))))</f>
+        <v>---</v>
+      </c>
       <c r="B181" s="3" t="s">
         <v>261</v>
       </c>
@@ -7708,6 +8396,10 @@
       </c>
     </row>
     <row r="182" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A182" s="1" t="str">
+        <f aca="false">IF(F182="---","NEW",IF(AND(C182&lt;&gt;F182,B182&lt;&gt;E182),"RENAMED &amp; RECATEGORIZED", IF(C182&lt;&gt;F182,"RENAMED",IF(B182&lt;&gt;E182,"RECATEGORIZED","---"))))</f>
+        <v>---</v>
+      </c>
       <c r="B182" s="3" t="s">
         <v>261</v>
       </c>
@@ -7725,6 +8417,10 @@
       </c>
     </row>
     <row r="183" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A183" s="1" t="str">
+        <f aca="false">IF(F183="---","NEW",IF(AND(C183&lt;&gt;F183,B183&lt;&gt;E183),"RENAMED &amp; RECATEGORIZED", IF(C183&lt;&gt;F183,"RENAMED",IF(B183&lt;&gt;E183,"RECATEGORIZED","---"))))</f>
+        <v>---</v>
+      </c>
       <c r="B183" s="3" t="s">
         <v>261</v>
       </c>
@@ -7742,6 +8438,10 @@
       </c>
     </row>
     <row r="184" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A184" s="1" t="str">
+        <f aca="false">IF(F184="---","NEW",IF(AND(C184&lt;&gt;F184,B184&lt;&gt;E184),"RENAMED &amp; RECATEGORIZED", IF(C184&lt;&gt;F184,"RENAMED",IF(B184&lt;&gt;E184,"RECATEGORIZED","---"))))</f>
+        <v>---</v>
+      </c>
       <c r="B184" s="3" t="s">
         <v>261</v>
       </c>
@@ -7759,6 +8459,10 @@
       </c>
     </row>
     <row r="185" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A185" s="1" t="str">
+        <f aca="false">IF(F185="---","NEW",IF(AND(C185&lt;&gt;F185,B185&lt;&gt;E185),"RENAMED &amp; RECATEGORIZED", IF(C185&lt;&gt;F185,"RENAMED",IF(B185&lt;&gt;E185,"RECATEGORIZED","---"))))</f>
+        <v>---</v>
+      </c>
       <c r="B185" s="3" t="s">
         <v>261</v>
       </c>
@@ -7776,6 +8480,10 @@
       </c>
     </row>
     <row r="186" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A186" s="1" t="str">
+        <f aca="false">IF(F186="---","NEW",IF(AND(C186&lt;&gt;F186,B186&lt;&gt;E186),"RENAMED &amp; RECATEGORIZED", IF(C186&lt;&gt;F186,"RENAMED",IF(B186&lt;&gt;E186,"RECATEGORIZED","---"))))</f>
+        <v>---</v>
+      </c>
       <c r="B186" s="3" t="s">
         <v>261</v>
       </c>
@@ -7793,6 +8501,10 @@
       </c>
     </row>
     <row r="187" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A187" s="1" t="str">
+        <f aca="false">IF(F187="---","NEW",IF(AND(C187&lt;&gt;F187,B187&lt;&gt;E187),"RENAMED &amp; RECATEGORIZED", IF(C187&lt;&gt;F187,"RENAMED",IF(B187&lt;&gt;E187,"RECATEGORIZED","---"))))</f>
+        <v>---</v>
+      </c>
       <c r="B187" s="3" t="s">
         <v>261</v>
       </c>
@@ -7810,6 +8522,10 @@
       </c>
     </row>
     <row r="188" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A188" s="1" t="str">
+        <f aca="false">IF(F188="---","NEW",IF(AND(C188&lt;&gt;F188,B188&lt;&gt;E188),"RENAMED &amp; RECATEGORIZED", IF(C188&lt;&gt;F188,"RENAMED",IF(B188&lt;&gt;E188,"RECATEGORIZED","---"))))</f>
+        <v>---</v>
+      </c>
       <c r="B188" s="3" t="s">
         <v>261</v>
       </c>
@@ -7827,6 +8543,10 @@
       </c>
     </row>
     <row r="189" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A189" s="1" t="str">
+        <f aca="false">IF(F189="---","NEW",IF(AND(C189&lt;&gt;F189,B189&lt;&gt;E189),"RENAMED &amp; RECATEGORIZED", IF(C189&lt;&gt;F189,"RENAMED",IF(B189&lt;&gt;E189,"RECATEGORIZED","---"))))</f>
+        <v>---</v>
+      </c>
       <c r="B189" s="3" t="s">
         <v>261</v>
       </c>
@@ -7844,6 +8564,10 @@
       </c>
     </row>
     <row r="190" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A190" s="1" t="str">
+        <f aca="false">IF(F190="---","NEW",IF(AND(C190&lt;&gt;F190,B190&lt;&gt;E190),"RENAMED &amp; RECATEGORIZED", IF(C190&lt;&gt;F190,"RENAMED",IF(B190&lt;&gt;E190,"RECATEGORIZED","---"))))</f>
+        <v>---</v>
+      </c>
       <c r="B190" s="3" t="s">
         <v>261</v>
       </c>
@@ -7861,6 +8585,10 @@
       </c>
     </row>
     <row r="191" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A191" s="1" t="str">
+        <f aca="false">IF(F191="---","NEW",IF(AND(C191&lt;&gt;F191,B191&lt;&gt;E191),"RENAMED &amp; RECATEGORIZED", IF(C191&lt;&gt;F191,"RENAMED",IF(B191&lt;&gt;E191,"RECATEGORIZED","---"))))</f>
+        <v>---</v>
+      </c>
       <c r="B191" s="3" t="s">
         <v>261</v>
       </c>
@@ -7878,6 +8606,10 @@
       </c>
     </row>
     <row r="192" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A192" s="1" t="str">
+        <f aca="false">IF(F192="---","NEW",IF(AND(C192&lt;&gt;F192,B192&lt;&gt;E192),"RENAMED &amp; RECATEGORIZED", IF(C192&lt;&gt;F192,"RENAMED",IF(B192&lt;&gt;E192,"RECATEGORIZED","---"))))</f>
+        <v>---</v>
+      </c>
       <c r="B192" s="3" t="s">
         <v>261</v>
       </c>
@@ -7895,6 +8627,10 @@
       </c>
     </row>
     <row r="193" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A193" s="1" t="str">
+        <f aca="false">IF(F193="---","NEW",IF(AND(C193&lt;&gt;F193,B193&lt;&gt;E193),"RENAMED &amp; RECATEGORIZED", IF(C193&lt;&gt;F193,"RENAMED",IF(B193&lt;&gt;E193,"RECATEGORIZED","---"))))</f>
+        <v>---</v>
+      </c>
       <c r="B193" s="3" t="s">
         <v>261</v>
       </c>
@@ -7912,6 +8648,10 @@
       </c>
     </row>
     <row r="194" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A194" s="1" t="str">
+        <f aca="false">IF(F194="---","NEW",IF(AND(C194&lt;&gt;F194,B194&lt;&gt;E194),"RENAMED &amp; RECATEGORIZED", IF(C194&lt;&gt;F194,"RENAMED",IF(B194&lt;&gt;E194,"RECATEGORIZED","---"))))</f>
+        <v>---</v>
+      </c>
       <c r="B194" s="3" t="s">
         <v>261</v>
       </c>
@@ -7929,6 +8669,10 @@
       </c>
     </row>
     <row r="195" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A195" s="1" t="str">
+        <f aca="false">IF(F195="---","NEW",IF(AND(C195&lt;&gt;F195,B195&lt;&gt;E195),"RENAMED &amp; RECATEGORIZED", IF(C195&lt;&gt;F195,"RENAMED",IF(B195&lt;&gt;E195,"RECATEGORIZED","---"))))</f>
+        <v>---</v>
+      </c>
       <c r="B195" s="3" t="s">
         <v>261</v>
       </c>
@@ -7946,6 +8690,10 @@
       </c>
     </row>
     <row r="196" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A196" s="1" t="str">
+        <f aca="false">IF(F196="---","NEW",IF(AND(C196&lt;&gt;F196,B196&lt;&gt;E196),"RENAMED &amp; RECATEGORIZED", IF(C196&lt;&gt;F196,"RENAMED",IF(B196&lt;&gt;E196,"RECATEGORIZED","---"))))</f>
+        <v>---</v>
+      </c>
       <c r="B196" s="3" t="s">
         <v>261</v>
       </c>
@@ -7963,6 +8711,10 @@
       </c>
     </row>
     <row r="197" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A197" s="1" t="str">
+        <f aca="false">IF(F197="---","NEW",IF(AND(C197&lt;&gt;F197,B197&lt;&gt;E197),"RENAMED &amp; RECATEGORIZED", IF(C197&lt;&gt;F197,"RENAMED",IF(B197&lt;&gt;E197,"RECATEGORIZED","---"))))</f>
+        <v>---</v>
+      </c>
       <c r="B197" s="3" t="s">
         <v>261</v>
       </c>
@@ -7980,6 +8732,10 @@
       </c>
     </row>
     <row r="198" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A198" s="1" t="str">
+        <f aca="false">IF(F198="---","NEW",IF(AND(C198&lt;&gt;F198,B198&lt;&gt;E198),"RENAMED &amp; RECATEGORIZED", IF(C198&lt;&gt;F198,"RENAMED",IF(B198&lt;&gt;E198,"RECATEGORIZED","---"))))</f>
+        <v>---</v>
+      </c>
       <c r="B198" s="3" t="s">
         <v>261</v>
       </c>
@@ -7997,6 +8753,10 @@
       </c>
     </row>
     <row r="199" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A199" s="1" t="str">
+        <f aca="false">IF(F199="---","NEW",IF(AND(C199&lt;&gt;F199,B199&lt;&gt;E199),"RENAMED &amp; RECATEGORIZED", IF(C199&lt;&gt;F199,"RENAMED",IF(B199&lt;&gt;E199,"RECATEGORIZED","---"))))</f>
+        <v>---</v>
+      </c>
       <c r="B199" s="3" t="s">
         <v>261</v>
       </c>
@@ -8014,6 +8774,10 @@
       </c>
     </row>
     <row r="200" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A200" s="1" t="str">
+        <f aca="false">IF(F200="---","NEW",IF(AND(C200&lt;&gt;F200,B200&lt;&gt;E200),"RENAMED &amp; RECATEGORIZED", IF(C200&lt;&gt;F200,"RENAMED",IF(B200&lt;&gt;E200,"RECATEGORIZED","---"))))</f>
+        <v>---</v>
+      </c>
       <c r="B200" s="3" t="s">
         <v>298</v>
       </c>
@@ -8031,6 +8795,10 @@
       </c>
     </row>
     <row r="201" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A201" s="1" t="str">
+        <f aca="false">IF(F201="---","NEW",IF(AND(C201&lt;&gt;F201,B201&lt;&gt;E201),"RENAMED &amp; RECATEGORIZED", IF(C201&lt;&gt;F201,"RENAMED",IF(B201&lt;&gt;E201,"RECATEGORIZED","---"))))</f>
+        <v>---</v>
+      </c>
       <c r="B201" s="3" t="s">
         <v>298</v>
       </c>
@@ -8048,6 +8816,10 @@
       </c>
     </row>
     <row r="202" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A202" s="1" t="str">
+        <f aca="false">IF(F202="---","NEW",IF(AND(C202&lt;&gt;F202,B202&lt;&gt;E202),"RENAMED &amp; RECATEGORIZED", IF(C202&lt;&gt;F202,"RENAMED",IF(B202&lt;&gt;E202,"RECATEGORIZED","---"))))</f>
+        <v>---</v>
+      </c>
       <c r="B202" s="3" t="s">
         <v>302</v>
       </c>
@@ -8065,6 +8837,10 @@
       </c>
     </row>
     <row r="203" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A203" s="1" t="str">
+        <f aca="false">IF(F203="---","NEW",IF(AND(C203&lt;&gt;F203,B203&lt;&gt;E203),"RENAMED &amp; RECATEGORIZED", IF(C203&lt;&gt;F203,"RENAMED",IF(B203&lt;&gt;E203,"RECATEGORIZED","---"))))</f>
+        <v>---</v>
+      </c>
       <c r="B203" s="3" t="s">
         <v>302</v>
       </c>
@@ -8082,6 +8858,10 @@
       </c>
     </row>
     <row r="204" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A204" s="1" t="str">
+        <f aca="false">IF(F204="---","NEW",IF(AND(C204&lt;&gt;F204,B204&lt;&gt;E204),"RENAMED &amp; RECATEGORIZED", IF(C204&lt;&gt;F204,"RENAMED",IF(B204&lt;&gt;E204,"RECATEGORIZED","---"))))</f>
+        <v>---</v>
+      </c>
       <c r="B204" s="3" t="s">
         <v>305</v>
       </c>
@@ -8099,6 +8879,10 @@
       </c>
     </row>
     <row r="205" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A205" s="1" t="str">
+        <f aca="false">IF(F205="---","NEW",IF(AND(C205&lt;&gt;F205,B205&lt;&gt;E205),"RENAMED &amp; RECATEGORIZED", IF(C205&lt;&gt;F205,"RENAMED",IF(B205&lt;&gt;E205,"RECATEGORIZED","---"))))</f>
+        <v>---</v>
+      </c>
       <c r="B205" s="3" t="s">
         <v>305</v>
       </c>
@@ -8116,6 +8900,10 @@
       </c>
     </row>
     <row r="206" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A206" s="1" t="str">
+        <f aca="false">IF(F206="---","NEW",IF(AND(C206&lt;&gt;F206,B206&lt;&gt;E206),"RENAMED &amp; RECATEGORIZED", IF(C206&lt;&gt;F206,"RENAMED",IF(B206&lt;&gt;E206,"RECATEGORIZED","---"))))</f>
+        <v>---</v>
+      </c>
       <c r="B206" s="3" t="s">
         <v>305</v>
       </c>
@@ -8133,6 +8921,10 @@
       </c>
     </row>
     <row r="207" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A207" s="1" t="str">
+        <f aca="false">IF(F207="---","NEW",IF(AND(C207&lt;&gt;F207,B207&lt;&gt;E207),"RENAMED &amp; RECATEGORIZED", IF(C207&lt;&gt;F207,"RENAMED",IF(B207&lt;&gt;E207,"RECATEGORIZED","---"))))</f>
+        <v>---</v>
+      </c>
       <c r="B207" s="3" t="s">
         <v>305</v>
       </c>
@@ -8150,6 +8942,10 @@
       </c>
     </row>
     <row r="208" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A208" s="1" t="str">
+        <f aca="false">IF(F208="---","NEW",IF(AND(C208&lt;&gt;F208,B208&lt;&gt;E208),"RENAMED &amp; RECATEGORIZED", IF(C208&lt;&gt;F208,"RENAMED",IF(B208&lt;&gt;E208,"RECATEGORIZED","---"))))</f>
+        <v>---</v>
+      </c>
       <c r="B208" s="3" t="s">
         <v>305</v>
       </c>
@@ -8167,6 +8963,10 @@
       </c>
     </row>
     <row r="209" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A209" s="1" t="str">
+        <f aca="false">IF(F209="---","NEW",IF(AND(C209&lt;&gt;F209,B209&lt;&gt;E209),"RENAMED &amp; RECATEGORIZED", IF(C209&lt;&gt;F209,"RENAMED",IF(B209&lt;&gt;E209,"RECATEGORIZED","---"))))</f>
+        <v>---</v>
+      </c>
       <c r="B209" s="3" t="s">
         <v>305</v>
       </c>
@@ -8184,6 +8984,10 @@
       </c>
     </row>
     <row r="210" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A210" s="1" t="str">
+        <f aca="false">IF(F210="---","NEW",IF(AND(C210&lt;&gt;F210,B210&lt;&gt;E210),"RENAMED &amp; RECATEGORIZED", IF(C210&lt;&gt;F210,"RENAMED",IF(B210&lt;&gt;E210,"RECATEGORIZED","---"))))</f>
+        <v>---</v>
+      </c>
       <c r="B210" s="3" t="s">
         <v>305</v>
       </c>
@@ -8200,7 +9004,11 @@
         <v>315</v>
       </c>
     </row>
-    <row r="211" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="211" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A211" s="1" t="str">
+        <f aca="false">IF(F211="---","NEW",IF(AND(C211&lt;&gt;F211,B211&lt;&gt;E211),"RENAMED &amp; RECATEGORIZED", IF(C211&lt;&gt;F211,"RENAMED",IF(B211&lt;&gt;E211,"RECATEGORIZED","---"))))</f>
+        <v>---</v>
+      </c>
       <c r="B211" s="3" t="s">
         <v>305</v>
       </c>
@@ -8218,6 +9026,10 @@
       </c>
     </row>
     <row r="212" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A212" s="1" t="str">
+        <f aca="false">IF(F212="---","NEW",IF(AND(C212&lt;&gt;F212,B212&lt;&gt;E212),"RENAMED &amp; RECATEGORIZED", IF(C212&lt;&gt;F212,"RENAMED",IF(B212&lt;&gt;E212,"RECATEGORIZED","---"))))</f>
+        <v>---</v>
+      </c>
       <c r="B212" s="3" t="s">
         <v>305</v>
       </c>
@@ -8235,6 +9047,10 @@
       </c>
     </row>
     <row r="213" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A213" s="1" t="str">
+        <f aca="false">IF(F213="---","NEW",IF(AND(C213&lt;&gt;F213,B213&lt;&gt;E213),"RENAMED &amp; RECATEGORIZED", IF(C213&lt;&gt;F213,"RENAMED",IF(B213&lt;&gt;E213,"RECATEGORIZED","---"))))</f>
+        <v>---</v>
+      </c>
       <c r="B213" s="3" t="s">
         <v>305</v>
       </c>
@@ -8252,6 +9068,10 @@
       </c>
     </row>
     <row r="214" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A214" s="1" t="str">
+        <f aca="false">IF(F214="---","NEW",IF(AND(C214&lt;&gt;F214,B214&lt;&gt;E214),"RENAMED &amp; RECATEGORIZED", IF(C214&lt;&gt;F214,"RENAMED",IF(B214&lt;&gt;E214,"RECATEGORIZED","---"))))</f>
+        <v>NEW</v>
+      </c>
       <c r="B214" s="3" t="s">
         <v>305</v>
       </c>
@@ -8269,6 +9089,10 @@
       </c>
     </row>
     <row r="215" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A215" s="1" t="str">
+        <f aca="false">IF(F215="---","NEW",IF(AND(C215&lt;&gt;F215,B215&lt;&gt;E215),"RENAMED &amp; RECATEGORIZED", IF(C215&lt;&gt;F215,"RENAMED",IF(B215&lt;&gt;E215,"RECATEGORIZED","---"))))</f>
+        <v>---</v>
+      </c>
       <c r="B215" s="3" t="s">
         <v>305</v>
       </c>
@@ -8286,6 +9110,10 @@
       </c>
     </row>
     <row r="216" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A216" s="1" t="str">
+        <f aca="false">IF(F216="---","NEW",IF(AND(C216&lt;&gt;F216,B216&lt;&gt;E216),"RENAMED &amp; RECATEGORIZED", IF(C216&lt;&gt;F216,"RENAMED",IF(B216&lt;&gt;E216,"RECATEGORIZED","---"))))</f>
+        <v>---</v>
+      </c>
       <c r="B216" s="3" t="s">
         <v>305</v>
       </c>
@@ -8303,6 +9131,10 @@
       </c>
     </row>
     <row r="217" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A217" s="1" t="str">
+        <f aca="false">IF(F217="---","NEW",IF(AND(C217&lt;&gt;F217,B217&lt;&gt;E217),"RENAMED &amp; RECATEGORIZED", IF(C217&lt;&gt;F217,"RENAMED",IF(B217&lt;&gt;E217,"RECATEGORIZED","---"))))</f>
+        <v>---</v>
+      </c>
       <c r="B217" s="3" t="s">
         <v>305</v>
       </c>
@@ -8320,6 +9152,10 @@
       </c>
     </row>
     <row r="218" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A218" s="1" t="str">
+        <f aca="false">IF(F218="---","NEW",IF(AND(C218&lt;&gt;F218,B218&lt;&gt;E218),"RENAMED &amp; RECATEGORIZED", IF(C218&lt;&gt;F218,"RENAMED",IF(B218&lt;&gt;E218,"RECATEGORIZED","---"))))</f>
+        <v>NEW</v>
+      </c>
       <c r="B218" s="3" t="s">
         <v>305</v>
       </c>
@@ -8337,6 +9173,10 @@
       </c>
     </row>
     <row r="219" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A219" s="1" t="str">
+        <f aca="false">IF(F219="---","NEW",IF(AND(C219&lt;&gt;F219,B219&lt;&gt;E219),"RENAMED &amp; RECATEGORIZED", IF(C219&lt;&gt;F219,"RENAMED",IF(B219&lt;&gt;E219,"RECATEGORIZED","---"))))</f>
+        <v>---</v>
+      </c>
       <c r="B219" s="3" t="s">
         <v>305</v>
       </c>
@@ -8354,6 +9194,10 @@
       </c>
     </row>
     <row r="220" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A220" s="1" t="str">
+        <f aca="false">IF(F220="---","NEW",IF(AND(C220&lt;&gt;F220,B220&lt;&gt;E220),"RENAMED &amp; RECATEGORIZED", IF(C220&lt;&gt;F220,"RENAMED",IF(B220&lt;&gt;E220,"RECATEGORIZED","---"))))</f>
+        <v>---</v>
+      </c>
       <c r="B220" s="3" t="s">
         <v>305</v>
       </c>
@@ -8371,6 +9215,10 @@
       </c>
     </row>
     <row r="221" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A221" s="1" t="str">
+        <f aca="false">IF(F221="---","NEW",IF(AND(C221&lt;&gt;F221,B221&lt;&gt;E221),"RENAMED &amp; RECATEGORIZED", IF(C221&lt;&gt;F221,"RENAMED",IF(B221&lt;&gt;E221,"RECATEGORIZED","---"))))</f>
+        <v>---</v>
+      </c>
       <c r="B221" s="3" t="s">
         <v>305</v>
       </c>
@@ -8388,6 +9236,10 @@
       </c>
     </row>
     <row r="222" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A222" s="1" t="str">
+        <f aca="false">IF(F222="---","NEW",IF(AND(C222&lt;&gt;F222,B222&lt;&gt;E222),"RENAMED &amp; RECATEGORIZED", IF(C222&lt;&gt;F222,"RENAMED",IF(B222&lt;&gt;E222,"RECATEGORIZED","---"))))</f>
+        <v>---</v>
+      </c>
       <c r="B222" s="3" t="s">
         <v>305</v>
       </c>
@@ -8405,6 +9257,10 @@
       </c>
     </row>
     <row r="223" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A223" s="1" t="str">
+        <f aca="false">IF(F223="---","NEW",IF(AND(C223&lt;&gt;F223,B223&lt;&gt;E223),"RENAMED &amp; RECATEGORIZED", IF(C223&lt;&gt;F223,"RENAMED",IF(B223&lt;&gt;E223,"RECATEGORIZED","---"))))</f>
+        <v>---</v>
+      </c>
       <c r="B223" s="3" t="s">
         <v>305</v>
       </c>
@@ -8422,6 +9278,10 @@
       </c>
     </row>
     <row r="224" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A224" s="1" t="str">
+        <f aca="false">IF(F224="---","NEW",IF(AND(C224&lt;&gt;F224,B224&lt;&gt;E224),"RENAMED &amp; RECATEGORIZED", IF(C224&lt;&gt;F224,"RENAMED",IF(B224&lt;&gt;E224,"RECATEGORIZED","---"))))</f>
+        <v>---</v>
+      </c>
       <c r="B224" s="3" t="s">
         <v>305</v>
       </c>
@@ -8439,6 +9299,10 @@
       </c>
     </row>
     <row r="225" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A225" s="1" t="str">
+        <f aca="false">IF(F225="---","NEW",IF(AND(C225&lt;&gt;F225,B225&lt;&gt;E225),"RENAMED &amp; RECATEGORIZED", IF(C225&lt;&gt;F225,"RENAMED",IF(B225&lt;&gt;E225,"RECATEGORIZED","---"))))</f>
+        <v>---</v>
+      </c>
       <c r="B225" s="3" t="s">
         <v>305</v>
       </c>
@@ -8456,6 +9320,10 @@
       </c>
     </row>
     <row r="226" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A226" s="1" t="str">
+        <f aca="false">IF(F226="---","NEW",IF(AND(C226&lt;&gt;F226,B226&lt;&gt;E226),"RENAMED &amp; RECATEGORIZED", IF(C226&lt;&gt;F226,"RENAMED",IF(B226&lt;&gt;E226,"RECATEGORIZED","---"))))</f>
+        <v>---</v>
+      </c>
       <c r="B226" s="3" t="s">
         <v>305</v>
       </c>
@@ -8473,6 +9341,10 @@
       </c>
     </row>
     <row r="227" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A227" s="1" t="str">
+        <f aca="false">IF(F227="---","NEW",IF(AND(C227&lt;&gt;F227,B227&lt;&gt;E227),"RENAMED &amp; RECATEGORIZED", IF(C227&lt;&gt;F227,"RENAMED",IF(B227&lt;&gt;E227,"RECATEGORIZED","---"))))</f>
+        <v>---</v>
+      </c>
       <c r="B227" s="3" t="s">
         <v>305</v>
       </c>
@@ -8490,6 +9362,10 @@
       </c>
     </row>
     <row r="228" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A228" s="1" t="str">
+        <f aca="false">IF(F228="---","NEW",IF(AND(C228&lt;&gt;F228,B228&lt;&gt;E228),"RENAMED &amp; RECATEGORIZED", IF(C228&lt;&gt;F228,"RENAMED",IF(B228&lt;&gt;E228,"RECATEGORIZED","---"))))</f>
+        <v>---</v>
+      </c>
       <c r="B228" s="3" t="s">
         <v>305</v>
       </c>
@@ -8507,6 +9383,10 @@
       </c>
     </row>
     <row r="229" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A229" s="1" t="str">
+        <f aca="false">IF(F229="---","NEW",IF(AND(C229&lt;&gt;F229,B229&lt;&gt;E229),"RENAMED &amp; RECATEGORIZED", IF(C229&lt;&gt;F229,"RENAMED",IF(B229&lt;&gt;E229,"RECATEGORIZED","---"))))</f>
+        <v>---</v>
+      </c>
       <c r="B229" s="3" t="s">
         <v>305</v>
       </c>
@@ -8524,6 +9404,10 @@
       </c>
     </row>
     <row r="230" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A230" s="1" t="str">
+        <f aca="false">IF(F230="---","NEW",IF(AND(C230&lt;&gt;F230,B230&lt;&gt;E230),"RENAMED &amp; RECATEGORIZED", IF(C230&lt;&gt;F230,"RENAMED",IF(B230&lt;&gt;E230,"RECATEGORIZED","---"))))</f>
+        <v>---</v>
+      </c>
       <c r="B230" s="3" t="s">
         <v>305</v>
       </c>
@@ -8541,6 +9425,10 @@
       </c>
     </row>
     <row r="231" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A231" s="1" t="str">
+        <f aca="false">IF(F231="---","NEW",IF(AND(C231&lt;&gt;F231,B231&lt;&gt;E231),"RENAMED &amp; RECATEGORIZED", IF(C231&lt;&gt;F231,"RENAMED",IF(B231&lt;&gt;E231,"RECATEGORIZED","---"))))</f>
+        <v>---</v>
+      </c>
       <c r="B231" s="3" t="s">
         <v>305</v>
       </c>
@@ -8558,6 +9446,10 @@
       </c>
     </row>
     <row r="232" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A232" s="1" t="str">
+        <f aca="false">IF(F232="---","NEW",IF(AND(C232&lt;&gt;F232,B232&lt;&gt;E232),"RENAMED &amp; RECATEGORIZED", IF(C232&lt;&gt;F232,"RENAMED",IF(B232&lt;&gt;E232,"RECATEGORIZED","---"))))</f>
+        <v>---</v>
+      </c>
       <c r="B232" s="3" t="s">
         <v>305</v>
       </c>
@@ -8575,6 +9467,10 @@
       </c>
     </row>
     <row r="233" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A233" s="1" t="str">
+        <f aca="false">IF(F233="---","NEW",IF(AND(C233&lt;&gt;F233,B233&lt;&gt;E233),"RENAMED &amp; RECATEGORIZED", IF(C233&lt;&gt;F233,"RENAMED",IF(B233&lt;&gt;E233,"RECATEGORIZED","---"))))</f>
+        <v>---</v>
+      </c>
       <c r="B233" s="3" t="s">
         <v>305</v>
       </c>
@@ -8592,6 +9488,10 @@
       </c>
     </row>
     <row r="234" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A234" s="1" t="str">
+        <f aca="false">IF(F234="---","NEW",IF(AND(C234&lt;&gt;F234,B234&lt;&gt;E234),"RENAMED &amp; RECATEGORIZED", IF(C234&lt;&gt;F234,"RENAMED",IF(B234&lt;&gt;E234,"RECATEGORIZED","---"))))</f>
+        <v>---</v>
+      </c>
       <c r="B234" s="3" t="s">
         <v>305</v>
       </c>
@@ -8609,6 +9509,10 @@
       </c>
     </row>
     <row r="235" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A235" s="1" t="str">
+        <f aca="false">IF(F235="---","NEW",IF(AND(C235&lt;&gt;F235,B235&lt;&gt;E235),"RENAMED &amp; RECATEGORIZED", IF(C235&lt;&gt;F235,"RENAMED",IF(B235&lt;&gt;E235,"RECATEGORIZED","---"))))</f>
+        <v>---</v>
+      </c>
       <c r="B235" s="3" t="s">
         <v>305</v>
       </c>
@@ -8626,6 +9530,10 @@
       </c>
     </row>
     <row r="236" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A236" s="1" t="str">
+        <f aca="false">IF(F236="---","NEW",IF(AND(C236&lt;&gt;F236,B236&lt;&gt;E236),"RENAMED &amp; RECATEGORIZED", IF(C236&lt;&gt;F236,"RENAMED",IF(B236&lt;&gt;E236,"RECATEGORIZED","---"))))</f>
+        <v>---</v>
+      </c>
       <c r="B236" s="3" t="s">
         <v>305</v>
       </c>
@@ -8643,6 +9551,10 @@
       </c>
     </row>
     <row r="237" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A237" s="1" t="str">
+        <f aca="false">IF(F237="---","NEW",IF(AND(C237&lt;&gt;F237,B237&lt;&gt;E237),"RENAMED &amp; RECATEGORIZED", IF(C237&lt;&gt;F237,"RENAMED",IF(B237&lt;&gt;E237,"RECATEGORIZED","---"))))</f>
+        <v>---</v>
+      </c>
       <c r="B237" s="3" t="s">
         <v>305</v>
       </c>
@@ -8660,6 +9572,10 @@
       </c>
     </row>
     <row r="238" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A238" s="1" t="str">
+        <f aca="false">IF(F238="---","NEW",IF(AND(C238&lt;&gt;F238,B238&lt;&gt;E238),"RENAMED &amp; RECATEGORIZED", IF(C238&lt;&gt;F238,"RENAMED",IF(B238&lt;&gt;E238,"RECATEGORIZED","---"))))</f>
+        <v>---</v>
+      </c>
       <c r="B238" s="3" t="s">
         <v>305</v>
       </c>
@@ -8677,6 +9593,10 @@
       </c>
     </row>
     <row r="239" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A239" s="1" t="str">
+        <f aca="false">IF(F239="---","NEW",IF(AND(C239&lt;&gt;F239,B239&lt;&gt;E239),"RENAMED &amp; RECATEGORIZED", IF(C239&lt;&gt;F239,"RENAMED",IF(B239&lt;&gt;E239,"RECATEGORIZED","---"))))</f>
+        <v>---</v>
+      </c>
       <c r="B239" s="3" t="s">
         <v>305</v>
       </c>
@@ -8694,6 +9614,10 @@
       </c>
     </row>
     <row r="240" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A240" s="1" t="str">
+        <f aca="false">IF(F240="---","NEW",IF(AND(C240&lt;&gt;F240,B240&lt;&gt;E240),"RENAMED &amp; RECATEGORIZED", IF(C240&lt;&gt;F240,"RENAMED",IF(B240&lt;&gt;E240,"RECATEGORIZED","---"))))</f>
+        <v>---</v>
+      </c>
       <c r="B240" s="3" t="s">
         <v>305</v>
       </c>
@@ -8711,6 +9635,10 @@
       </c>
     </row>
     <row r="241" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A241" s="1" t="str">
+        <f aca="false">IF(F241="---","NEW",IF(AND(C241&lt;&gt;F241,B241&lt;&gt;E241),"RENAMED &amp; RECATEGORIZED", IF(C241&lt;&gt;F241,"RENAMED",IF(B241&lt;&gt;E241,"RECATEGORIZED","---"))))</f>
+        <v>NEW</v>
+      </c>
       <c r="B241" s="3" t="s">
         <v>305</v>
       </c>
@@ -8728,6 +9656,10 @@
       </c>
     </row>
     <row r="242" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A242" s="1" t="str">
+        <f aca="false">IF(F242="---","NEW",IF(AND(C242&lt;&gt;F242,B242&lt;&gt;E242),"RENAMED &amp; RECATEGORIZED", IF(C242&lt;&gt;F242,"RENAMED",IF(B242&lt;&gt;E242,"RECATEGORIZED","---"))))</f>
+        <v>---</v>
+      </c>
       <c r="B242" s="3" t="s">
         <v>305</v>
       </c>
@@ -8745,6 +9677,10 @@
       </c>
     </row>
     <row r="243" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A243" s="1" t="str">
+        <f aca="false">IF(F243="---","NEW",IF(AND(C243&lt;&gt;F243,B243&lt;&gt;E243),"RENAMED &amp; RECATEGORIZED", IF(C243&lt;&gt;F243,"RENAMED",IF(B243&lt;&gt;E243,"RECATEGORIZED","---"))))</f>
+        <v>---</v>
+      </c>
       <c r="B243" s="3" t="s">
         <v>305</v>
       </c>
@@ -8762,6 +9698,10 @@
       </c>
     </row>
     <row r="244" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A244" s="1" t="str">
+        <f aca="false">IF(F244="---","NEW",IF(AND(C244&lt;&gt;F244,B244&lt;&gt;E244),"RENAMED &amp; RECATEGORIZED", IF(C244&lt;&gt;F244,"RENAMED",IF(B244&lt;&gt;E244,"RECATEGORIZED","---"))))</f>
+        <v>---</v>
+      </c>
       <c r="B244" s="3" t="s">
         <v>305</v>
       </c>
@@ -8779,6 +9719,10 @@
       </c>
     </row>
     <row r="245" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A245" s="1" t="str">
+        <f aca="false">IF(F245="---","NEW",IF(AND(C245&lt;&gt;F245,B245&lt;&gt;E245),"RENAMED &amp; RECATEGORIZED", IF(C245&lt;&gt;F245,"RENAMED",IF(B245&lt;&gt;E245,"RECATEGORIZED","---"))))</f>
+        <v>---</v>
+      </c>
       <c r="B245" s="3" t="s">
         <v>305</v>
       </c>
@@ -8796,6 +9740,10 @@
       </c>
     </row>
     <row r="246" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A246" s="1" t="str">
+        <f aca="false">IF(F246="---","NEW",IF(AND(C246&lt;&gt;F246,B246&lt;&gt;E246),"RENAMED &amp; RECATEGORIZED", IF(C246&lt;&gt;F246,"RENAMED",IF(B246&lt;&gt;E246,"RECATEGORIZED","---"))))</f>
+        <v>---</v>
+      </c>
       <c r="B246" s="3" t="s">
         <v>305</v>
       </c>
@@ -8813,6 +9761,10 @@
       </c>
     </row>
     <row r="247" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A247" s="1" t="str">
+        <f aca="false">IF(F247="---","NEW",IF(AND(C247&lt;&gt;F247,B247&lt;&gt;E247),"RENAMED &amp; RECATEGORIZED", IF(C247&lt;&gt;F247,"RENAMED",IF(B247&lt;&gt;E247,"RECATEGORIZED","---"))))</f>
+        <v>---</v>
+      </c>
       <c r="B247" s="3" t="s">
         <v>305</v>
       </c>
@@ -8830,6 +9782,10 @@
       </c>
     </row>
     <row r="248" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A248" s="1" t="str">
+        <f aca="false">IF(F248="---","NEW",IF(AND(C248&lt;&gt;F248,B248&lt;&gt;E248),"RENAMED &amp; RECATEGORIZED", IF(C248&lt;&gt;F248,"RENAMED",IF(B248&lt;&gt;E248,"RECATEGORIZED","---"))))</f>
+        <v>---</v>
+      </c>
       <c r="B248" s="3" t="s">
         <v>305</v>
       </c>
@@ -8847,6 +9803,10 @@
       </c>
     </row>
     <row r="249" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A249" s="1" t="str">
+        <f aca="false">IF(F249="---","NEW",IF(AND(C249&lt;&gt;F249,B249&lt;&gt;E249),"RENAMED &amp; RECATEGORIZED", IF(C249&lt;&gt;F249,"RENAMED",IF(B249&lt;&gt;E249,"RECATEGORIZED","---"))))</f>
+        <v>---</v>
+      </c>
       <c r="B249" s="3" t="s">
         <v>305</v>
       </c>
@@ -8864,6 +9824,10 @@
       </c>
     </row>
     <row r="250" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A250" s="1" t="str">
+        <f aca="false">IF(F250="---","NEW",IF(AND(C250&lt;&gt;F250,B250&lt;&gt;E250),"RENAMED &amp; RECATEGORIZED", IF(C250&lt;&gt;F250,"RENAMED",IF(B250&lt;&gt;E250,"RECATEGORIZED","---"))))</f>
+        <v>---</v>
+      </c>
       <c r="B250" s="3" t="s">
         <v>368</v>
       </c>
@@ -8881,6 +9845,10 @@
       </c>
     </row>
     <row r="251" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A251" s="1" t="str">
+        <f aca="false">IF(F251="---","NEW",IF(AND(C251&lt;&gt;F251,B251&lt;&gt;E251),"RENAMED &amp; RECATEGORIZED", IF(C251&lt;&gt;F251,"RENAMED",IF(B251&lt;&gt;E251,"RECATEGORIZED","---"))))</f>
+        <v>---</v>
+      </c>
       <c r="B251" s="3" t="s">
         <v>368</v>
       </c>
@@ -8898,6 +9866,10 @@
       </c>
     </row>
     <row r="252" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A252" s="1" t="str">
+        <f aca="false">IF(F252="---","NEW",IF(AND(C252&lt;&gt;F252,B252&lt;&gt;E252),"RENAMED &amp; RECATEGORIZED", IF(C252&lt;&gt;F252,"RENAMED",IF(B252&lt;&gt;E252,"RECATEGORIZED","---"))))</f>
+        <v>---</v>
+      </c>
       <c r="B252" s="3" t="s">
         <v>368</v>
       </c>
@@ -8915,6 +9887,10 @@
       </c>
     </row>
     <row r="253" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A253" s="1" t="str">
+        <f aca="false">IF(F253="---","NEW",IF(AND(C253&lt;&gt;F253,B253&lt;&gt;E253),"RENAMED &amp; RECATEGORIZED", IF(C253&lt;&gt;F253,"RENAMED",IF(B253&lt;&gt;E253,"RECATEGORIZED","---"))))</f>
+        <v>---</v>
+      </c>
       <c r="B253" s="3" t="s">
         <v>368</v>
       </c>
@@ -8932,6 +9908,10 @@
       </c>
     </row>
     <row r="254" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A254" s="1" t="str">
+        <f aca="false">IF(F254="---","NEW",IF(AND(C254&lt;&gt;F254,B254&lt;&gt;E254),"RENAMED &amp; RECATEGORIZED", IF(C254&lt;&gt;F254,"RENAMED",IF(B254&lt;&gt;E254,"RECATEGORIZED","---"))))</f>
+        <v>---</v>
+      </c>
       <c r="B254" s="3" t="s">
         <v>368</v>
       </c>
@@ -8949,6 +9929,10 @@
       </c>
     </row>
     <row r="255" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A255" s="1" t="str">
+        <f aca="false">IF(F255="---","NEW",IF(AND(C255&lt;&gt;F255,B255&lt;&gt;E255),"RENAMED &amp; RECATEGORIZED", IF(C255&lt;&gt;F255,"RENAMED",IF(B255&lt;&gt;E255,"RECATEGORIZED","---"))))</f>
+        <v>---</v>
+      </c>
       <c r="B255" s="3" t="s">
         <v>368</v>
       </c>
@@ -8966,6 +9950,10 @@
       </c>
     </row>
     <row r="256" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A256" s="1" t="str">
+        <f aca="false">IF(F256="---","NEW",IF(AND(C256&lt;&gt;F256,B256&lt;&gt;E256),"RENAMED &amp; RECATEGORIZED", IF(C256&lt;&gt;F256,"RENAMED",IF(B256&lt;&gt;E256,"RECATEGORIZED","---"))))</f>
+        <v>---</v>
+      </c>
       <c r="B256" s="3" t="s">
         <v>368</v>
       </c>
@@ -8983,6 +9971,10 @@
       </c>
     </row>
     <row r="257" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A257" s="1" t="str">
+        <f aca="false">IF(F257="---","NEW",IF(AND(C257&lt;&gt;F257,B257&lt;&gt;E257),"RENAMED &amp; RECATEGORIZED", IF(C257&lt;&gt;F257,"RENAMED",IF(B257&lt;&gt;E257,"RECATEGORIZED","---"))))</f>
+        <v>---</v>
+      </c>
       <c r="B257" s="3" t="s">
         <v>368</v>
       </c>
@@ -9000,6 +9992,10 @@
       </c>
     </row>
     <row r="258" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A258" s="1" t="str">
+        <f aca="false">IF(F258="---","NEW",IF(AND(C258&lt;&gt;F258,B258&lt;&gt;E258),"RENAMED &amp; RECATEGORIZED", IF(C258&lt;&gt;F258,"RENAMED",IF(B258&lt;&gt;E258,"RECATEGORIZED","---"))))</f>
+        <v>---</v>
+      </c>
       <c r="B258" s="3" t="s">
         <v>368</v>
       </c>
@@ -9017,6 +10013,10 @@
       </c>
     </row>
     <row r="259" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A259" s="1" t="str">
+        <f aca="false">IF(F259="---","NEW",IF(AND(C259&lt;&gt;F259,B259&lt;&gt;E259),"RENAMED &amp; RECATEGORIZED", IF(C259&lt;&gt;F259,"RENAMED",IF(B259&lt;&gt;E259,"RECATEGORIZED","---"))))</f>
+        <v>---</v>
+      </c>
       <c r="B259" s="3" t="s">
         <v>368</v>
       </c>
@@ -9034,6 +10034,10 @@
       </c>
     </row>
     <row r="260" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A260" s="1" t="str">
+        <f aca="false">IF(F260="---","NEW",IF(AND(C260&lt;&gt;F260,B260&lt;&gt;E260),"RENAMED &amp; RECATEGORIZED", IF(C260&lt;&gt;F260,"RENAMED",IF(B260&lt;&gt;E260,"RECATEGORIZED","---"))))</f>
+        <v>---</v>
+      </c>
       <c r="B260" s="3" t="s">
         <v>368</v>
       </c>
@@ -9051,6 +10055,10 @@
       </c>
     </row>
     <row r="261" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A261" s="1" t="str">
+        <f aca="false">IF(F261="---","NEW",IF(AND(C261&lt;&gt;F261,B261&lt;&gt;E261),"RENAMED &amp; RECATEGORIZED", IF(C261&lt;&gt;F261,"RENAMED",IF(B261&lt;&gt;E261,"RECATEGORIZED","---"))))</f>
+        <v>---</v>
+      </c>
       <c r="B261" s="3" t="s">
         <v>368</v>
       </c>
@@ -9068,6 +10076,10 @@
       </c>
     </row>
     <row r="262" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A262" s="1" t="str">
+        <f aca="false">IF(F262="---","NEW",IF(AND(C262&lt;&gt;F262,B262&lt;&gt;E262),"RENAMED &amp; RECATEGORIZED", IF(C262&lt;&gt;F262,"RENAMED",IF(B262&lt;&gt;E262,"RECATEGORIZED","---"))))</f>
+        <v>---</v>
+      </c>
       <c r="B262" s="3" t="s">
         <v>368</v>
       </c>
@@ -9085,6 +10097,10 @@
       </c>
     </row>
     <row r="263" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A263" s="1" t="str">
+        <f aca="false">IF(F263="---","NEW",IF(AND(C263&lt;&gt;F263,B263&lt;&gt;E263),"RENAMED &amp; RECATEGORIZED", IF(C263&lt;&gt;F263,"RENAMED",IF(B263&lt;&gt;E263,"RECATEGORIZED","---"))))</f>
+        <v>---</v>
+      </c>
       <c r="B263" s="3" t="s">
         <v>368</v>
       </c>
@@ -9102,6 +10118,10 @@
       </c>
     </row>
     <row r="264" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A264" s="1" t="str">
+        <f aca="false">IF(F264="---","NEW",IF(AND(C264&lt;&gt;F264,B264&lt;&gt;E264),"RENAMED &amp; RECATEGORIZED", IF(C264&lt;&gt;F264,"RENAMED",IF(B264&lt;&gt;E264,"RECATEGORIZED","---"))))</f>
+        <v>---</v>
+      </c>
       <c r="B264" s="3" t="s">
         <v>394</v>
       </c>
@@ -9119,6 +10139,10 @@
       </c>
     </row>
     <row r="265" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A265" s="1" t="str">
+        <f aca="false">IF(F265="---","NEW",IF(AND(C265&lt;&gt;F265,B265&lt;&gt;E265),"RENAMED &amp; RECATEGORIZED", IF(C265&lt;&gt;F265,"RENAMED",IF(B265&lt;&gt;E265,"RECATEGORIZED","---"))))</f>
+        <v>---</v>
+      </c>
       <c r="B265" s="3" t="s">
         <v>394</v>
       </c>
@@ -9136,6 +10160,10 @@
       </c>
     </row>
     <row r="266" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A266" s="1" t="str">
+        <f aca="false">IF(F266="---","NEW",IF(AND(C266&lt;&gt;F266,B266&lt;&gt;E266),"RENAMED &amp; RECATEGORIZED", IF(C266&lt;&gt;F266,"RENAMED",IF(B266&lt;&gt;E266,"RECATEGORIZED","---"))))</f>
+        <v>---</v>
+      </c>
       <c r="B266" s="3" t="s">
         <v>394</v>
       </c>
@@ -9153,6 +10181,10 @@
       </c>
     </row>
     <row r="267" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A267" s="1" t="str">
+        <f aca="false">IF(F267="---","NEW",IF(AND(C267&lt;&gt;F267,B267&lt;&gt;E267),"RENAMED &amp; RECATEGORIZED", IF(C267&lt;&gt;F267,"RENAMED",IF(B267&lt;&gt;E267,"RECATEGORIZED","---"))))</f>
+        <v>---</v>
+      </c>
       <c r="B267" s="3" t="s">
         <v>399</v>
       </c>
@@ -9170,6 +10202,10 @@
       </c>
     </row>
     <row r="268" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A268" s="1" t="str">
+        <f aca="false">IF(F268="---","NEW",IF(AND(C268&lt;&gt;F268,B268&lt;&gt;E268),"RENAMED &amp; RECATEGORIZED", IF(C268&lt;&gt;F268,"RENAMED",IF(B268&lt;&gt;E268,"RECATEGORIZED","---"))))</f>
+        <v>---</v>
+      </c>
       <c r="B268" s="3" t="s">
         <v>399</v>
       </c>
@@ -9187,6 +10223,10 @@
       </c>
     </row>
     <row r="269" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A269" s="1" t="str">
+        <f aca="false">IF(F269="---","NEW",IF(AND(C269&lt;&gt;F269,B269&lt;&gt;E269),"RENAMED &amp; RECATEGORIZED", IF(C269&lt;&gt;F269,"RENAMED",IF(B269&lt;&gt;E269,"RECATEGORIZED","---"))))</f>
+        <v>---</v>
+      </c>
       <c r="B269" s="3" t="s">
         <v>399</v>
       </c>
@@ -9204,6 +10244,10 @@
       </c>
     </row>
     <row r="270" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A270" s="1" t="str">
+        <f aca="false">IF(F270="---","NEW",IF(AND(C270&lt;&gt;F270,B270&lt;&gt;E270),"RENAMED &amp; RECATEGORIZED", IF(C270&lt;&gt;F270,"RENAMED",IF(B270&lt;&gt;E270,"RECATEGORIZED","---"))))</f>
+        <v>---</v>
+      </c>
       <c r="B270" s="3" t="s">
         <v>399</v>
       </c>
@@ -9221,6 +10265,10 @@
       </c>
     </row>
     <row r="271" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A271" s="1" t="str">
+        <f aca="false">IF(F271="---","NEW",IF(AND(C271&lt;&gt;F271,B271&lt;&gt;E271),"RENAMED &amp; RECATEGORIZED", IF(C271&lt;&gt;F271,"RENAMED",IF(B271&lt;&gt;E271,"RECATEGORIZED","---"))))</f>
+        <v>---</v>
+      </c>
       <c r="B271" s="3" t="s">
         <v>399</v>
       </c>
@@ -9238,6 +10286,10 @@
       </c>
     </row>
     <row r="272" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A272" s="1" t="str">
+        <f aca="false">IF(F272="---","NEW",IF(AND(C272&lt;&gt;F272,B272&lt;&gt;E272),"RENAMED &amp; RECATEGORIZED", IF(C272&lt;&gt;F272,"RENAMED",IF(B272&lt;&gt;E272,"RECATEGORIZED","---"))))</f>
+        <v>---</v>
+      </c>
       <c r="B272" s="3" t="s">
         <v>399</v>
       </c>
@@ -9255,6 +10307,10 @@
       </c>
     </row>
     <row r="273" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A273" s="1" t="str">
+        <f aca="false">IF(F273="---","NEW",IF(AND(C273&lt;&gt;F273,B273&lt;&gt;E273),"RENAMED &amp; RECATEGORIZED", IF(C273&lt;&gt;F273,"RENAMED",IF(B273&lt;&gt;E273,"RECATEGORIZED","---"))))</f>
+        <v>---</v>
+      </c>
       <c r="B273" s="3" t="s">
         <v>399</v>
       </c>
@@ -9272,6 +10328,10 @@
       </c>
     </row>
     <row r="274" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A274" s="1" t="str">
+        <f aca="false">IF(F274="---","NEW",IF(AND(C274&lt;&gt;F274,B274&lt;&gt;E274),"RENAMED &amp; RECATEGORIZED", IF(C274&lt;&gt;F274,"RENAMED",IF(B274&lt;&gt;E274,"RECATEGORIZED","---"))))</f>
+        <v>---</v>
+      </c>
       <c r="B274" s="3" t="s">
         <v>399</v>
       </c>
@@ -9289,6 +10349,10 @@
       </c>
     </row>
     <row r="275" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A275" s="1" t="str">
+        <f aca="false">IF(F275="---","NEW",IF(AND(C275&lt;&gt;F275,B275&lt;&gt;E275),"RENAMED &amp; RECATEGORIZED", IF(C275&lt;&gt;F275,"RENAMED",IF(B275&lt;&gt;E275,"RECATEGORIZED","---"))))</f>
+        <v>---</v>
+      </c>
       <c r="B275" s="3" t="s">
         <v>399</v>
       </c>
@@ -9306,6 +10370,10 @@
       </c>
     </row>
     <row r="276" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A276" s="1" t="str">
+        <f aca="false">IF(F276="---","NEW",IF(AND(C276&lt;&gt;F276,B276&lt;&gt;E276),"RENAMED &amp; RECATEGORIZED", IF(C276&lt;&gt;F276,"RENAMED",IF(B276&lt;&gt;E276,"RECATEGORIZED","---"))))</f>
+        <v>---</v>
+      </c>
       <c r="B276" s="3" t="s">
         <v>399</v>
       </c>
@@ -9323,6 +10391,10 @@
       </c>
     </row>
     <row r="277" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A277" s="1" t="str">
+        <f aca="false">IF(F277="---","NEW",IF(AND(C277&lt;&gt;F277,B277&lt;&gt;E277),"RENAMED &amp; RECATEGORIZED", IF(C277&lt;&gt;F277,"RENAMED",IF(B277&lt;&gt;E277,"RECATEGORIZED","---"))))</f>
+        <v>---</v>
+      </c>
       <c r="B277" s="3" t="s">
         <v>399</v>
       </c>
@@ -9340,6 +10412,10 @@
       </c>
     </row>
     <row r="278" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A278" s="1" t="str">
+        <f aca="false">IF(F278="---","NEW",IF(AND(C278&lt;&gt;F278,B278&lt;&gt;E278),"RENAMED &amp; RECATEGORIZED", IF(C278&lt;&gt;F278,"RENAMED",IF(B278&lt;&gt;E278,"RECATEGORIZED","---"))))</f>
+        <v>---</v>
+      </c>
       <c r="B278" s="3" t="s">
         <v>399</v>
       </c>
@@ -9357,6 +10433,10 @@
       </c>
     </row>
     <row r="279" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A279" s="1" t="str">
+        <f aca="false">IF(F279="---","NEW",IF(AND(C279&lt;&gt;F279,B279&lt;&gt;E279),"RENAMED &amp; RECATEGORIZED", IF(C279&lt;&gt;F279,"RENAMED",IF(B279&lt;&gt;E279,"RECATEGORIZED","---"))))</f>
+        <v>---</v>
+      </c>
       <c r="B279" s="3" t="s">
         <v>399</v>
       </c>
@@ -9374,6 +10454,10 @@
       </c>
     </row>
     <row r="280" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A280" s="1" t="str">
+        <f aca="false">IF(F280="---","NEW",IF(AND(C280&lt;&gt;F280,B280&lt;&gt;E280),"RENAMED &amp; RECATEGORIZED", IF(C280&lt;&gt;F280,"RENAMED",IF(B280&lt;&gt;E280,"RECATEGORIZED","---"))))</f>
+        <v>---</v>
+      </c>
       <c r="B280" s="3" t="s">
         <v>399</v>
       </c>
@@ -9391,6 +10475,10 @@
       </c>
     </row>
     <row r="281" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A281" s="1" t="str">
+        <f aca="false">IF(F281="---","NEW",IF(AND(C281&lt;&gt;F281,B281&lt;&gt;E281),"RENAMED &amp; RECATEGORIZED", IF(C281&lt;&gt;F281,"RENAMED",IF(B281&lt;&gt;E281,"RECATEGORIZED","---"))))</f>
+        <v>---</v>
+      </c>
       <c r="B281" s="3" t="s">
         <v>399</v>
       </c>
@@ -9408,6 +10496,10 @@
       </c>
     </row>
     <row r="282" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A282" s="1" t="str">
+        <f aca="false">IF(F282="---","NEW",IF(AND(C282&lt;&gt;F282,B282&lt;&gt;E282),"RENAMED &amp; RECATEGORIZED", IF(C282&lt;&gt;F282,"RENAMED",IF(B282&lt;&gt;E282,"RECATEGORIZED","---"))))</f>
+        <v>---</v>
+      </c>
       <c r="B282" s="3" t="s">
         <v>399</v>
       </c>
@@ -9425,6 +10517,10 @@
       </c>
     </row>
     <row r="283" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A283" s="1" t="str">
+        <f aca="false">IF(F283="---","NEW",IF(AND(C283&lt;&gt;F283,B283&lt;&gt;E283),"RENAMED &amp; RECATEGORIZED", IF(C283&lt;&gt;F283,"RENAMED",IF(B283&lt;&gt;E283,"RECATEGORIZED","---"))))</f>
+        <v>---</v>
+      </c>
       <c r="B283" s="3" t="s">
         <v>399</v>
       </c>
@@ -9442,6 +10538,10 @@
       </c>
     </row>
     <row r="284" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A284" s="1" t="str">
+        <f aca="false">IF(F284="---","NEW",IF(AND(C284&lt;&gt;F284,B284&lt;&gt;E284),"RENAMED &amp; RECATEGORIZED", IF(C284&lt;&gt;F284,"RENAMED",IF(B284&lt;&gt;E284,"RECATEGORIZED","---"))))</f>
+        <v>---</v>
+      </c>
       <c r="B284" s="3" t="s">
         <v>399</v>
       </c>
@@ -9459,6 +10559,10 @@
       </c>
     </row>
     <row r="285" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A285" s="1" t="str">
+        <f aca="false">IF(F285="---","NEW",IF(AND(C285&lt;&gt;F285,B285&lt;&gt;E285),"RENAMED &amp; RECATEGORIZED", IF(C285&lt;&gt;F285,"RENAMED",IF(B285&lt;&gt;E285,"RECATEGORIZED","---"))))</f>
+        <v>---</v>
+      </c>
       <c r="B285" s="3" t="s">
         <v>399</v>
       </c>
@@ -9476,6 +10580,10 @@
       </c>
     </row>
     <row r="286" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A286" s="1" t="str">
+        <f aca="false">IF(F286="---","NEW",IF(AND(C286&lt;&gt;F286,B286&lt;&gt;E286),"RENAMED &amp; RECATEGORIZED", IF(C286&lt;&gt;F286,"RENAMED",IF(B286&lt;&gt;E286,"RECATEGORIZED","---"))))</f>
+        <v>---</v>
+      </c>
       <c r="B286" s="3" t="s">
         <v>399</v>
       </c>
@@ -9493,6 +10601,10 @@
       </c>
     </row>
     <row r="287" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A287" s="1" t="str">
+        <f aca="false">IF(F287="---","NEW",IF(AND(C287&lt;&gt;F287,B287&lt;&gt;E287),"RENAMED &amp; RECATEGORIZED", IF(C287&lt;&gt;F287,"RENAMED",IF(B287&lt;&gt;E287,"RECATEGORIZED","---"))))</f>
+        <v>NEW</v>
+      </c>
       <c r="B287" s="3" t="s">
         <v>399</v>
       </c>
@@ -9510,6 +10622,10 @@
       </c>
     </row>
     <row r="288" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A288" s="1" t="str">
+        <f aca="false">IF(F288="---","NEW",IF(AND(C288&lt;&gt;F288,B288&lt;&gt;E288),"RENAMED &amp; RECATEGORIZED", IF(C288&lt;&gt;F288,"RENAMED",IF(B288&lt;&gt;E288,"RECATEGORIZED","---"))))</f>
+        <v>---</v>
+      </c>
       <c r="B288" s="3" t="s">
         <v>399</v>
       </c>
@@ -9527,6 +10643,10 @@
       </c>
     </row>
     <row r="289" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A289" s="1" t="str">
+        <f aca="false">IF(F289="---","NEW",IF(AND(C289&lt;&gt;F289,B289&lt;&gt;E289),"RENAMED &amp; RECATEGORIZED", IF(C289&lt;&gt;F289,"RENAMED",IF(B289&lt;&gt;E289,"RECATEGORIZED","---"))))</f>
+        <v>---</v>
+      </c>
       <c r="B289" s="3" t="s">
         <v>399</v>
       </c>
@@ -9544,6 +10664,10 @@
       </c>
     </row>
     <row r="290" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A290" s="1" t="str">
+        <f aca="false">IF(F290="---","NEW",IF(AND(C290&lt;&gt;F290,B290&lt;&gt;E290),"RENAMED &amp; RECATEGORIZED", IF(C290&lt;&gt;F290,"RENAMED",IF(B290&lt;&gt;E290,"RECATEGORIZED","---"))))</f>
+        <v>---</v>
+      </c>
       <c r="B290" s="3" t="s">
         <v>399</v>
       </c>
@@ -9561,6 +10685,10 @@
       </c>
     </row>
     <row r="291" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A291" s="1" t="str">
+        <f aca="false">IF(F291="---","NEW",IF(AND(C291&lt;&gt;F291,B291&lt;&gt;E291),"RENAMED &amp; RECATEGORIZED", IF(C291&lt;&gt;F291,"RENAMED",IF(B291&lt;&gt;E291,"RECATEGORIZED","---"))))</f>
+        <v>---</v>
+      </c>
       <c r="B291" s="3" t="s">
         <v>399</v>
       </c>
@@ -9578,6 +10706,10 @@
       </c>
     </row>
     <row r="292" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A292" s="1" t="str">
+        <f aca="false">IF(F292="---","NEW",IF(AND(C292&lt;&gt;F292,B292&lt;&gt;E292),"RENAMED &amp; RECATEGORIZED", IF(C292&lt;&gt;F292,"RENAMED",IF(B292&lt;&gt;E292,"RECATEGORIZED","---"))))</f>
+        <v>---</v>
+      </c>
       <c r="B292" s="3" t="s">
         <v>399</v>
       </c>
@@ -9595,6 +10727,10 @@
       </c>
     </row>
     <row r="293" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A293" s="1" t="str">
+        <f aca="false">IF(F293="---","NEW",IF(AND(C293&lt;&gt;F293,B293&lt;&gt;E293),"RENAMED &amp; RECATEGORIZED", IF(C293&lt;&gt;F293,"RENAMED",IF(B293&lt;&gt;E293,"RECATEGORIZED","---"))))</f>
+        <v>---</v>
+      </c>
       <c r="B293" s="3" t="s">
         <v>399</v>
       </c>
@@ -9612,6 +10748,10 @@
       </c>
     </row>
     <row r="294" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A294" s="1" t="str">
+        <f aca="false">IF(F294="---","NEW",IF(AND(C294&lt;&gt;F294,B294&lt;&gt;E294),"RENAMED &amp; RECATEGORIZED", IF(C294&lt;&gt;F294,"RENAMED",IF(B294&lt;&gt;E294,"RECATEGORIZED","---"))))</f>
+        <v>---</v>
+      </c>
       <c r="B294" s="3" t="s">
         <v>399</v>
       </c>
@@ -9629,6 +10769,10 @@
       </c>
     </row>
     <row r="295" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A295" s="1" t="str">
+        <f aca="false">IF(F295="---","NEW",IF(AND(C295&lt;&gt;F295,B295&lt;&gt;E295),"RENAMED &amp; RECATEGORIZED", IF(C295&lt;&gt;F295,"RENAMED",IF(B295&lt;&gt;E295,"RECATEGORIZED","---"))))</f>
+        <v>---</v>
+      </c>
       <c r="B295" s="3" t="s">
         <v>399</v>
       </c>
@@ -9646,6 +10790,10 @@
       </c>
     </row>
     <row r="296" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A296" s="1" t="str">
+        <f aca="false">IF(F296="---","NEW",IF(AND(C296&lt;&gt;F296,B296&lt;&gt;E296),"RENAMED &amp; RECATEGORIZED", IF(C296&lt;&gt;F296,"RENAMED",IF(B296&lt;&gt;E296,"RECATEGORIZED","---"))))</f>
+        <v>---</v>
+      </c>
       <c r="B296" s="3" t="s">
         <v>399</v>
       </c>
@@ -9663,6 +10811,10 @@
       </c>
     </row>
     <row r="297" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A297" s="1" t="str">
+        <f aca="false">IF(F297="---","NEW",IF(AND(C297&lt;&gt;F297,B297&lt;&gt;E297),"RENAMED &amp; RECATEGORIZED", IF(C297&lt;&gt;F297,"RENAMED",IF(B297&lt;&gt;E297,"RECATEGORIZED","---"))))</f>
+        <v>---</v>
+      </c>
       <c r="B297" s="3" t="s">
         <v>399</v>
       </c>
@@ -9680,6 +10832,10 @@
       </c>
     </row>
     <row r="298" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A298" s="1" t="str">
+        <f aca="false">IF(F298="---","NEW",IF(AND(C298&lt;&gt;F298,B298&lt;&gt;E298),"RENAMED &amp; RECATEGORIZED", IF(C298&lt;&gt;F298,"RENAMED",IF(B298&lt;&gt;E298,"RECATEGORIZED","---"))))</f>
+        <v>---</v>
+      </c>
       <c r="B298" s="3" t="s">
         <v>399</v>
       </c>
@@ -9697,6 +10853,10 @@
       </c>
     </row>
     <row r="299" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A299" s="1" t="str">
+        <f aca="false">IF(F299="---","NEW",IF(AND(C299&lt;&gt;F299,B299&lt;&gt;E299),"RENAMED &amp; RECATEGORIZED", IF(C299&lt;&gt;F299,"RENAMED",IF(B299&lt;&gt;E299,"RECATEGORIZED","---"))))</f>
+        <v>---</v>
+      </c>
       <c r="B299" s="3" t="s">
         <v>399</v>
       </c>
@@ -9714,6 +10874,10 @@
       </c>
     </row>
     <row r="300" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A300" s="1" t="str">
+        <f aca="false">IF(F300="---","NEW",IF(AND(C300&lt;&gt;F300,B300&lt;&gt;E300),"RENAMED &amp; RECATEGORIZED", IF(C300&lt;&gt;F300,"RENAMED",IF(B300&lt;&gt;E300,"RECATEGORIZED","---"))))</f>
+        <v>---</v>
+      </c>
       <c r="B300" s="3" t="s">
         <v>399</v>
       </c>
@@ -9731,6 +10895,10 @@
       </c>
     </row>
     <row r="301" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A301" s="1" t="str">
+        <f aca="false">IF(F301="---","NEW",IF(AND(C301&lt;&gt;F301,B301&lt;&gt;E301),"RENAMED &amp; RECATEGORIZED", IF(C301&lt;&gt;F301,"RENAMED",IF(B301&lt;&gt;E301,"RECATEGORIZED","---"))))</f>
+        <v>---</v>
+      </c>
       <c r="B301" s="3" t="s">
         <v>399</v>
       </c>
@@ -9748,6 +10916,10 @@
       </c>
     </row>
     <row r="302" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A302" s="1" t="str">
+        <f aca="false">IF(F302="---","NEW",IF(AND(C302&lt;&gt;F302,B302&lt;&gt;E302),"RENAMED &amp; RECATEGORIZED", IF(C302&lt;&gt;F302,"RENAMED",IF(B302&lt;&gt;E302,"RECATEGORIZED","---"))))</f>
+        <v>---</v>
+      </c>
       <c r="B302" s="3" t="s">
         <v>399</v>
       </c>
@@ -9765,6 +10937,10 @@
       </c>
     </row>
     <row r="303" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A303" s="1" t="str">
+        <f aca="false">IF(F303="---","NEW",IF(AND(C303&lt;&gt;F303,B303&lt;&gt;E303),"RENAMED &amp; RECATEGORIZED", IF(C303&lt;&gt;F303,"RENAMED",IF(B303&lt;&gt;E303,"RECATEGORIZED","---"))))</f>
+        <v>---</v>
+      </c>
       <c r="B303" s="3" t="s">
         <v>399</v>
       </c>
@@ -9782,6 +10958,10 @@
       </c>
     </row>
     <row r="304" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A304" s="1" t="str">
+        <f aca="false">IF(F304="---","NEW",IF(AND(C304&lt;&gt;F304,B304&lt;&gt;E304),"RENAMED &amp; RECATEGORIZED", IF(C304&lt;&gt;F304,"RENAMED",IF(B304&lt;&gt;E304,"RECATEGORIZED","---"))))</f>
+        <v>---</v>
+      </c>
       <c r="B304" s="3" t="s">
         <v>399</v>
       </c>
@@ -9799,6 +10979,10 @@
       </c>
     </row>
     <row r="305" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A305" s="1" t="str">
+        <f aca="false">IF(F305="---","NEW",IF(AND(C305&lt;&gt;F305,B305&lt;&gt;E305),"RENAMED &amp; RECATEGORIZED", IF(C305&lt;&gt;F305,"RENAMED",IF(B305&lt;&gt;E305,"RECATEGORIZED","---"))))</f>
+        <v>---</v>
+      </c>
       <c r="B305" s="3" t="s">
         <v>399</v>
       </c>
@@ -9816,6 +11000,10 @@
       </c>
     </row>
     <row r="306" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A306" s="1" t="str">
+        <f aca="false">IF(F306="---","NEW",IF(AND(C306&lt;&gt;F306,B306&lt;&gt;E306),"RENAMED &amp; RECATEGORIZED", IF(C306&lt;&gt;F306,"RENAMED",IF(B306&lt;&gt;E306,"RECATEGORIZED","---"))))</f>
+        <v>---</v>
+      </c>
       <c r="B306" s="3" t="s">
         <v>399</v>
       </c>
@@ -9833,6 +11021,10 @@
       </c>
     </row>
     <row r="307" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A307" s="1" t="str">
+        <f aca="false">IF(F307="---","NEW",IF(AND(C307&lt;&gt;F307,B307&lt;&gt;E307),"RENAMED &amp; RECATEGORIZED", IF(C307&lt;&gt;F307,"RENAMED",IF(B307&lt;&gt;E307,"RECATEGORIZED","---"))))</f>
+        <v>---</v>
+      </c>
       <c r="B307" s="3" t="s">
         <v>399</v>
       </c>
@@ -9850,6 +11042,10 @@
       </c>
     </row>
     <row r="308" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A308" s="1" t="str">
+        <f aca="false">IF(F308="---","NEW",IF(AND(C308&lt;&gt;F308,B308&lt;&gt;E308),"RENAMED &amp; RECATEGORIZED", IF(C308&lt;&gt;F308,"RENAMED",IF(B308&lt;&gt;E308,"RECATEGORIZED","---"))))</f>
+        <v>---</v>
+      </c>
       <c r="B308" s="3" t="s">
         <v>399</v>
       </c>
@@ -9867,6 +11063,10 @@
       </c>
     </row>
     <row r="309" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A309" s="1" t="str">
+        <f aca="false">IF(F309="---","NEW",IF(AND(C309&lt;&gt;F309,B309&lt;&gt;E309),"RENAMED &amp; RECATEGORIZED", IF(C309&lt;&gt;F309,"RENAMED",IF(B309&lt;&gt;E309,"RECATEGORIZED","---"))))</f>
+        <v>---</v>
+      </c>
       <c r="B309" s="3" t="s">
         <v>399</v>
       </c>
@@ -9884,6 +11084,10 @@
       </c>
     </row>
     <row r="310" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A310" s="1" t="str">
+        <f aca="false">IF(F310="---","NEW",IF(AND(C310&lt;&gt;F310,B310&lt;&gt;E310),"RENAMED &amp; RECATEGORIZED", IF(C310&lt;&gt;F310,"RENAMED",IF(B310&lt;&gt;E310,"RECATEGORIZED","---"))))</f>
+        <v>---</v>
+      </c>
       <c r="B310" s="3" t="s">
         <v>399</v>
       </c>
@@ -9901,6 +11105,10 @@
       </c>
     </row>
     <row r="311" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A311" s="1" t="str">
+        <f aca="false">IF(F311="---","NEW",IF(AND(C311&lt;&gt;F311,B311&lt;&gt;E311),"RENAMED &amp; RECATEGORIZED", IF(C311&lt;&gt;F311,"RENAMED",IF(B311&lt;&gt;E311,"RECATEGORIZED","---"))))</f>
+        <v>---</v>
+      </c>
       <c r="B311" s="3" t="s">
         <v>399</v>
       </c>
@@ -9918,6 +11126,10 @@
       </c>
     </row>
     <row r="312" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A312" s="1" t="str">
+        <f aca="false">IF(F312="---","NEW",IF(AND(C312&lt;&gt;F312,B312&lt;&gt;E312),"RENAMED &amp; RECATEGORIZED", IF(C312&lt;&gt;F312,"RENAMED",IF(B312&lt;&gt;E312,"RECATEGORIZED","---"))))</f>
+        <v>---</v>
+      </c>
       <c r="B312" s="3" t="s">
         <v>399</v>
       </c>
@@ -9935,6 +11147,10 @@
       </c>
     </row>
     <row r="313" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A313" s="1" t="str">
+        <f aca="false">IF(F313="---","NEW",IF(AND(C313&lt;&gt;F313,B313&lt;&gt;E313),"RENAMED &amp; RECATEGORIZED", IF(C313&lt;&gt;F313,"RENAMED",IF(B313&lt;&gt;E313,"RECATEGORIZED","---"))))</f>
+        <v>---</v>
+      </c>
       <c r="B313" s="3" t="s">
         <v>399</v>
       </c>
@@ -9952,6 +11168,10 @@
       </c>
     </row>
     <row r="314" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A314" s="1" t="str">
+        <f aca="false">IF(F314="---","NEW",IF(AND(C314&lt;&gt;F314,B314&lt;&gt;E314),"RENAMED &amp; RECATEGORIZED", IF(C314&lt;&gt;F314,"RENAMED",IF(B314&lt;&gt;E314,"RECATEGORIZED","---"))))</f>
+        <v>---</v>
+      </c>
       <c r="B314" s="3" t="s">
         <v>399</v>
       </c>
@@ -9969,6 +11189,10 @@
       </c>
     </row>
     <row r="315" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A315" s="1" t="str">
+        <f aca="false">IF(F315="---","NEW",IF(AND(C315&lt;&gt;F315,B315&lt;&gt;E315),"RENAMED &amp; RECATEGORIZED", IF(C315&lt;&gt;F315,"RENAMED",IF(B315&lt;&gt;E315,"RECATEGORIZED","---"))))</f>
+        <v>---</v>
+      </c>
       <c r="B315" s="3" t="s">
         <v>399</v>
       </c>
@@ -9986,6 +11210,10 @@
       </c>
     </row>
     <row r="316" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A316" s="1" t="str">
+        <f aca="false">IF(F316="---","NEW",IF(AND(C316&lt;&gt;F316,B316&lt;&gt;E316),"RENAMED &amp; RECATEGORIZED", IF(C316&lt;&gt;F316,"RENAMED",IF(B316&lt;&gt;E316,"RECATEGORIZED","---"))))</f>
+        <v>---</v>
+      </c>
       <c r="B316" s="3" t="s">
         <v>399</v>
       </c>
@@ -10003,6 +11231,10 @@
       </c>
     </row>
     <row r="317" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A317" s="1" t="str">
+        <f aca="false">IF(F317="---","NEW",IF(AND(C317&lt;&gt;F317,B317&lt;&gt;E317),"RENAMED &amp; RECATEGORIZED", IF(C317&lt;&gt;F317,"RENAMED",IF(B317&lt;&gt;E317,"RECATEGORIZED","---"))))</f>
+        <v>---</v>
+      </c>
       <c r="B317" s="3" t="s">
         <v>399</v>
       </c>
@@ -10020,6 +11252,10 @@
       </c>
     </row>
     <row r="318" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A318" s="1" t="str">
+        <f aca="false">IF(F318="---","NEW",IF(AND(C318&lt;&gt;F318,B318&lt;&gt;E318),"RENAMED &amp; RECATEGORIZED", IF(C318&lt;&gt;F318,"RENAMED",IF(B318&lt;&gt;E318,"RECATEGORIZED","---"))))</f>
+        <v>---</v>
+      </c>
       <c r="B318" s="3" t="s">
         <v>399</v>
       </c>
@@ -10037,6 +11273,10 @@
       </c>
     </row>
     <row r="319" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A319" s="1" t="str">
+        <f aca="false">IF(F319="---","NEW",IF(AND(C319&lt;&gt;F319,B319&lt;&gt;E319),"RENAMED &amp; RECATEGORIZED", IF(C319&lt;&gt;F319,"RENAMED",IF(B319&lt;&gt;E319,"RECATEGORIZED","---"))))</f>
+        <v>---</v>
+      </c>
       <c r="B319" s="3" t="s">
         <v>399</v>
       </c>
@@ -10054,6 +11294,10 @@
       </c>
     </row>
     <row r="320" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A320" s="1" t="str">
+        <f aca="false">IF(F320="---","NEW",IF(AND(C320&lt;&gt;F320,B320&lt;&gt;E320),"RENAMED &amp; RECATEGORIZED", IF(C320&lt;&gt;F320,"RENAMED",IF(B320&lt;&gt;E320,"RECATEGORIZED","---"))))</f>
+        <v>---</v>
+      </c>
       <c r="B320" s="3" t="s">
         <v>399</v>
       </c>
@@ -10071,6 +11315,10 @@
       </c>
     </row>
     <row r="321" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A321" s="1" t="str">
+        <f aca="false">IF(F321="---","NEW",IF(AND(C321&lt;&gt;F321,B321&lt;&gt;E321),"RENAMED &amp; RECATEGORIZED", IF(C321&lt;&gt;F321,"RENAMED",IF(B321&lt;&gt;E321,"RECATEGORIZED","---"))))</f>
+        <v>---</v>
+      </c>
       <c r="B321" s="3" t="s">
         <v>399</v>
       </c>
@@ -10088,6 +11336,10 @@
       </c>
     </row>
     <row r="322" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A322" s="1" t="str">
+        <f aca="false">IF(F322="---","NEW",IF(AND(C322&lt;&gt;F322,B322&lt;&gt;E322),"RENAMED &amp; RECATEGORIZED", IF(C322&lt;&gt;F322,"RENAMED",IF(B322&lt;&gt;E322,"RECATEGORIZED","---"))))</f>
+        <v>---</v>
+      </c>
       <c r="B322" s="3" t="s">
         <v>399</v>
       </c>
@@ -10105,6 +11357,10 @@
       </c>
     </row>
     <row r="323" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A323" s="1" t="str">
+        <f aca="false">IF(F323="---","NEW",IF(AND(C323&lt;&gt;F323,B323&lt;&gt;E323),"RENAMED &amp; RECATEGORIZED", IF(C323&lt;&gt;F323,"RENAMED",IF(B323&lt;&gt;E323,"RECATEGORIZED","---"))))</f>
+        <v>---</v>
+      </c>
       <c r="B323" s="3" t="s">
         <v>399</v>
       </c>
@@ -10122,6 +11378,10 @@
       </c>
     </row>
     <row r="324" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A324" s="1" t="str">
+        <f aca="false">IF(F324="---","NEW",IF(AND(C324&lt;&gt;F324,B324&lt;&gt;E324),"RENAMED &amp; RECATEGORIZED", IF(C324&lt;&gt;F324,"RENAMED",IF(B324&lt;&gt;E324,"RECATEGORIZED","---"))))</f>
+        <v>---</v>
+      </c>
       <c r="B324" s="3" t="s">
         <v>399</v>
       </c>
@@ -10139,6 +11399,10 @@
       </c>
     </row>
     <row r="325" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A325" s="1" t="str">
+        <f aca="false">IF(F325="---","NEW",IF(AND(C325&lt;&gt;F325,B325&lt;&gt;E325),"RENAMED &amp; RECATEGORIZED", IF(C325&lt;&gt;F325,"RENAMED",IF(B325&lt;&gt;E325,"RECATEGORIZED","---"))))</f>
+        <v>---</v>
+      </c>
       <c r="B325" s="3" t="s">
         <v>399</v>
       </c>
@@ -10156,6 +11420,10 @@
       </c>
     </row>
     <row r="326" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A326" s="1" t="str">
+        <f aca="false">IF(F326="---","NEW",IF(AND(C326&lt;&gt;F326,B326&lt;&gt;E326),"RENAMED &amp; RECATEGORIZED", IF(C326&lt;&gt;F326,"RENAMED",IF(B326&lt;&gt;E326,"RECATEGORIZED","---"))))</f>
+        <v>---</v>
+      </c>
       <c r="B326" s="3" t="s">
         <v>399</v>
       </c>
@@ -10173,6 +11441,10 @@
       </c>
     </row>
     <row r="327" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A327" s="1" t="str">
+        <f aca="false">IF(F327="---","NEW",IF(AND(C327&lt;&gt;F327,B327&lt;&gt;E327),"RENAMED &amp; RECATEGORIZED", IF(C327&lt;&gt;F327,"RENAMED",IF(B327&lt;&gt;E327,"RECATEGORIZED","---"))))</f>
+        <v>---</v>
+      </c>
       <c r="B327" s="3" t="s">
         <v>399</v>
       </c>
@@ -10190,6 +11462,10 @@
       </c>
     </row>
     <row r="328" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A328" s="1" t="str">
+        <f aca="false">IF(F328="---","NEW",IF(AND(C328&lt;&gt;F328,B328&lt;&gt;E328),"RENAMED &amp; RECATEGORIZED", IF(C328&lt;&gt;F328,"RENAMED",IF(B328&lt;&gt;E328,"RECATEGORIZED","---"))))</f>
+        <v>---</v>
+      </c>
       <c r="B328" s="3" t="s">
         <v>399</v>
       </c>
@@ -10207,6 +11483,10 @@
       </c>
     </row>
     <row r="329" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A329" s="1" t="str">
+        <f aca="false">IF(F329="---","NEW",IF(AND(C329&lt;&gt;F329,B329&lt;&gt;E329),"RENAMED &amp; RECATEGORIZED", IF(C329&lt;&gt;F329,"RENAMED",IF(B329&lt;&gt;E329,"RECATEGORIZED","---"))))</f>
+        <v>---</v>
+      </c>
       <c r="B329" s="3" t="s">
         <v>399</v>
       </c>
@@ -10224,6 +11504,10 @@
       </c>
     </row>
     <row r="330" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A330" s="1" t="str">
+        <f aca="false">IF(F330="---","NEW",IF(AND(C330&lt;&gt;F330,B330&lt;&gt;E330),"RENAMED &amp; RECATEGORIZED", IF(C330&lt;&gt;F330,"RENAMED",IF(B330&lt;&gt;E330,"RECATEGORIZED","---"))))</f>
+        <v>---</v>
+      </c>
       <c r="B330" s="3" t="s">
         <v>399</v>
       </c>
@@ -10241,6 +11525,10 @@
       </c>
     </row>
     <row r="331" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A331" s="1" t="str">
+        <f aca="false">IF(F331="---","NEW",IF(AND(C331&lt;&gt;F331,B331&lt;&gt;E331),"RENAMED &amp; RECATEGORIZED", IF(C331&lt;&gt;F331,"RENAMED",IF(B331&lt;&gt;E331,"RECATEGORIZED","---"))))</f>
+        <v>---</v>
+      </c>
       <c r="B331" s="3" t="s">
         <v>399</v>
       </c>
@@ -10258,6 +11546,10 @@
       </c>
     </row>
     <row r="332" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A332" s="1" t="str">
+        <f aca="false">IF(F332="---","NEW",IF(AND(C332&lt;&gt;F332,B332&lt;&gt;E332),"RENAMED &amp; RECATEGORIZED", IF(C332&lt;&gt;F332,"RENAMED",IF(B332&lt;&gt;E332,"RECATEGORIZED","---"))))</f>
+        <v>---</v>
+      </c>
       <c r="B332" s="3" t="s">
         <v>399</v>
       </c>
@@ -10275,6 +11567,10 @@
       </c>
     </row>
     <row r="333" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A333" s="1" t="str">
+        <f aca="false">IF(F333="---","NEW",IF(AND(C333&lt;&gt;F333,B333&lt;&gt;E333),"RENAMED &amp; RECATEGORIZED", IF(C333&lt;&gt;F333,"RENAMED",IF(B333&lt;&gt;E333,"RECATEGORIZED","---"))))</f>
+        <v>---</v>
+      </c>
       <c r="B333" s="3" t="s">
         <v>399</v>
       </c>
@@ -10292,6 +11588,10 @@
       </c>
     </row>
     <row r="334" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A334" s="1" t="str">
+        <f aca="false">IF(F334="---","NEW",IF(AND(C334&lt;&gt;F334,B334&lt;&gt;E334),"RENAMED &amp; RECATEGORIZED", IF(C334&lt;&gt;F334,"RENAMED",IF(B334&lt;&gt;E334,"RECATEGORIZED","---"))))</f>
+        <v>---</v>
+      </c>
       <c r="B334" s="3" t="s">
         <v>399</v>
       </c>
@@ -10309,6 +11609,10 @@
       </c>
     </row>
     <row r="335" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A335" s="1" t="str">
+        <f aca="false">IF(F335="---","NEW",IF(AND(C335&lt;&gt;F335,B335&lt;&gt;E335),"RENAMED &amp; RECATEGORIZED", IF(C335&lt;&gt;F335,"RENAMED",IF(B335&lt;&gt;E335,"RECATEGORIZED","---"))))</f>
+        <v>---</v>
+      </c>
       <c r="B335" s="3" t="s">
         <v>399</v>
       </c>
@@ -10326,6 +11630,10 @@
       </c>
     </row>
     <row r="336" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A336" s="1" t="str">
+        <f aca="false">IF(F336="---","NEW",IF(AND(C336&lt;&gt;F336,B336&lt;&gt;E336),"RENAMED &amp; RECATEGORIZED", IF(C336&lt;&gt;F336,"RENAMED",IF(B336&lt;&gt;E336,"RECATEGORIZED","---"))))</f>
+        <v>NEW</v>
+      </c>
       <c r="B336" s="3" t="s">
         <v>399</v>
       </c>
@@ -10343,6 +11651,10 @@
       </c>
     </row>
     <row r="337" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A337" s="1" t="str">
+        <f aca="false">IF(F337="---","NEW",IF(AND(C337&lt;&gt;F337,B337&lt;&gt;E337),"RENAMED &amp; RECATEGORIZED", IF(C337&lt;&gt;F337,"RENAMED",IF(B337&lt;&gt;E337,"RECATEGORIZED","---"))))</f>
+        <v>NEW</v>
+      </c>
       <c r="B337" s="3" t="s">
         <v>399</v>
       </c>
@@ -10360,6 +11672,10 @@
       </c>
     </row>
     <row r="338" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A338" s="1" t="str">
+        <f aca="false">IF(F338="---","NEW",IF(AND(C338&lt;&gt;F338,B338&lt;&gt;E338),"RENAMED &amp; RECATEGORIZED", IF(C338&lt;&gt;F338,"RENAMED",IF(B338&lt;&gt;E338,"RECATEGORIZED","---"))))</f>
+        <v>---</v>
+      </c>
       <c r="B338" s="3" t="s">
         <v>399</v>
       </c>
@@ -10377,6 +11693,10 @@
       </c>
     </row>
     <row r="339" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A339" s="1" t="str">
+        <f aca="false">IF(F339="---","NEW",IF(AND(C339&lt;&gt;F339,B339&lt;&gt;E339),"RENAMED &amp; RECATEGORIZED", IF(C339&lt;&gt;F339,"RENAMED",IF(B339&lt;&gt;E339,"RECATEGORIZED","---"))))</f>
+        <v>---</v>
+      </c>
       <c r="B339" s="3" t="s">
         <v>399</v>
       </c>
@@ -10394,6 +11714,10 @@
       </c>
     </row>
     <row r="340" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A340" s="1" t="str">
+        <f aca="false">IF(F340="---","NEW",IF(AND(C340&lt;&gt;F340,B340&lt;&gt;E340),"RENAMED &amp; RECATEGORIZED", IF(C340&lt;&gt;F340,"RENAMED",IF(B340&lt;&gt;E340,"RECATEGORIZED","---"))))</f>
+        <v>---</v>
+      </c>
       <c r="B340" s="3" t="s">
         <v>399</v>
       </c>
@@ -10411,6 +11735,10 @@
       </c>
     </row>
     <row r="341" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A341" s="1" t="str">
+        <f aca="false">IF(F341="---","NEW",IF(AND(C341&lt;&gt;F341,B341&lt;&gt;E341),"RENAMED &amp; RECATEGORIZED", IF(C341&lt;&gt;F341,"RENAMED",IF(B341&lt;&gt;E341,"RECATEGORIZED","---"))))</f>
+        <v>---</v>
+      </c>
       <c r="B341" s="3" t="s">
         <v>399</v>
       </c>
@@ -10428,6 +11756,10 @@
       </c>
     </row>
     <row r="342" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A342" s="1" t="str">
+        <f aca="false">IF(F342="---","NEW",IF(AND(C342&lt;&gt;F342,B342&lt;&gt;E342),"RENAMED &amp; RECATEGORIZED", IF(C342&lt;&gt;F342,"RENAMED",IF(B342&lt;&gt;E342,"RECATEGORIZED","---"))))</f>
+        <v>---</v>
+      </c>
       <c r="B342" s="3" t="s">
         <v>399</v>
       </c>
@@ -10445,6 +11777,10 @@
       </c>
     </row>
     <row r="343" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A343" s="1" t="str">
+        <f aca="false">IF(F343="---","NEW",IF(AND(C343&lt;&gt;F343,B343&lt;&gt;E343),"RENAMED &amp; RECATEGORIZED", IF(C343&lt;&gt;F343,"RENAMED",IF(B343&lt;&gt;E343,"RECATEGORIZED","---"))))</f>
+        <v>---</v>
+      </c>
       <c r="B343" s="3" t="s">
         <v>399</v>
       </c>
@@ -10462,6 +11798,10 @@
       </c>
     </row>
     <row r="344" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A344" s="1" t="str">
+        <f aca="false">IF(F344="---","NEW",IF(AND(C344&lt;&gt;F344,B344&lt;&gt;E344),"RENAMED &amp; RECATEGORIZED", IF(C344&lt;&gt;F344,"RENAMED",IF(B344&lt;&gt;E344,"RECATEGORIZED","---"))))</f>
+        <v>---</v>
+      </c>
       <c r="B344" s="3" t="s">
         <v>399</v>
       </c>
@@ -10479,6 +11819,10 @@
       </c>
     </row>
     <row r="345" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A345" s="1" t="str">
+        <f aca="false">IF(F345="---","NEW",IF(AND(C345&lt;&gt;F345,B345&lt;&gt;E345),"RENAMED &amp; RECATEGORIZED", IF(C345&lt;&gt;F345,"RENAMED",IF(B345&lt;&gt;E345,"RECATEGORIZED","---"))))</f>
+        <v>---</v>
+      </c>
       <c r="B345" s="3" t="s">
         <v>399</v>
       </c>
@@ -10496,6 +11840,10 @@
       </c>
     </row>
     <row r="346" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A346" s="1" t="str">
+        <f aca="false">IF(F346="---","NEW",IF(AND(C346&lt;&gt;F346,B346&lt;&gt;E346),"RENAMED &amp; RECATEGORIZED", IF(C346&lt;&gt;F346,"RENAMED",IF(B346&lt;&gt;E346,"RECATEGORIZED","---"))))</f>
+        <v>---</v>
+      </c>
       <c r="B346" s="3" t="s">
         <v>399</v>
       </c>
@@ -10513,6 +11861,10 @@
       </c>
     </row>
     <row r="347" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A347" s="1" t="str">
+        <f aca="false">IF(F347="---","NEW",IF(AND(C347&lt;&gt;F347,B347&lt;&gt;E347),"RENAMED &amp; RECATEGORIZED", IF(C347&lt;&gt;F347,"RENAMED",IF(B347&lt;&gt;E347,"RECATEGORIZED","---"))))</f>
+        <v>---</v>
+      </c>
       <c r="B347" s="3" t="s">
         <v>399</v>
       </c>
@@ -10530,6 +11882,10 @@
       </c>
     </row>
     <row r="348" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A348" s="1" t="str">
+        <f aca="false">IF(F348="---","NEW",IF(AND(C348&lt;&gt;F348,B348&lt;&gt;E348),"RENAMED &amp; RECATEGORIZED", IF(C348&lt;&gt;F348,"RENAMED",IF(B348&lt;&gt;E348,"RECATEGORIZED","---"))))</f>
+        <v>---</v>
+      </c>
       <c r="B348" s="3" t="s">
         <v>399</v>
       </c>
@@ -10547,6 +11903,10 @@
       </c>
     </row>
     <row r="349" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A349" s="1" t="str">
+        <f aca="false">IF(F349="---","NEW",IF(AND(C349&lt;&gt;F349,B349&lt;&gt;E349),"RENAMED &amp; RECATEGORIZED", IF(C349&lt;&gt;F349,"RENAMED",IF(B349&lt;&gt;E349,"RECATEGORIZED","---"))))</f>
+        <v>---</v>
+      </c>
       <c r="B349" s="3" t="s">
         <v>399</v>
       </c>
@@ -10564,6 +11924,10 @@
       </c>
     </row>
     <row r="350" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A350" s="1" t="str">
+        <f aca="false">IF(F350="---","NEW",IF(AND(C350&lt;&gt;F350,B350&lt;&gt;E350),"RENAMED &amp; RECATEGORIZED", IF(C350&lt;&gt;F350,"RENAMED",IF(B350&lt;&gt;E350,"RECATEGORIZED","---"))))</f>
+        <v>---</v>
+      </c>
       <c r="B350" s="3" t="s">
         <v>399</v>
       </c>
@@ -10581,6 +11945,10 @@
       </c>
     </row>
     <row r="351" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A351" s="1" t="str">
+        <f aca="false">IF(F351="---","NEW",IF(AND(C351&lt;&gt;F351,B351&lt;&gt;E351),"RENAMED &amp; RECATEGORIZED", IF(C351&lt;&gt;F351,"RENAMED",IF(B351&lt;&gt;E351,"RECATEGORIZED","---"))))</f>
+        <v>---</v>
+      </c>
       <c r="B351" s="3" t="s">
         <v>399</v>
       </c>
@@ -10598,6 +11966,10 @@
       </c>
     </row>
     <row r="352" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A352" s="1" t="str">
+        <f aca="false">IF(F352="---","NEW",IF(AND(C352&lt;&gt;F352,B352&lt;&gt;E352),"RENAMED &amp; RECATEGORIZED", IF(C352&lt;&gt;F352,"RENAMED",IF(B352&lt;&gt;E352,"RECATEGORIZED","---"))))</f>
+        <v>---</v>
+      </c>
       <c r="B352" s="3" t="s">
         <v>399</v>
       </c>
@@ -10615,6 +11987,10 @@
       </c>
     </row>
     <row r="353" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A353" s="1" t="str">
+        <f aca="false">IF(F353="---","NEW",IF(AND(C353&lt;&gt;F353,B353&lt;&gt;E353),"RENAMED &amp; RECATEGORIZED", IF(C353&lt;&gt;F353,"RENAMED",IF(B353&lt;&gt;E353,"RECATEGORIZED","---"))))</f>
+        <v>---</v>
+      </c>
       <c r="B353" s="3" t="s">
         <v>399</v>
       </c>
@@ -10632,6 +12008,10 @@
       </c>
     </row>
     <row r="354" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A354" s="1" t="str">
+        <f aca="false">IF(F354="---","NEW",IF(AND(C354&lt;&gt;F354,B354&lt;&gt;E354),"RENAMED &amp; RECATEGORIZED", IF(C354&lt;&gt;F354,"RENAMED",IF(B354&lt;&gt;E354,"RECATEGORIZED","---"))))</f>
+        <v>---</v>
+      </c>
       <c r="B354" s="3" t="s">
         <v>399</v>
       </c>
@@ -10649,6 +12029,10 @@
       </c>
     </row>
     <row r="355" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A355" s="1" t="str">
+        <f aca="false">IF(F355="---","NEW",IF(AND(C355&lt;&gt;F355,B355&lt;&gt;E355),"RENAMED &amp; RECATEGORIZED", IF(C355&lt;&gt;F355,"RENAMED",IF(B355&lt;&gt;E355,"RECATEGORIZED","---"))))</f>
+        <v>---</v>
+      </c>
       <c r="B355" s="3" t="s">
         <v>399</v>
       </c>
@@ -10666,6 +12050,10 @@
       </c>
     </row>
     <row r="356" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A356" s="1" t="str">
+        <f aca="false">IF(F356="---","NEW",IF(AND(C356&lt;&gt;F356,B356&lt;&gt;E356),"RENAMED &amp; RECATEGORIZED", IF(C356&lt;&gt;F356,"RENAMED",IF(B356&lt;&gt;E356,"RECATEGORIZED","---"))))</f>
+        <v>---</v>
+      </c>
       <c r="B356" s="3" t="s">
         <v>399</v>
       </c>
@@ -10683,6 +12071,10 @@
       </c>
     </row>
     <row r="357" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A357" s="1" t="str">
+        <f aca="false">IF(F357="---","NEW",IF(AND(C357&lt;&gt;F357,B357&lt;&gt;E357),"RENAMED &amp; RECATEGORIZED", IF(C357&lt;&gt;F357,"RENAMED",IF(B357&lt;&gt;E357,"RECATEGORIZED","---"))))</f>
+        <v>---</v>
+      </c>
       <c r="B357" s="3" t="s">
         <v>399</v>
       </c>
@@ -10700,6 +12092,10 @@
       </c>
     </row>
     <row r="358" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A358" s="1" t="str">
+        <f aca="false">IF(F358="---","NEW",IF(AND(C358&lt;&gt;F358,B358&lt;&gt;E358),"RENAMED &amp; RECATEGORIZED", IF(C358&lt;&gt;F358,"RENAMED",IF(B358&lt;&gt;E358,"RECATEGORIZED","---"))))</f>
+        <v>---</v>
+      </c>
       <c r="B358" s="3" t="s">
         <v>399</v>
       </c>
@@ -10717,6 +12113,10 @@
       </c>
     </row>
     <row r="359" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A359" s="1" t="str">
+        <f aca="false">IF(F359="---","NEW",IF(AND(C359&lt;&gt;F359,B359&lt;&gt;E359),"RENAMED &amp; RECATEGORIZED", IF(C359&lt;&gt;F359,"RENAMED",IF(B359&lt;&gt;E359,"RECATEGORIZED","---"))))</f>
+        <v>---</v>
+      </c>
       <c r="B359" s="3" t="s">
         <v>399</v>
       </c>
@@ -10734,6 +12134,10 @@
       </c>
     </row>
     <row r="360" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A360" s="1" t="str">
+        <f aca="false">IF(F360="---","NEW",IF(AND(C360&lt;&gt;F360,B360&lt;&gt;E360),"RENAMED &amp; RECATEGORIZED", IF(C360&lt;&gt;F360,"RENAMED",IF(B360&lt;&gt;E360,"RECATEGORIZED","---"))))</f>
+        <v>---</v>
+      </c>
       <c r="B360" s="3" t="s">
         <v>399</v>
       </c>
@@ -10751,6 +12155,10 @@
       </c>
     </row>
     <row r="361" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A361" s="1" t="str">
+        <f aca="false">IF(F361="---","NEW",IF(AND(C361&lt;&gt;F361,B361&lt;&gt;E361),"RENAMED &amp; RECATEGORIZED", IF(C361&lt;&gt;F361,"RENAMED",IF(B361&lt;&gt;E361,"RECATEGORIZED","---"))))</f>
+        <v>---</v>
+      </c>
       <c r="B361" s="3" t="s">
         <v>399</v>
       </c>
@@ -10768,6 +12176,10 @@
       </c>
     </row>
     <row r="362" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A362" s="1" t="str">
+        <f aca="false">IF(F362="---","NEW",IF(AND(C362&lt;&gt;F362,B362&lt;&gt;E362),"RENAMED &amp; RECATEGORIZED", IF(C362&lt;&gt;F362,"RENAMED",IF(B362&lt;&gt;E362,"RECATEGORIZED","---"))))</f>
+        <v>---</v>
+      </c>
       <c r="B362" s="3" t="s">
         <v>399</v>
       </c>
@@ -10785,6 +12197,10 @@
       </c>
     </row>
     <row r="363" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A363" s="1" t="str">
+        <f aca="false">IF(F363="---","NEW",IF(AND(C363&lt;&gt;F363,B363&lt;&gt;E363),"RENAMED &amp; RECATEGORIZED", IF(C363&lt;&gt;F363,"RENAMED",IF(B363&lt;&gt;E363,"RECATEGORIZED","---"))))</f>
+        <v>---</v>
+      </c>
       <c r="B363" s="3" t="s">
         <v>399</v>
       </c>
@@ -10802,6 +12218,10 @@
       </c>
     </row>
     <row r="364" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A364" s="1" t="str">
+        <f aca="false">IF(F364="---","NEW",IF(AND(C364&lt;&gt;F364,B364&lt;&gt;E364),"RENAMED &amp; RECATEGORIZED", IF(C364&lt;&gt;F364,"RENAMED",IF(B364&lt;&gt;E364,"RECATEGORIZED","---"))))</f>
+        <v>---</v>
+      </c>
       <c r="B364" s="3" t="s">
         <v>399</v>
       </c>
@@ -10819,6 +12239,10 @@
       </c>
     </row>
     <row r="365" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A365" s="1" t="str">
+        <f aca="false">IF(F365="---","NEW",IF(AND(C365&lt;&gt;F365,B365&lt;&gt;E365),"RENAMED &amp; RECATEGORIZED", IF(C365&lt;&gt;F365,"RENAMED",IF(B365&lt;&gt;E365,"RECATEGORIZED","---"))))</f>
+        <v>---</v>
+      </c>
       <c r="B365" s="3" t="s">
         <v>399</v>
       </c>
@@ -10836,6 +12260,10 @@
       </c>
     </row>
     <row r="366" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A366" s="1" t="str">
+        <f aca="false">IF(F366="---","NEW",IF(AND(C366&lt;&gt;F366,B366&lt;&gt;E366),"RENAMED &amp; RECATEGORIZED", IF(C366&lt;&gt;F366,"RENAMED",IF(B366&lt;&gt;E366,"RECATEGORIZED","---"))))</f>
+        <v>---</v>
+      </c>
       <c r="B366" s="3" t="s">
         <v>399</v>
       </c>
@@ -10853,6 +12281,10 @@
       </c>
     </row>
     <row r="367" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A367" s="1" t="str">
+        <f aca="false">IF(F367="---","NEW",IF(AND(C367&lt;&gt;F367,B367&lt;&gt;E367),"RENAMED &amp; RECATEGORIZED", IF(C367&lt;&gt;F367,"RENAMED",IF(B367&lt;&gt;E367,"RECATEGORIZED","---"))))</f>
+        <v>---</v>
+      </c>
       <c r="B367" s="3" t="s">
         <v>399</v>
       </c>
@@ -10870,6 +12302,10 @@
       </c>
     </row>
     <row r="368" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A368" s="1" t="str">
+        <f aca="false">IF(F368="---","NEW",IF(AND(C368&lt;&gt;F368,B368&lt;&gt;E368),"RENAMED &amp; RECATEGORIZED", IF(C368&lt;&gt;F368,"RENAMED",IF(B368&lt;&gt;E368,"RECATEGORIZED","---"))))</f>
+        <v>---</v>
+      </c>
       <c r="B368" s="3" t="s">
         <v>399</v>
       </c>
@@ -10887,6 +12323,10 @@
       </c>
     </row>
     <row r="369" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A369" s="1" t="str">
+        <f aca="false">IF(F369="---","NEW",IF(AND(C369&lt;&gt;F369,B369&lt;&gt;E369),"RENAMED &amp; RECATEGORIZED", IF(C369&lt;&gt;F369,"RENAMED",IF(B369&lt;&gt;E369,"RECATEGORIZED","---"))))</f>
+        <v>---</v>
+      </c>
       <c r="B369" s="3" t="s">
         <v>399</v>
       </c>
@@ -10904,6 +12344,10 @@
       </c>
     </row>
     <row r="370" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A370" s="1" t="str">
+        <f aca="false">IF(F370="---","NEW",IF(AND(C370&lt;&gt;F370,B370&lt;&gt;E370),"RENAMED &amp; RECATEGORIZED", IF(C370&lt;&gt;F370,"RENAMED",IF(B370&lt;&gt;E370,"RECATEGORIZED","---"))))</f>
+        <v>---</v>
+      </c>
       <c r="B370" s="3" t="s">
         <v>399</v>
       </c>
@@ -10921,6 +12365,10 @@
       </c>
     </row>
     <row r="371" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A371" s="1" t="str">
+        <f aca="false">IF(F371="---","NEW",IF(AND(C371&lt;&gt;F371,B371&lt;&gt;E371),"RENAMED &amp; RECATEGORIZED", IF(C371&lt;&gt;F371,"RENAMED",IF(B371&lt;&gt;E371,"RECATEGORIZED","---"))))</f>
+        <v>---</v>
+      </c>
       <c r="B371" s="3" t="s">
         <v>399</v>
       </c>
@@ -10938,6 +12386,10 @@
       </c>
     </row>
     <row r="372" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A372" s="1" t="str">
+        <f aca="false">IF(F372="---","NEW",IF(AND(C372&lt;&gt;F372,B372&lt;&gt;E372),"RENAMED &amp; RECATEGORIZED", IF(C372&lt;&gt;F372,"RENAMED",IF(B372&lt;&gt;E372,"RECATEGORIZED","---"))))</f>
+        <v>---</v>
+      </c>
       <c r="B372" s="3" t="s">
         <v>399</v>
       </c>
@@ -10955,6 +12407,10 @@
       </c>
     </row>
     <row r="373" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A373" s="1" t="str">
+        <f aca="false">IF(F373="---","NEW",IF(AND(C373&lt;&gt;F373,B373&lt;&gt;E373),"RENAMED &amp; RECATEGORIZED", IF(C373&lt;&gt;F373,"RENAMED",IF(B373&lt;&gt;E373,"RECATEGORIZED","---"))))</f>
+        <v>---</v>
+      </c>
       <c r="B373" s="3" t="s">
         <v>399</v>
       </c>
@@ -10972,6 +12428,10 @@
       </c>
     </row>
     <row r="374" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A374" s="1" t="str">
+        <f aca="false">IF(F374="---","NEW",IF(AND(C374&lt;&gt;F374,B374&lt;&gt;E374),"RENAMED &amp; RECATEGORIZED", IF(C374&lt;&gt;F374,"RENAMED",IF(B374&lt;&gt;E374,"RECATEGORIZED","---"))))</f>
+        <v>---</v>
+      </c>
       <c r="B374" s="3" t="s">
         <v>530</v>
       </c>
@@ -10989,6 +12449,10 @@
       </c>
     </row>
     <row r="375" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A375" s="1" t="str">
+        <f aca="false">IF(F375="---","NEW",IF(AND(C375&lt;&gt;F375,B375&lt;&gt;E375),"RENAMED &amp; RECATEGORIZED", IF(C375&lt;&gt;F375,"RENAMED",IF(B375&lt;&gt;E375,"RECATEGORIZED","---"))))</f>
+        <v>---</v>
+      </c>
       <c r="B375" s="3" t="s">
         <v>530</v>
       </c>
@@ -11006,6 +12470,10 @@
       </c>
     </row>
     <row r="376" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A376" s="1" t="str">
+        <f aca="false">IF(F376="---","NEW",IF(AND(C376&lt;&gt;F376,B376&lt;&gt;E376),"RENAMED &amp; RECATEGORIZED", IF(C376&lt;&gt;F376,"RENAMED",IF(B376&lt;&gt;E376,"RECATEGORIZED","---"))))</f>
+        <v>---</v>
+      </c>
       <c r="B376" s="3" t="s">
         <v>530</v>
       </c>
@@ -11023,6 +12491,10 @@
       </c>
     </row>
     <row r="377" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A377" s="1" t="str">
+        <f aca="false">IF(F377="---","NEW",IF(AND(C377&lt;&gt;F377,B377&lt;&gt;E377),"RENAMED &amp; RECATEGORIZED", IF(C377&lt;&gt;F377,"RENAMED",IF(B377&lt;&gt;E377,"RECATEGORIZED","---"))))</f>
+        <v>---</v>
+      </c>
       <c r="B377" s="3" t="s">
         <v>535</v>
       </c>
@@ -11040,6 +12512,10 @@
       </c>
     </row>
     <row r="378" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A378" s="1" t="str">
+        <f aca="false">IF(F378="---","NEW",IF(AND(C378&lt;&gt;F378,B378&lt;&gt;E378),"RENAMED &amp; RECATEGORIZED", IF(C378&lt;&gt;F378,"RENAMED",IF(B378&lt;&gt;E378,"RECATEGORIZED","---"))))</f>
+        <v>---</v>
+      </c>
       <c r="B378" s="3" t="s">
         <v>535</v>
       </c>
@@ -11057,6 +12533,10 @@
       </c>
     </row>
     <row r="379" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A379" s="1" t="str">
+        <f aca="false">IF(F379="---","NEW",IF(AND(C379&lt;&gt;F379,B379&lt;&gt;E379),"RENAMED &amp; RECATEGORIZED", IF(C379&lt;&gt;F379,"RENAMED",IF(B379&lt;&gt;E379,"RECATEGORIZED","---"))))</f>
+        <v>---</v>
+      </c>
       <c r="B379" s="3" t="s">
         <v>535</v>
       </c>
@@ -11074,6 +12554,10 @@
       </c>
     </row>
     <row r="380" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A380" s="1" t="str">
+        <f aca="false">IF(F380="---","NEW",IF(AND(C380&lt;&gt;F380,B380&lt;&gt;E380),"RENAMED &amp; RECATEGORIZED", IF(C380&lt;&gt;F380,"RENAMED",IF(B380&lt;&gt;E380,"RECATEGORIZED","---"))))</f>
+        <v>---</v>
+      </c>
       <c r="B380" s="3" t="s">
         <v>535</v>
       </c>
@@ -11091,6 +12575,10 @@
       </c>
     </row>
     <row r="381" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A381" s="1" t="str">
+        <f aca="false">IF(F381="---","NEW",IF(AND(C381&lt;&gt;F381,B381&lt;&gt;E381),"RENAMED &amp; RECATEGORIZED", IF(C381&lt;&gt;F381,"RENAMED",IF(B381&lt;&gt;E381,"RECATEGORIZED","---"))))</f>
+        <v>---</v>
+      </c>
       <c r="B381" s="3" t="s">
         <v>535</v>
       </c>
@@ -11108,6 +12596,10 @@
       </c>
     </row>
     <row r="382" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A382" s="1" t="str">
+        <f aca="false">IF(F382="---","NEW",IF(AND(C382&lt;&gt;F382,B382&lt;&gt;E382),"RENAMED &amp; RECATEGORIZED", IF(C382&lt;&gt;F382,"RENAMED",IF(B382&lt;&gt;E382,"RECATEGORIZED","---"))))</f>
+        <v>---</v>
+      </c>
       <c r="B382" s="3" t="s">
         <v>535</v>
       </c>
@@ -11125,6 +12617,10 @@
       </c>
     </row>
     <row r="383" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A383" s="1" t="str">
+        <f aca="false">IF(F383="---","NEW",IF(AND(C383&lt;&gt;F383,B383&lt;&gt;E383),"RENAMED &amp; RECATEGORIZED", IF(C383&lt;&gt;F383,"RENAMED",IF(B383&lt;&gt;E383,"RECATEGORIZED","---"))))</f>
+        <v>---</v>
+      </c>
       <c r="B383" s="3" t="s">
         <v>535</v>
       </c>
@@ -11142,6 +12638,10 @@
       </c>
     </row>
     <row r="384" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A384" s="1" t="str">
+        <f aca="false">IF(F384="---","NEW",IF(AND(C384&lt;&gt;F384,B384&lt;&gt;E384),"RENAMED &amp; RECATEGORIZED", IF(C384&lt;&gt;F384,"RENAMED",IF(B384&lt;&gt;E384,"RECATEGORIZED","---"))))</f>
+        <v>---</v>
+      </c>
       <c r="B384" s="3" t="s">
         <v>535</v>
       </c>
@@ -11159,6 +12659,10 @@
       </c>
     </row>
     <row r="385" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A385" s="1" t="str">
+        <f aca="false">IF(F385="---","NEW",IF(AND(C385&lt;&gt;F385,B385&lt;&gt;E385),"RENAMED &amp; RECATEGORIZED", IF(C385&lt;&gt;F385,"RENAMED",IF(B385&lt;&gt;E385,"RECATEGORIZED","---"))))</f>
+        <v>---</v>
+      </c>
       <c r="B385" s="3" t="s">
         <v>535</v>
       </c>
@@ -11176,6 +12680,10 @@
       </c>
     </row>
     <row r="386" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A386" s="1" t="str">
+        <f aca="false">IF(F386="---","NEW",IF(AND(C386&lt;&gt;F386,B386&lt;&gt;E386),"RENAMED &amp; RECATEGORIZED", IF(C386&lt;&gt;F386,"RENAMED",IF(B386&lt;&gt;E386,"RECATEGORIZED","---"))))</f>
+        <v>---</v>
+      </c>
       <c r="B386" s="3" t="s">
         <v>545</v>
       </c>
@@ -11193,6 +12701,10 @@
       </c>
     </row>
     <row r="387" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A387" s="1" t="str">
+        <f aca="false">IF(F387="---","NEW",IF(AND(C387&lt;&gt;F387,B387&lt;&gt;E387),"RENAMED &amp; RECATEGORIZED", IF(C387&lt;&gt;F387,"RENAMED",IF(B387&lt;&gt;E387,"RECATEGORIZED","---"))))</f>
+        <v>---</v>
+      </c>
       <c r="B387" s="3" t="s">
         <v>547</v>
       </c>
@@ -11210,6 +12722,10 @@
       </c>
     </row>
     <row r="388" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A388" s="1" t="str">
+        <f aca="false">IF(F388="---","NEW",IF(AND(C388&lt;&gt;F388,B388&lt;&gt;E388),"RENAMED &amp; RECATEGORIZED", IF(C388&lt;&gt;F388,"RENAMED",IF(B388&lt;&gt;E388,"RECATEGORIZED","---"))))</f>
+        <v>---</v>
+      </c>
       <c r="B388" s="3" t="s">
         <v>547</v>
       </c>
@@ -11227,6 +12743,10 @@
       </c>
     </row>
     <row r="389" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A389" s="1" t="str">
+        <f aca="false">IF(F389="---","NEW",IF(AND(C389&lt;&gt;F389,B389&lt;&gt;E389),"RENAMED &amp; RECATEGORIZED", IF(C389&lt;&gt;F389,"RENAMED",IF(B389&lt;&gt;E389,"RECATEGORIZED","---"))))</f>
+        <v>---</v>
+      </c>
       <c r="B389" s="3" t="s">
         <v>550</v>
       </c>
@@ -11244,6 +12764,10 @@
       </c>
     </row>
     <row r="390" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A390" s="1" t="str">
+        <f aca="false">IF(F390="---","NEW",IF(AND(C390&lt;&gt;F390,B390&lt;&gt;E390),"RENAMED &amp; RECATEGORIZED", IF(C390&lt;&gt;F390,"RENAMED",IF(B390&lt;&gt;E390,"RECATEGORIZED","---"))))</f>
+        <v>---</v>
+      </c>
       <c r="B390" s="3" t="s">
         <v>550</v>
       </c>
@@ -11261,6 +12785,10 @@
       </c>
     </row>
     <row r="391" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A391" s="1" t="str">
+        <f aca="false">IF(F391="---","NEW",IF(AND(C391&lt;&gt;F391,B391&lt;&gt;E391),"RENAMED &amp; RECATEGORIZED", IF(C391&lt;&gt;F391,"RENAMED",IF(B391&lt;&gt;E391,"RECATEGORIZED","---"))))</f>
+        <v>---</v>
+      </c>
       <c r="B391" s="3" t="s">
         <v>550</v>
       </c>
@@ -11278,6 +12806,10 @@
       </c>
     </row>
     <row r="392" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A392" s="1" t="str">
+        <f aca="false">IF(F392="---","NEW",IF(AND(C392&lt;&gt;F392,B392&lt;&gt;E392),"RENAMED &amp; RECATEGORIZED", IF(C392&lt;&gt;F392,"RENAMED",IF(B392&lt;&gt;E392,"RECATEGORIZED","---"))))</f>
+        <v>---</v>
+      </c>
       <c r="B392" s="3" t="s">
         <v>550</v>
       </c>
@@ -11295,6 +12827,10 @@
       </c>
     </row>
     <row r="393" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A393" s="1" t="str">
+        <f aca="false">IF(F393="---","NEW",IF(AND(C393&lt;&gt;F393,B393&lt;&gt;E393),"RENAMED &amp; RECATEGORIZED", IF(C393&lt;&gt;F393,"RENAMED",IF(B393&lt;&gt;E393,"RECATEGORIZED","---"))))</f>
+        <v>---</v>
+      </c>
       <c r="B393" s="3" t="s">
         <v>550</v>
       </c>
@@ -11312,6 +12848,10 @@
       </c>
     </row>
     <row r="394" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A394" s="1" t="str">
+        <f aca="false">IF(F394="---","NEW",IF(AND(C394&lt;&gt;F394,B394&lt;&gt;E394),"RENAMED &amp; RECATEGORIZED", IF(C394&lt;&gt;F394,"RENAMED",IF(B394&lt;&gt;E394,"RECATEGORIZED","---"))))</f>
+        <v>---</v>
+      </c>
       <c r="B394" s="3" t="s">
         <v>550</v>
       </c>
@@ -11329,6 +12869,10 @@
       </c>
     </row>
     <row r="395" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A395" s="1" t="str">
+        <f aca="false">IF(F395="---","NEW",IF(AND(C395&lt;&gt;F395,B395&lt;&gt;E395),"RENAMED &amp; RECATEGORIZED", IF(C395&lt;&gt;F395,"RENAMED",IF(B395&lt;&gt;E395,"RECATEGORIZED","---"))))</f>
+        <v>---</v>
+      </c>
       <c r="B395" s="3" t="s">
         <v>550</v>
       </c>
@@ -11346,6 +12890,10 @@
       </c>
     </row>
     <row r="396" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A396" s="1" t="str">
+        <f aca="false">IF(F396="---","NEW",IF(AND(C396&lt;&gt;F396,B396&lt;&gt;E396),"RENAMED &amp; RECATEGORIZED", IF(C396&lt;&gt;F396,"RENAMED",IF(B396&lt;&gt;E396,"RECATEGORIZED","---"))))</f>
+        <v>---</v>
+      </c>
       <c r="B396" s="3" t="s">
         <v>558</v>
       </c>
@@ -11363,6 +12911,10 @@
       </c>
     </row>
     <row r="397" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A397" s="1" t="str">
+        <f aca="false">IF(F397="---","NEW",IF(AND(C397&lt;&gt;F397,B397&lt;&gt;E397),"RENAMED &amp; RECATEGORIZED", IF(C397&lt;&gt;F397,"RENAMED",IF(B397&lt;&gt;E397,"RECATEGORIZED","---"))))</f>
+        <v>---</v>
+      </c>
       <c r="B397" s="3" t="s">
         <v>560</v>
       </c>
@@ -11380,6 +12932,10 @@
       </c>
     </row>
     <row r="398" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A398" s="1" t="str">
+        <f aca="false">IF(F398="---","NEW",IF(AND(C398&lt;&gt;F398,B398&lt;&gt;E398),"RENAMED &amp; RECATEGORIZED", IF(C398&lt;&gt;F398,"RENAMED",IF(B398&lt;&gt;E398,"RECATEGORIZED","---"))))</f>
+        <v>---</v>
+      </c>
       <c r="B398" s="3" t="s">
         <v>560</v>
       </c>
@@ -11397,6 +12953,10 @@
       </c>
     </row>
     <row r="399" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A399" s="1" t="str">
+        <f aca="false">IF(F399="---","NEW",IF(AND(C399&lt;&gt;F399,B399&lt;&gt;E399),"RENAMED &amp; RECATEGORIZED", IF(C399&lt;&gt;F399,"RENAMED",IF(B399&lt;&gt;E399,"RECATEGORIZED","---"))))</f>
+        <v>---</v>
+      </c>
       <c r="B399" s="3" t="s">
         <v>563</v>
       </c>
@@ -11414,6 +12974,10 @@
       </c>
     </row>
     <row r="400" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A400" s="1" t="str">
+        <f aca="false">IF(F400="---","NEW",IF(AND(C400&lt;&gt;F400,B400&lt;&gt;E400),"RENAMED &amp; RECATEGORIZED", IF(C400&lt;&gt;F400,"RENAMED",IF(B400&lt;&gt;E400,"RECATEGORIZED","---"))))</f>
+        <v>---</v>
+      </c>
       <c r="B400" s="3" t="s">
         <v>11</v>
       </c>
@@ -11431,6 +12995,10 @@
       </c>
     </row>
     <row r="401" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A401" s="1" t="str">
+        <f aca="false">IF(F401="---","NEW",IF(AND(C401&lt;&gt;F401,B401&lt;&gt;E401),"RENAMED &amp; RECATEGORIZED", IF(C401&lt;&gt;F401,"RENAMED",IF(B401&lt;&gt;E401,"RECATEGORIZED","---"))))</f>
+        <v>---</v>
+      </c>
       <c r="B401" s="3" t="s">
         <v>11</v>
       </c>
@@ -11448,6 +13016,10 @@
       </c>
     </row>
     <row r="402" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A402" s="1" t="str">
+        <f aca="false">IF(F402="---","NEW",IF(AND(C402&lt;&gt;F402,B402&lt;&gt;E402),"RENAMED &amp; RECATEGORIZED", IF(C402&lt;&gt;F402,"RENAMED",IF(B402&lt;&gt;E402,"RECATEGORIZED","---"))))</f>
+        <v>---</v>
+      </c>
       <c r="B402" s="3" t="s">
         <v>11</v>
       </c>
@@ -11465,6 +13037,10 @@
       </c>
     </row>
     <row r="403" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A403" s="1" t="str">
+        <f aca="false">IF(F403="---","NEW",IF(AND(C403&lt;&gt;F403,B403&lt;&gt;E403),"RENAMED &amp; RECATEGORIZED", IF(C403&lt;&gt;F403,"RENAMED",IF(B403&lt;&gt;E403,"RECATEGORIZED","---"))))</f>
+        <v>---</v>
+      </c>
       <c r="B403" s="3" t="s">
         <v>11</v>
       </c>
@@ -11482,6 +13058,10 @@
       </c>
     </row>
     <row r="404" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A404" s="1" t="str">
+        <f aca="false">IF(F404="---","NEW",IF(AND(C404&lt;&gt;F404,B404&lt;&gt;E404),"RENAMED &amp; RECATEGORIZED", IF(C404&lt;&gt;F404,"RENAMED",IF(B404&lt;&gt;E404,"RECATEGORIZED","---"))))</f>
+        <v>---</v>
+      </c>
       <c r="B404" s="3" t="s">
         <v>11</v>
       </c>
@@ -11499,6 +13079,10 @@
       </c>
     </row>
     <row r="405" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A405" s="1" t="str">
+        <f aca="false">IF(F405="---","NEW",IF(AND(C405&lt;&gt;F405,B405&lt;&gt;E405),"RENAMED &amp; RECATEGORIZED", IF(C405&lt;&gt;F405,"RENAMED",IF(B405&lt;&gt;E405,"RECATEGORIZED","---"))))</f>
+        <v>---</v>
+      </c>
       <c r="B405" s="3" t="s">
         <v>11</v>
       </c>
@@ -11516,6 +13100,10 @@
       </c>
     </row>
     <row r="406" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A406" s="1" t="str">
+        <f aca="false">IF(F406="---","NEW",IF(AND(C406&lt;&gt;F406,B406&lt;&gt;E406),"RENAMED &amp; RECATEGORIZED", IF(C406&lt;&gt;F406,"RENAMED",IF(B406&lt;&gt;E406,"RECATEGORIZED","---"))))</f>
+        <v>---</v>
+      </c>
       <c r="B406" s="3" t="s">
         <v>11</v>
       </c>
@@ -11533,6 +13121,10 @@
       </c>
     </row>
     <row r="407" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A407" s="1" t="str">
+        <f aca="false">IF(F407="---","NEW",IF(AND(C407&lt;&gt;F407,B407&lt;&gt;E407),"RENAMED &amp; RECATEGORIZED", IF(C407&lt;&gt;F407,"RENAMED",IF(B407&lt;&gt;E407,"RECATEGORIZED","---"))))</f>
+        <v>---</v>
+      </c>
       <c r="B407" s="3" t="s">
         <v>11</v>
       </c>
@@ -11550,6 +13142,10 @@
       </c>
     </row>
     <row r="408" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A408" s="1" t="str">
+        <f aca="false">IF(F408="---","NEW",IF(AND(C408&lt;&gt;F408,B408&lt;&gt;E408),"RENAMED &amp; RECATEGORIZED", IF(C408&lt;&gt;F408,"RENAMED",IF(B408&lt;&gt;E408,"RECATEGORIZED","---"))))</f>
+        <v>---</v>
+      </c>
       <c r="B408" s="3" t="s">
         <v>11</v>
       </c>
@@ -11567,6 +13163,10 @@
       </c>
     </row>
     <row r="409" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A409" s="1" t="str">
+        <f aca="false">IF(F409="---","NEW",IF(AND(C409&lt;&gt;F409,B409&lt;&gt;E409),"RENAMED &amp; RECATEGORIZED", IF(C409&lt;&gt;F409,"RENAMED",IF(B409&lt;&gt;E409,"RECATEGORIZED","---"))))</f>
+        <v>---</v>
+      </c>
       <c r="B409" s="3" t="s">
         <v>11</v>
       </c>
@@ -11584,6 +13184,10 @@
       </c>
     </row>
     <row r="410" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A410" s="1" t="str">
+        <f aca="false">IF(F410="---","NEW",IF(AND(C410&lt;&gt;F410,B410&lt;&gt;E410),"RENAMED &amp; RECATEGORIZED", IF(C410&lt;&gt;F410,"RENAMED",IF(B410&lt;&gt;E410,"RECATEGORIZED","---"))))</f>
+        <v>---</v>
+      </c>
       <c r="B410" s="3" t="s">
         <v>11</v>
       </c>
@@ -11601,6 +13205,10 @@
       </c>
     </row>
     <row r="411" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A411" s="1" t="str">
+        <f aca="false">IF(F411="---","NEW",IF(AND(C411&lt;&gt;F411,B411&lt;&gt;E411),"RENAMED &amp; RECATEGORIZED", IF(C411&lt;&gt;F411,"RENAMED",IF(B411&lt;&gt;E411,"RECATEGORIZED","---"))))</f>
+        <v>---</v>
+      </c>
       <c r="B411" s="3" t="s">
         <v>11</v>
       </c>
@@ -11618,6 +13226,10 @@
       </c>
     </row>
     <row r="412" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A412" s="1" t="str">
+        <f aca="false">IF(F412="---","NEW",IF(AND(C412&lt;&gt;F412,B412&lt;&gt;E412),"RENAMED &amp; RECATEGORIZED", IF(C412&lt;&gt;F412,"RENAMED",IF(B412&lt;&gt;E412,"RECATEGORIZED","---"))))</f>
+        <v>---</v>
+      </c>
       <c r="B412" s="3" t="s">
         <v>11</v>
       </c>
@@ -11635,6 +13247,10 @@
       </c>
     </row>
     <row r="413" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A413" s="1" t="str">
+        <f aca="false">IF(F413="---","NEW",IF(AND(C413&lt;&gt;F413,B413&lt;&gt;E413),"RENAMED &amp; RECATEGORIZED", IF(C413&lt;&gt;F413,"RENAMED",IF(B413&lt;&gt;E413,"RECATEGORIZED","---"))))</f>
+        <v>---</v>
+      </c>
       <c r="B413" s="3" t="s">
         <v>11</v>
       </c>
@@ -11652,6 +13268,10 @@
       </c>
     </row>
     <row r="414" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A414" s="1" t="str">
+        <f aca="false">IF(F414="---","NEW",IF(AND(C414&lt;&gt;F414,B414&lt;&gt;E414),"RENAMED &amp; RECATEGORIZED", IF(C414&lt;&gt;F414,"RENAMED",IF(B414&lt;&gt;E414,"RECATEGORIZED","---"))))</f>
+        <v>---</v>
+      </c>
       <c r="B414" s="3" t="s">
         <v>11</v>
       </c>
@@ -11669,6 +13289,10 @@
       </c>
     </row>
     <row r="415" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A415" s="1" t="str">
+        <f aca="false">IF(F415="---","NEW",IF(AND(C415&lt;&gt;F415,B415&lt;&gt;E415),"RENAMED &amp; RECATEGORIZED", IF(C415&lt;&gt;F415,"RENAMED",IF(B415&lt;&gt;E415,"RECATEGORIZED","---"))))</f>
+        <v>---</v>
+      </c>
       <c r="B415" s="3" t="s">
         <v>11</v>
       </c>
@@ -11686,6 +13310,10 @@
       </c>
     </row>
     <row r="416" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A416" s="1" t="str">
+        <f aca="false">IF(F416="---","NEW",IF(AND(C416&lt;&gt;F416,B416&lt;&gt;E416),"RENAMED &amp; RECATEGORIZED", IF(C416&lt;&gt;F416,"RENAMED",IF(B416&lt;&gt;E416,"RECATEGORIZED","---"))))</f>
+        <v>---</v>
+      </c>
       <c r="B416" s="3" t="s">
         <v>11</v>
       </c>
@@ -11703,6 +13331,10 @@
       </c>
     </row>
     <row r="417" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A417" s="1" t="str">
+        <f aca="false">IF(F417="---","NEW",IF(AND(C417&lt;&gt;F417,B417&lt;&gt;E417),"RENAMED &amp; RECATEGORIZED", IF(C417&lt;&gt;F417,"RENAMED",IF(B417&lt;&gt;E417,"RECATEGORIZED","---"))))</f>
+        <v>---</v>
+      </c>
       <c r="B417" s="3" t="s">
         <v>585</v>
       </c>
@@ -11720,6 +13352,10 @@
       </c>
     </row>
     <row r="418" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A418" s="1" t="str">
+        <f aca="false">IF(F418="---","NEW",IF(AND(C418&lt;&gt;F418,B418&lt;&gt;E418),"RENAMED &amp; RECATEGORIZED", IF(C418&lt;&gt;F418,"RENAMED",IF(B418&lt;&gt;E418,"RECATEGORIZED","---"))))</f>
+        <v>---</v>
+      </c>
       <c r="B418" s="3" t="s">
         <v>14</v>
       </c>
@@ -11737,6 +13373,10 @@
       </c>
     </row>
     <row r="419" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A419" s="1" t="str">
+        <f aca="false">IF(F419="---","NEW",IF(AND(C419&lt;&gt;F419,B419&lt;&gt;E419),"RENAMED &amp; RECATEGORIZED", IF(C419&lt;&gt;F419,"RENAMED",IF(B419&lt;&gt;E419,"RECATEGORIZED","---"))))</f>
+        <v>---</v>
+      </c>
       <c r="B419" s="3" t="s">
         <v>14</v>
       </c>
@@ -11754,6 +13394,10 @@
       </c>
     </row>
     <row r="420" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A420" s="1" t="str">
+        <f aca="false">IF(F420="---","NEW",IF(AND(C420&lt;&gt;F420,B420&lt;&gt;E420),"RENAMED &amp; RECATEGORIZED", IF(C420&lt;&gt;F420,"RENAMED",IF(B420&lt;&gt;E420,"RECATEGORIZED","---"))))</f>
+        <v>---</v>
+      </c>
       <c r="B420" s="3" t="s">
         <v>14</v>
       </c>
@@ -11771,6 +13415,10 @@
       </c>
     </row>
     <row r="421" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A421" s="1" t="str">
+        <f aca="false">IF(F421="---","NEW",IF(AND(C421&lt;&gt;F421,B421&lt;&gt;E421),"RENAMED &amp; RECATEGORIZED", IF(C421&lt;&gt;F421,"RENAMED",IF(B421&lt;&gt;E421,"RECATEGORIZED","---"))))</f>
+        <v>---</v>
+      </c>
       <c r="B421" s="3" t="s">
         <v>14</v>
       </c>
@@ -11788,6 +13436,10 @@
       </c>
     </row>
     <row r="422" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A422" s="1" t="str">
+        <f aca="false">IF(F422="---","NEW",IF(AND(C422&lt;&gt;F422,B422&lt;&gt;E422),"RENAMED &amp; RECATEGORIZED", IF(C422&lt;&gt;F422,"RENAMED",IF(B422&lt;&gt;E422,"RECATEGORIZED","---"))))</f>
+        <v>---</v>
+      </c>
       <c r="B422" s="3" t="s">
         <v>14</v>
       </c>
@@ -11805,6 +13457,10 @@
       </c>
     </row>
     <row r="423" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A423" s="1" t="str">
+        <f aca="false">IF(F423="---","NEW",IF(AND(C423&lt;&gt;F423,B423&lt;&gt;E423),"RENAMED &amp; RECATEGORIZED", IF(C423&lt;&gt;F423,"RENAMED",IF(B423&lt;&gt;E423,"RECATEGORIZED","---"))))</f>
+        <v>---</v>
+      </c>
       <c r="B423" s="3" t="s">
         <v>14</v>
       </c>
@@ -11822,6 +13478,10 @@
       </c>
     </row>
     <row r="424" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A424" s="1" t="str">
+        <f aca="false">IF(F424="---","NEW",IF(AND(C424&lt;&gt;F424,B424&lt;&gt;E424),"RENAMED &amp; RECATEGORIZED", IF(C424&lt;&gt;F424,"RENAMED",IF(B424&lt;&gt;E424,"RECATEGORIZED","---"))))</f>
+        <v>---</v>
+      </c>
       <c r="B424" s="3" t="s">
         <v>14</v>
       </c>
@@ -11839,6 +13499,10 @@
       </c>
     </row>
     <row r="425" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A425" s="1" t="str">
+        <f aca="false">IF(F425="---","NEW",IF(AND(C425&lt;&gt;F425,B425&lt;&gt;E425),"RENAMED &amp; RECATEGORIZED", IF(C425&lt;&gt;F425,"RENAMED",IF(B425&lt;&gt;E425,"RECATEGORIZED","---"))))</f>
+        <v>---</v>
+      </c>
       <c r="B425" s="3" t="s">
         <v>14</v>
       </c>
@@ -11856,6 +13520,10 @@
       </c>
     </row>
     <row r="426" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A426" s="1" t="str">
+        <f aca="false">IF(F426="---","NEW",IF(AND(C426&lt;&gt;F426,B426&lt;&gt;E426),"RENAMED &amp; RECATEGORIZED", IF(C426&lt;&gt;F426,"RENAMED",IF(B426&lt;&gt;E426,"RECATEGORIZED","---"))))</f>
+        <v>---</v>
+      </c>
       <c r="B426" s="3" t="s">
         <v>14</v>
       </c>
@@ -11873,6 +13541,10 @@
       </c>
     </row>
     <row r="427" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A427" s="1" t="str">
+        <f aca="false">IF(F427="---","NEW",IF(AND(C427&lt;&gt;F427,B427&lt;&gt;E427),"RENAMED &amp; RECATEGORIZED", IF(C427&lt;&gt;F427,"RENAMED",IF(B427&lt;&gt;E427,"RECATEGORIZED","---"))))</f>
+        <v>---</v>
+      </c>
       <c r="B427" s="3" t="s">
         <v>14</v>
       </c>
@@ -11890,6 +13562,10 @@
       </c>
     </row>
     <row r="428" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A428" s="1" t="str">
+        <f aca="false">IF(F428="---","NEW",IF(AND(C428&lt;&gt;F428,B428&lt;&gt;E428),"RENAMED &amp; RECATEGORIZED", IF(C428&lt;&gt;F428,"RENAMED",IF(B428&lt;&gt;E428,"RECATEGORIZED","---"))))</f>
+        <v>---</v>
+      </c>
       <c r="B428" s="3" t="s">
         <v>14</v>
       </c>
@@ -11907,6 +13583,10 @@
       </c>
     </row>
     <row r="429" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A429" s="1" t="str">
+        <f aca="false">IF(F429="---","NEW",IF(AND(C429&lt;&gt;F429,B429&lt;&gt;E429),"RENAMED &amp; RECATEGORIZED", IF(C429&lt;&gt;F429,"RENAMED",IF(B429&lt;&gt;E429,"RECATEGORIZED","---"))))</f>
+        <v>---</v>
+      </c>
       <c r="B429" s="3" t="s">
         <v>14</v>
       </c>
@@ -11924,6 +13604,10 @@
       </c>
     </row>
     <row r="430" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A430" s="1" t="str">
+        <f aca="false">IF(F430="---","NEW",IF(AND(C430&lt;&gt;F430,B430&lt;&gt;E430),"RENAMED &amp; RECATEGORIZED", IF(C430&lt;&gt;F430,"RENAMED",IF(B430&lt;&gt;E430,"RECATEGORIZED","---"))))</f>
+        <v>---</v>
+      </c>
       <c r="B430" s="3" t="s">
         <v>14</v>
       </c>
@@ -11941,6 +13625,10 @@
       </c>
     </row>
     <row r="431" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A431" s="1" t="str">
+        <f aca="false">IF(F431="---","NEW",IF(AND(C431&lt;&gt;F431,B431&lt;&gt;E431),"RENAMED &amp; RECATEGORIZED", IF(C431&lt;&gt;F431,"RENAMED",IF(B431&lt;&gt;E431,"RECATEGORIZED","---"))))</f>
+        <v>---</v>
+      </c>
       <c r="B431" s="3" t="s">
         <v>14</v>
       </c>
@@ -11958,6 +13646,10 @@
       </c>
     </row>
     <row r="432" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A432" s="1" t="str">
+        <f aca="false">IF(F432="---","NEW",IF(AND(C432&lt;&gt;F432,B432&lt;&gt;E432),"RENAMED &amp; RECATEGORIZED", IF(C432&lt;&gt;F432,"RENAMED",IF(B432&lt;&gt;E432,"RECATEGORIZED","---"))))</f>
+        <v>---</v>
+      </c>
       <c r="B432" s="3" t="s">
         <v>14</v>
       </c>
@@ -11975,6 +13667,10 @@
       </c>
     </row>
     <row r="433" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A433" s="1" t="str">
+        <f aca="false">IF(F433="---","NEW",IF(AND(C433&lt;&gt;F433,B433&lt;&gt;E433),"RENAMED &amp; RECATEGORIZED", IF(C433&lt;&gt;F433,"RENAMED",IF(B433&lt;&gt;E433,"RECATEGORIZED","---"))))</f>
+        <v>---</v>
+      </c>
       <c r="B433" s="3" t="s">
         <v>14</v>
       </c>
@@ -11992,6 +13688,10 @@
       </c>
     </row>
     <row r="434" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A434" s="1" t="str">
+        <f aca="false">IF(F434="---","NEW",IF(AND(C434&lt;&gt;F434,B434&lt;&gt;E434),"RENAMED &amp; RECATEGORIZED", IF(C434&lt;&gt;F434,"RENAMED",IF(B434&lt;&gt;E434,"RECATEGORIZED","---"))))</f>
+        <v>---</v>
+      </c>
       <c r="B434" s="3" t="s">
         <v>14</v>
       </c>
@@ -12009,6 +13709,10 @@
       </c>
     </row>
     <row r="435" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A435" s="1" t="str">
+        <f aca="false">IF(F435="---","NEW",IF(AND(C435&lt;&gt;F435,B435&lt;&gt;E435),"RENAMED &amp; RECATEGORIZED", IF(C435&lt;&gt;F435,"RENAMED",IF(B435&lt;&gt;E435,"RECATEGORIZED","---"))))</f>
+        <v>---</v>
+      </c>
       <c r="B435" s="3" t="s">
         <v>14</v>
       </c>
@@ -12026,6 +13730,10 @@
       </c>
     </row>
     <row r="436" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A436" s="1" t="str">
+        <f aca="false">IF(F436="---","NEW",IF(AND(C436&lt;&gt;F436,B436&lt;&gt;E436),"RENAMED &amp; RECATEGORIZED", IF(C436&lt;&gt;F436,"RENAMED",IF(B436&lt;&gt;E436,"RECATEGORIZED","---"))))</f>
+        <v>---</v>
+      </c>
       <c r="B436" s="3" t="s">
         <v>14</v>
       </c>
@@ -12043,6 +13751,10 @@
       </c>
     </row>
     <row r="437" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A437" s="1" t="str">
+        <f aca="false">IF(F437="---","NEW",IF(AND(C437&lt;&gt;F437,B437&lt;&gt;E437),"RENAMED &amp; RECATEGORIZED", IF(C437&lt;&gt;F437,"RENAMED",IF(B437&lt;&gt;E437,"RECATEGORIZED","---"))))</f>
+        <v>---</v>
+      </c>
       <c r="B437" s="3" t="s">
         <v>14</v>
       </c>
@@ -12060,6 +13772,10 @@
       </c>
     </row>
     <row r="438" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A438" s="1" t="str">
+        <f aca="false">IF(F438="---","NEW",IF(AND(C438&lt;&gt;F438,B438&lt;&gt;E438),"RENAMED &amp; RECATEGORIZED", IF(C438&lt;&gt;F438,"RENAMED",IF(B438&lt;&gt;E438,"RECATEGORIZED","---"))))</f>
+        <v>---</v>
+      </c>
       <c r="B438" s="3" t="s">
         <v>18</v>
       </c>
@@ -12077,6 +13793,10 @@
       </c>
     </row>
     <row r="439" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A439" s="1" t="str">
+        <f aca="false">IF(F439="---","NEW",IF(AND(C439&lt;&gt;F439,B439&lt;&gt;E439),"RENAMED &amp; RECATEGORIZED", IF(C439&lt;&gt;F439,"RENAMED",IF(B439&lt;&gt;E439,"RECATEGORIZED","---"))))</f>
+        <v>---</v>
+      </c>
       <c r="B439" s="3" t="s">
         <v>18</v>
       </c>
@@ -12094,6 +13814,10 @@
       </c>
     </row>
     <row r="440" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A440" s="1" t="str">
+        <f aca="false">IF(F440="---","NEW",IF(AND(C440&lt;&gt;F440,B440&lt;&gt;E440),"RENAMED &amp; RECATEGORIZED", IF(C440&lt;&gt;F440,"RENAMED",IF(B440&lt;&gt;E440,"RECATEGORIZED","---"))))</f>
+        <v>---</v>
+      </c>
       <c r="B440" s="3" t="s">
         <v>18</v>
       </c>
@@ -12111,6 +13835,10 @@
       </c>
     </row>
     <row r="441" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A441" s="1" t="str">
+        <f aca="false">IF(F441="---","NEW",IF(AND(C441&lt;&gt;F441,B441&lt;&gt;E441),"RENAMED &amp; RECATEGORIZED", IF(C441&lt;&gt;F441,"RENAMED",IF(B441&lt;&gt;E441,"RECATEGORIZED","---"))))</f>
+        <v>---</v>
+      </c>
       <c r="B441" s="3" t="s">
         <v>616</v>
       </c>
@@ -12128,6 +13856,10 @@
       </c>
     </row>
     <row r="442" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A442" s="1" t="str">
+        <f aca="false">IF(F442="---","NEW",IF(AND(C442&lt;&gt;F442,B442&lt;&gt;E442),"RENAMED &amp; RECATEGORIZED", IF(C442&lt;&gt;F442,"RENAMED",IF(B442&lt;&gt;E442,"RECATEGORIZED","---"))))</f>
+        <v>---</v>
+      </c>
       <c r="B442" s="3" t="s">
         <v>616</v>
       </c>
@@ -12145,6 +13877,10 @@
       </c>
     </row>
     <row r="443" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A443" s="1" t="str">
+        <f aca="false">IF(F443="---","NEW",IF(AND(C443&lt;&gt;F443,B443&lt;&gt;E443),"RENAMED &amp; RECATEGORIZED", IF(C443&lt;&gt;F443,"RENAMED",IF(B443&lt;&gt;E443,"RECATEGORIZED","---"))))</f>
+        <v>---</v>
+      </c>
       <c r="B443" s="3" t="s">
         <v>616</v>
       </c>
@@ -12162,6 +13898,10 @@
       </c>
     </row>
     <row r="444" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A444" s="1" t="str">
+        <f aca="false">IF(F444="---","NEW",IF(AND(C444&lt;&gt;F444,B444&lt;&gt;E444),"RENAMED &amp; RECATEGORIZED", IF(C444&lt;&gt;F444,"RENAMED",IF(B444&lt;&gt;E444,"RECATEGORIZED","---"))))</f>
+        <v>---</v>
+      </c>
       <c r="B444" s="3" t="s">
         <v>616</v>
       </c>
@@ -12179,6 +13919,10 @@
       </c>
     </row>
     <row r="445" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A445" s="1" t="str">
+        <f aca="false">IF(F445="---","NEW",IF(AND(C445&lt;&gt;F445,B445&lt;&gt;E445),"RENAMED &amp; RECATEGORIZED", IF(C445&lt;&gt;F445,"RENAMED",IF(B445&lt;&gt;E445,"RECATEGORIZED","---"))))</f>
+        <v>---</v>
+      </c>
       <c r="B445" s="3" t="s">
         <v>616</v>
       </c>
@@ -12196,6 +13940,10 @@
       </c>
     </row>
     <row r="446" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A446" s="1" t="str">
+        <f aca="false">IF(F446="---","NEW",IF(AND(C446&lt;&gt;F446,B446&lt;&gt;E446),"RENAMED &amp; RECATEGORIZED", IF(C446&lt;&gt;F446,"RENAMED",IF(B446&lt;&gt;E446,"RECATEGORIZED","---"))))</f>
+        <v>---</v>
+      </c>
       <c r="B446" s="3" t="s">
         <v>623</v>
       </c>
@@ -12213,6 +13961,10 @@
       </c>
     </row>
     <row r="447" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A447" s="1" t="str">
+        <f aca="false">IF(F447="---","NEW",IF(AND(C447&lt;&gt;F447,B447&lt;&gt;E447),"RENAMED &amp; RECATEGORIZED", IF(C447&lt;&gt;F447,"RENAMED",IF(B447&lt;&gt;E447,"RECATEGORIZED","---"))))</f>
+        <v>---</v>
+      </c>
       <c r="B447" s="3" t="s">
         <v>623</v>
       </c>
@@ -12230,6 +13982,10 @@
       </c>
     </row>
     <row r="448" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A448" s="1" t="str">
+        <f aca="false">IF(F448="---","NEW",IF(AND(C448&lt;&gt;F448,B448&lt;&gt;E448),"RENAMED &amp; RECATEGORIZED", IF(C448&lt;&gt;F448,"RENAMED",IF(B448&lt;&gt;E448,"RECATEGORIZED","---"))))</f>
+        <v>---</v>
+      </c>
       <c r="B448" s="1" t="s">
         <v>623</v>
       </c>
@@ -12247,6 +14003,10 @@
       </c>
     </row>
     <row r="449" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A449" s="1" t="str">
+        <f aca="false">IF(F449="---","NEW",IF(AND(C449&lt;&gt;F449,B449&lt;&gt;E449),"RENAMED &amp; RECATEGORIZED", IF(C449&lt;&gt;F449,"RENAMED",IF(B449&lt;&gt;E449,"RECATEGORIZED","---"))))</f>
+        <v>---</v>
+      </c>
       <c r="B449" s="1" t="s">
         <v>623</v>
       </c>
@@ -12264,6 +14024,10 @@
       </c>
     </row>
     <row r="450" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A450" s="1" t="str">
+        <f aca="false">IF(F450="---","NEW",IF(AND(C450&lt;&gt;F450,B450&lt;&gt;E450),"RENAMED &amp; RECATEGORIZED", IF(C450&lt;&gt;F450,"RENAMED",IF(B450&lt;&gt;E450,"RECATEGORIZED","---"))))</f>
+        <v>---</v>
+      </c>
       <c r="B450" s="1" t="s">
         <v>623</v>
       </c>
@@ -12281,6 +14045,10 @@
       </c>
     </row>
     <row r="451" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A451" s="1" t="str">
+        <f aca="false">IF(F451="---","NEW",IF(AND(C451&lt;&gt;F451,B451&lt;&gt;E451),"RENAMED &amp; RECATEGORIZED", IF(C451&lt;&gt;F451,"RENAMED",IF(B451&lt;&gt;E451,"RECATEGORIZED","---"))))</f>
+        <v>---</v>
+      </c>
       <c r="B451" s="1" t="s">
         <v>629</v>
       </c>
@@ -12298,6 +14066,10 @@
       </c>
     </row>
     <row r="452" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A452" s="1" t="str">
+        <f aca="false">IF(F452="---","NEW",IF(AND(C452&lt;&gt;F452,B452&lt;&gt;E452),"RENAMED &amp; RECATEGORIZED", IF(C452&lt;&gt;F452,"RENAMED",IF(B452&lt;&gt;E452,"RECATEGORIZED","---"))))</f>
+        <v>---</v>
+      </c>
       <c r="B452" s="1" t="s">
         <v>629</v>
       </c>
@@ -12315,6 +14087,10 @@
       </c>
     </row>
     <row r="453" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A453" s="1" t="str">
+        <f aca="false">IF(F453="---","NEW",IF(AND(C453&lt;&gt;F453,B453&lt;&gt;E453),"RENAMED &amp; RECATEGORIZED", IF(C453&lt;&gt;F453,"RENAMED",IF(B453&lt;&gt;E453,"RECATEGORIZED","---"))))</f>
+        <v>---</v>
+      </c>
       <c r="B453" s="1" t="s">
         <v>629</v>
       </c>
@@ -12332,6 +14108,10 @@
       </c>
     </row>
     <row r="454" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A454" s="1" t="str">
+        <f aca="false">IF(F454="---","NEW",IF(AND(C454&lt;&gt;F454,B454&lt;&gt;E454),"RENAMED &amp; RECATEGORIZED", IF(C454&lt;&gt;F454,"RENAMED",IF(B454&lt;&gt;E454,"RECATEGORIZED","---"))))</f>
+        <v>---</v>
+      </c>
       <c r="B454" s="1" t="s">
         <v>629</v>
       </c>
@@ -12349,6 +14129,10 @@
       </c>
     </row>
     <row r="455" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A455" s="1" t="str">
+        <f aca="false">IF(F455="---","NEW",IF(AND(C455&lt;&gt;F455,B455&lt;&gt;E455),"RENAMED &amp; RECATEGORIZED", IF(C455&lt;&gt;F455,"RENAMED",IF(B455&lt;&gt;E455,"RECATEGORIZED","---"))))</f>
+        <v>---</v>
+      </c>
       <c r="B455" s="1" t="s">
         <v>629</v>
       </c>
@@ -12366,6 +14150,10 @@
       </c>
     </row>
     <row r="456" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A456" s="1" t="str">
+        <f aca="false">IF(F456="---","NEW",IF(AND(C456&lt;&gt;F456,B456&lt;&gt;E456),"RENAMED &amp; RECATEGORIZED", IF(C456&lt;&gt;F456,"RENAMED",IF(B456&lt;&gt;E456,"RECATEGORIZED","---"))))</f>
+        <v>---</v>
+      </c>
       <c r="B456" s="1" t="s">
         <v>636</v>
       </c>
@@ -12383,6 +14171,10 @@
       </c>
     </row>
     <row r="457" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A457" s="1" t="str">
+        <f aca="false">IF(F457="---","NEW",IF(AND(C457&lt;&gt;F457,B457&lt;&gt;E457),"RENAMED &amp; RECATEGORIZED", IF(C457&lt;&gt;F457,"RENAMED",IF(B457&lt;&gt;E457,"RECATEGORIZED","---"))))</f>
+        <v>---</v>
+      </c>
       <c r="B457" s="1" t="s">
         <v>636</v>
       </c>
@@ -12400,6 +14192,10 @@
       </c>
     </row>
     <row r="458" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A458" s="1" t="str">
+        <f aca="false">IF(F458="---","NEW",IF(AND(C458&lt;&gt;F458,B458&lt;&gt;E458),"RENAMED &amp; RECATEGORIZED", IF(C458&lt;&gt;F458,"RENAMED",IF(B458&lt;&gt;E458,"RECATEGORIZED","---"))))</f>
+        <v>---</v>
+      </c>
       <c r="B458" s="1" t="s">
         <v>636</v>
       </c>
@@ -12417,6 +14213,10 @@
       </c>
     </row>
     <row r="459" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A459" s="1" t="str">
+        <f aca="false">IF(F459="---","NEW",IF(AND(C459&lt;&gt;F459,B459&lt;&gt;E459),"RENAMED &amp; RECATEGORIZED", IF(C459&lt;&gt;F459,"RENAMED",IF(B459&lt;&gt;E459,"RECATEGORIZED","---"))))</f>
+        <v>---</v>
+      </c>
       <c r="B459" s="1" t="s">
         <v>636</v>
       </c>
@@ -12434,6 +14234,10 @@
       </c>
     </row>
     <row r="460" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A460" s="1" t="str">
+        <f aca="false">IF(F460="---","NEW",IF(AND(C460&lt;&gt;F460,B460&lt;&gt;E460),"RENAMED &amp; RECATEGORIZED", IF(C460&lt;&gt;F460,"RENAMED",IF(B460&lt;&gt;E460,"RECATEGORIZED","---"))))</f>
+        <v>---</v>
+      </c>
       <c r="B460" s="1" t="s">
         <v>636</v>
       </c>
@@ -12451,6 +14255,10 @@
       </c>
     </row>
     <row r="461" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A461" s="1" t="str">
+        <f aca="false">IF(F461="---","NEW",IF(AND(C461&lt;&gt;F461,B461&lt;&gt;E461),"RENAMED &amp; RECATEGORIZED", IF(C461&lt;&gt;F461,"RENAMED",IF(B461&lt;&gt;E461,"RECATEGORIZED","---"))))</f>
+        <v>---</v>
+      </c>
       <c r="B461" s="1" t="s">
         <v>636</v>
       </c>
@@ -12468,6 +14276,10 @@
       </c>
     </row>
     <row r="462" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A462" s="1" t="str">
+        <f aca="false">IF(F462="---","NEW",IF(AND(C462&lt;&gt;F462,B462&lt;&gt;E462),"RENAMED &amp; RECATEGORIZED", IF(C462&lt;&gt;F462,"RENAMED",IF(B462&lt;&gt;E462,"RECATEGORIZED","---"))))</f>
+        <v>---</v>
+      </c>
       <c r="B462" s="1" t="s">
         <v>636</v>
       </c>
@@ -12521,8 +14333,8 @@
   </sheetPr>
   <dimension ref="A1:G469"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A115" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A16" activeCellId="0" sqref="A16"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A5" activeCellId="0" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.2890625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -22421,7 +24233,7 @@
   </sheetPr>
   <dimension ref="A1:T477"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="bottomLeft" activeCell="C10" activeCellId="0" sqref="C10"/>
@@ -35262,7 +37074,7 @@
   </sheetPr>
   <dimension ref="A1:E432"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A53" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A53" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C56" activeCellId="0" sqref="C56"/>
     </sheetView>
   </sheetViews>
@@ -42999,7 +44811,7 @@
   </sheetPr>
   <dimension ref="A1:E387"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C17" activeCellId="0" sqref="C17"/>
     </sheetView>
   </sheetViews>
@@ -50015,7 +51827,7 @@
   </sheetPr>
   <dimension ref="A1:D197"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A51" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A51" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B9" activeCellId="0" sqref="B9"/>
     </sheetView>
   </sheetViews>
